--- a/excel/dosyalar/ceki_listesi.xlsx
+++ b/excel/dosyalar/ceki_listesi.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet'!$A$6:$M$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet'!$A$6:$M$95</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -22,16 +22,10 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <name val="Arial"/>
       <charset val="162"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="162"/>
-      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -146,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -333,40 +327,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -437,19 +398,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -469,43 +417,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -519,26 +434,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -592,15 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -617,6 +503,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -626,234 +521,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,27 +1132,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col width="6.5546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.88671875" customWidth="1" style="1" min="2" max="2"/>
-    <col width="21.44140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="33.33203125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="23" customWidth="1" style="1" min="5" max="5"/>
-    <col width="5.5546875" customWidth="1" style="1" min="6" max="6"/>
-    <col width="10" customWidth="1" style="1" min="7" max="7"/>
-    <col width="9.88671875" customWidth="1" style="1" min="8" max="9"/>
-    <col width="8.88671875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="10" customWidth="1" style="1" min="11" max="11"/>
-    <col width="9.109375" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9.109375" customWidth="1" style="2" min="13" max="13"/>
-    <col width="9.109375" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="6.5546875" customWidth="1" style="47" min="1" max="1"/>
+    <col width="11.88671875" customWidth="1" style="47" min="2" max="2"/>
+    <col width="21.44140625" customWidth="1" style="47" min="3" max="3"/>
+    <col width="33.33203125" customWidth="1" style="47" min="4" max="4"/>
+    <col width="23" customWidth="1" style="47" min="5" max="5"/>
+    <col width="5.5546875" customWidth="1" style="47" min="6" max="6"/>
+    <col width="10" customWidth="1" style="47" min="7" max="7"/>
+    <col width="9.88671875" customWidth="1" style="47" min="8" max="9"/>
+    <col width="8.88671875" customWidth="1" style="47" min="10" max="10"/>
+    <col width="10" customWidth="1" style="47" min="11" max="11"/>
+    <col width="9.109375" customWidth="1" style="47" min="12" max="12"/>
+    <col width="9.109375" customWidth="1" style="48" min="13" max="13"/>
+    <col width="9.109375" customWidth="1" style="47" min="14" max="14"/>
+    <col width="9.109375" customWidth="1" style="47" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1300,7 +1200,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="L7" s="70" t="n"/>
+      <c r="L7" s="75" t="n"/>
     </row>
     <row r="8" ht="17.4" customHeight="1">
       <c r="A8" s="30" t="n"/>
@@ -1318,113 +1218,113 @@
       <c r="M8" s="30" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="56" t="inlineStr">
         <is>
           <t>CRATE</t>
         </is>
       </c>
-      <c r="B9" s="61" t="inlineStr">
+      <c r="B9" s="44" t="inlineStr">
         <is>
           <t>CASE ID</t>
         </is>
       </c>
-      <c r="C9" s="61" t="inlineStr">
+      <c r="C9" s="44" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D9" s="61" t="inlineStr">
+      <c r="D9" s="44" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="E9" s="61" t="inlineStr">
+      <c r="E9" s="44" t="inlineStr">
         <is>
           <t>COLOR</t>
         </is>
       </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="F9" s="56" t="inlineStr">
         <is>
           <t>SIZES (cm)</t>
         </is>
       </c>
-      <c r="G9" s="71" t="n"/>
-      <c r="H9" s="72" t="n"/>
-      <c r="I9" s="61" t="inlineStr">
+      <c r="G9" s="57" t="n"/>
+      <c r="H9" s="58" t="n"/>
+      <c r="I9" s="44" t="inlineStr">
         <is>
           <t>BOX</t>
         </is>
       </c>
-      <c r="J9" s="61" t="inlineStr">
+      <c r="J9" s="44" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="K9" s="62" t="inlineStr">
+      <c r="K9" s="56" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="L9" s="62" t="inlineStr">
+      <c r="L9" s="56" t="inlineStr">
         <is>
           <t>NET</t>
         </is>
       </c>
-      <c r="M9" s="62" t="inlineStr">
+      <c r="M9" s="56" t="inlineStr">
         <is>
           <t>GROSS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="62" t="inlineStr">
+      <c r="A10" s="56" t="inlineStr">
         <is>
           <t>NR</t>
         </is>
       </c>
-      <c r="B10" s="73" t="n"/>
-      <c r="C10" s="73" t="n"/>
-      <c r="D10" s="73" t="n"/>
-      <c r="E10" s="73" t="n"/>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="B10" s="45" t="n"/>
+      <c r="C10" s="45" t="n"/>
+      <c r="D10" s="45" t="n"/>
+      <c r="E10" s="45" t="n"/>
+      <c r="F10" s="56" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="G10" s="62" t="inlineStr">
+      <c r="G10" s="56" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H10" s="62" t="inlineStr">
+      <c r="H10" s="56" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="I10" s="73" t="n"/>
-      <c r="J10" s="73" t="n"/>
-      <c r="K10" s="62" t="inlineStr">
+      <c r="I10" s="45" t="n"/>
+      <c r="J10" s="45" t="n"/>
+      <c r="K10" s="56" t="inlineStr">
         <is>
           <t>SQM</t>
         </is>
       </c>
-      <c r="L10" s="62" t="inlineStr">
+      <c r="L10" s="56" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="M10" s="62" t="inlineStr">
+      <c r="M10" s="56" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="11" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A11" s="17" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>59846</v>
+        <v>53384</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1433,7 +1333,7 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
@@ -1448,36 +1348,36 @@
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>43</v>
+        <v>40.46</v>
       </c>
       <c r="L11" s="10" t="n">
-        <v>1228.08</v>
+        <v>1155.5376</v>
       </c>
       <c r="M11" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1185.5376</v>
+      </c>
+    </row>
+    <row r="12" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A12" s="17" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>59847</v>
+        <v>53450</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1486,7 +1386,7 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
@@ -1501,36 +1401,36 @@
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>43</v>
+        <v>41.4</v>
       </c>
       <c r="L12" s="10" t="n">
-        <v>1228.08</v>
+        <v>1182.384</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1212.384</v>
+      </c>
+    </row>
+    <row r="13" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>59848</v>
+        <v>53586</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1539,7 +1439,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
@@ -1554,36 +1454,36 @@
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="10" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>43</v>
+        <v>40.46</v>
       </c>
       <c r="L13" s="10" t="n">
-        <v>1228.08</v>
+        <v>1155.5376</v>
       </c>
       <c r="M13" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1185.5376</v>
+      </c>
+    </row>
+    <row r="14" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>59849</v>
+        <v>53587</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1592,7 +1492,7 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
@@ -1607,36 +1507,36 @@
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="10" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>43</v>
+        <v>40.46</v>
       </c>
       <c r="L14" s="10" t="n">
-        <v>1228.08</v>
+        <v>1155.5376</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1185.5376</v>
+      </c>
+    </row>
+    <row r="15" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>59851</v>
+        <v>53818</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1645,7 +1545,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
@@ -1660,36 +1560,36 @@
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="10" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>43</v>
+        <v>44.19</v>
       </c>
       <c r="L15" s="10" t="n">
-        <v>1228.08</v>
+        <v>1262.0664</v>
       </c>
       <c r="M15" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1292.0664</v>
+      </c>
+    </row>
+    <row r="16" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>59850</v>
+        <v>53841</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
@@ -1698,7 +1598,7 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
@@ -1713,36 +1613,36 @@
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="10" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>43</v>
+        <v>45.58</v>
       </c>
       <c r="L16" s="10" t="n">
-        <v>1228.08</v>
+        <v>1301.7648</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1331.7648</v>
+      </c>
+    </row>
+    <row r="17" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>59852</v>
+        <v>53875</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -1751,7 +1651,7 @@
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
@@ -1766,36 +1666,36 @@
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I17" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="10" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>43</v>
+        <v>41.86</v>
       </c>
       <c r="L17" s="10" t="n">
-        <v>1228.08</v>
+        <v>1195.5216</v>
       </c>
       <c r="M17" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1225.5216</v>
+      </c>
+    </row>
+    <row r="18" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>59853</v>
+        <v>54339</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
@@ -1804,7 +1704,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
@@ -1819,36 +1719,36 @@
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="10" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>43</v>
+        <v>43.26</v>
       </c>
       <c r="L18" s="10" t="n">
-        <v>1228.08</v>
+        <v>1235.5056</v>
       </c>
       <c r="M18" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1265.5056</v>
+      </c>
+    </row>
+    <row r="19" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>59857</v>
+        <v>54557</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -1857,7 +1757,7 @@
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
@@ -1872,36 +1772,36 @@
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I19" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="10" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>43</v>
+        <v>41.86</v>
       </c>
       <c r="L19" s="10" t="n">
-        <v>1228.08</v>
+        <v>1195.5216</v>
       </c>
       <c r="M19" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1225.5216</v>
+      </c>
+    </row>
+    <row r="20" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>59858</v>
+        <v>54558</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
@@ -1910,7 +1810,7 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
@@ -1925,36 +1825,36 @@
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I20" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="10" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>43</v>
+        <v>41.86</v>
       </c>
       <c r="L20" s="10" t="n">
-        <v>1228.08</v>
+        <v>1195.5216</v>
       </c>
       <c r="M20" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1225.5216</v>
+      </c>
+    </row>
+    <row r="21" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>59856</v>
+        <v>54700</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
@@ -1963,7 +1863,7 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
@@ -1978,36 +1878,36 @@
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="10" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>43</v>
+        <v>42.79</v>
       </c>
       <c r="L21" s="10" t="n">
-        <v>1228.08</v>
+        <v>1222.0824</v>
       </c>
       <c r="M21" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1252.0824</v>
+      </c>
+    </row>
+    <row r="22" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>59854</v>
+        <v>55864</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
@@ -2016,7 +1916,7 @@
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
@@ -2031,36 +1931,36 @@
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="10" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>43</v>
+        <v>41.86</v>
       </c>
       <c r="L22" s="10" t="n">
-        <v>1228.08</v>
+        <v>1195.5216</v>
       </c>
       <c r="M22" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1225.5216</v>
+      </c>
+    </row>
+    <row r="23" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>59855</v>
+        <v>56502</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
@@ -2069,7 +1969,7 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
@@ -2084,36 +1984,36 @@
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="10" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>43</v>
+        <v>39.54</v>
       </c>
       <c r="L23" s="10" t="n">
-        <v>1228.08</v>
+        <v>1129.2624</v>
       </c>
       <c r="M23" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1159.2624</v>
+      </c>
+    </row>
+    <row r="24" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>59859</v>
+        <v>59365</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
@@ -2122,7 +2022,7 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
@@ -2137,36 +2037,36 @@
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I24" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L24" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M24" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="25" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>59860</v>
+        <v>59740</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
@@ -2175,7 +2075,7 @@
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
@@ -2190,36 +2090,36 @@
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I25" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L25" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M25" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="26" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>59861</v>
+        <v>59797</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
@@ -2228,7 +2128,7 @@
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
@@ -2243,36 +2143,36 @@
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L26" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M26" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="27" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>59862</v>
+        <v>59798</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
@@ -2281,7 +2181,7 @@
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
@@ -2296,36 +2196,36 @@
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I27" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L27" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M27" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="28" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>59863</v>
+        <v>59800</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
@@ -2334,7 +2234,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
@@ -2349,36 +2249,36 @@
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I28" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L28" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M28" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="29" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
       <c r="B29" s="18" t="n">
-        <v>59865</v>
+        <v>59803</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
@@ -2387,7 +2287,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
@@ -2402,36 +2302,36 @@
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L29" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="30" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A30" s="17" t="n">
         <v>20</v>
       </c>
       <c r="B30" s="18" t="n">
-        <v>59866</v>
+        <v>59804</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
@@ -2440,7 +2340,7 @@
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
@@ -2455,36 +2355,36 @@
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I30" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L30" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M30" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="31" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A31" s="17" t="n">
         <v>21</v>
       </c>
       <c r="B31" s="18" t="n">
-        <v>59867</v>
+        <v>59806</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
@@ -2493,7 +2393,7 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
@@ -2508,36 +2408,36 @@
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L31" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="32" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A32" s="17" t="n">
         <v>22</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>59868</v>
+        <v>59883</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
@@ -2546,7 +2446,7 @@
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
@@ -2561,36 +2461,36 @@
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I32" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="10" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>43</v>
+        <v>38.14</v>
       </c>
       <c r="L32" s="10" t="n">
-        <v>1228.08</v>
+        <v>1089.2784</v>
       </c>
       <c r="M32" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="33" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A33" s="17" t="n">
         <v>23</v>
       </c>
       <c r="B33" s="18" t="n">
-        <v>59888</v>
+        <v>59884</v>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
@@ -2599,7 +2499,7 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
@@ -2614,36 +2514,36 @@
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I33" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="10" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>43</v>
+        <v>38.14</v>
       </c>
       <c r="L33" s="10" t="n">
-        <v>1228.08</v>
+        <v>1089.2784</v>
       </c>
       <c r="M33" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="34" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A34" s="17" t="n">
         <v>24</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>59889</v>
+        <v>59894</v>
       </c>
       <c r="C34" s="10" t="inlineStr">
         <is>
@@ -2652,7 +2552,7 @@
       </c>
       <c r="D34" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E34" s="10" t="inlineStr">
@@ -2667,36 +2567,36 @@
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H34" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="10" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>43</v>
+        <v>39.07</v>
       </c>
       <c r="L34" s="10" t="n">
-        <v>1228.08</v>
+        <v>1115.8392</v>
       </c>
       <c r="M34" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="35" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1145.8392</v>
+      </c>
+    </row>
+    <row r="35" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A35" s="17" t="n">
         <v>25</v>
       </c>
       <c r="B35" s="18" t="n">
-        <v>59890</v>
+        <v>59893</v>
       </c>
       <c r="C35" s="10" t="inlineStr">
         <is>
@@ -2705,7 +2605,7 @@
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr">
@@ -2720,36 +2620,36 @@
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H35" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="10" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>43</v>
+        <v>39.07</v>
       </c>
       <c r="L35" s="10" t="n">
-        <v>1228.08</v>
+        <v>1115.8392</v>
       </c>
       <c r="M35" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="36" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1145.8392</v>
+      </c>
+    </row>
+    <row r="36" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A36" s="17" t="n">
         <v>26</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>59892</v>
+        <v>59895</v>
       </c>
       <c r="C36" s="10" t="inlineStr">
         <is>
@@ -2758,7 +2658,7 @@
       </c>
       <c r="D36" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E36" s="10" t="inlineStr">
@@ -2773,36 +2673,36 @@
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H36" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="10" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>43</v>
+        <v>39.07</v>
       </c>
       <c r="L36" s="10" t="n">
-        <v>1228.08</v>
+        <v>1115.8392</v>
       </c>
       <c r="M36" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1145.8392</v>
+      </c>
+    </row>
+    <row r="37" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A37" s="17" t="n">
         <v>27</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>59891</v>
+        <v>60015</v>
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
@@ -2811,7 +2711,7 @@
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="E37" s="10" t="inlineStr">
@@ -2826,351 +2726,879 @@
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H37" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="10" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K37" s="9" t="n">
-        <v>43</v>
+        <v>37.21</v>
       </c>
       <c r="L37" s="10" t="n">
-        <v>1228.08</v>
+        <v>1062.7176</v>
       </c>
       <c r="M37" s="16" t="n">
-        <v>1258.08</v>
-      </c>
-    </row>
-    <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="38" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="14" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="11" t="n"/>
-      <c r="H38" s="11" t="n"/>
-      <c r="I38" s="11" t="n"/>
-      <c r="J38" s="10" t="n"/>
-      <c r="K38" s="9" t="n"/>
-      <c r="L38" s="10" t="n"/>
-      <c r="M38" s="16">
-        <f>L38+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B38" s="18" t="n">
+        <v>60062</v>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E38" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G38" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L38" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M38" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="39" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="14" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="11" t="n"/>
-      <c r="H39" s="11" t="n"/>
-      <c r="I39" s="11" t="n"/>
-      <c r="J39" s="10" t="n"/>
-      <c r="K39" s="9" t="n"/>
-      <c r="L39" s="10" t="n"/>
-      <c r="M39" s="16">
-        <f>L39+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B39" s="18" t="n">
+        <v>60063</v>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G39" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L39" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M39" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="40" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="14" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="11" t="n"/>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="11" t="n"/>
-      <c r="J40" s="10" t="n"/>
-      <c r="K40" s="9" t="n"/>
-      <c r="L40" s="10" t="n"/>
-      <c r="M40" s="16">
-        <f>L40+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B40" s="18" t="n">
+        <v>60073</v>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D40" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E40" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G40" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L40" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M40" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="41" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n"/>
-      <c r="C41" s="10" t="n"/>
-      <c r="D41" s="14" t="n"/>
-      <c r="E41" s="10" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="11" t="n"/>
-      <c r="H41" s="11" t="n"/>
-      <c r="I41" s="11" t="n"/>
-      <c r="J41" s="10" t="n"/>
-      <c r="K41" s="9" t="n"/>
-      <c r="L41" s="10" t="n"/>
-      <c r="M41" s="16">
-        <f>L41+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B41" s="18" t="n">
+        <v>60077</v>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G41" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I41" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L41" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M41" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="42" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A42" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="18" t="n"/>
-      <c r="C42" s="10" t="n"/>
-      <c r="D42" s="14" t="n"/>
-      <c r="E42" s="10" t="n"/>
-      <c r="F42" s="13" t="n"/>
-      <c r="G42" s="11" t="n"/>
-      <c r="H42" s="11" t="n"/>
-      <c r="I42" s="11" t="n"/>
-      <c r="J42" s="10" t="n"/>
-      <c r="K42" s="9" t="n"/>
-      <c r="L42" s="10" t="n"/>
-      <c r="M42" s="16">
-        <f>L42+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B42" s="18" t="n">
+        <v>60080</v>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E42" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G42" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H42" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L42" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M42" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="43" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A43" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="18" t="n"/>
-      <c r="C43" s="10" t="n"/>
-      <c r="D43" s="14" t="n"/>
-      <c r="E43" s="10" t="n"/>
-      <c r="F43" s="13" t="n"/>
-      <c r="G43" s="11" t="n"/>
-      <c r="H43" s="11" t="n"/>
-      <c r="I43" s="11" t="n"/>
-      <c r="J43" s="10" t="n"/>
-      <c r="K43" s="9" t="n"/>
-      <c r="L43" s="10" t="n"/>
-      <c r="M43" s="16">
-        <f>L43+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B43" s="18" t="n">
+        <v>60084</v>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G43" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H43" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L43" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M43" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="44" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A44" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="18" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="14" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="11" t="n"/>
-      <c r="H44" s="11" t="n"/>
-      <c r="I44" s="11" t="n"/>
-      <c r="J44" s="10" t="n"/>
-      <c r="K44" s="9" t="n"/>
-      <c r="L44" s="10" t="n"/>
-      <c r="M44" s="16">
-        <f>L44+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B44" s="18" t="n">
+        <v>60087</v>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D44" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E44" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G44" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H44" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I44" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L44" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M44" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="45" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A45" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="18" t="n"/>
-      <c r="C45" s="10" t="n"/>
-      <c r="D45" s="14" t="n"/>
-      <c r="E45" s="10" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="11" t="n"/>
-      <c r="H45" s="11" t="n"/>
-      <c r="I45" s="11" t="n"/>
-      <c r="J45" s="10" t="n"/>
-      <c r="K45" s="9" t="n"/>
-      <c r="L45" s="10" t="n"/>
-      <c r="M45" s="16">
-        <f>L45+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B45" s="18" t="n">
+        <v>60095</v>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E45" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G45" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H45" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L45" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M45" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="46" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A46" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="18" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="14" t="n"/>
-      <c r="E46" s="10" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="11" t="n"/>
-      <c r="H46" s="11" t="n"/>
-      <c r="I46" s="11" t="n"/>
-      <c r="J46" s="10" t="n"/>
-      <c r="K46" s="9" t="n"/>
-      <c r="L46" s="10" t="n"/>
-      <c r="M46" s="16">
-        <f>L46+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B46" s="18" t="n">
+        <v>60151</v>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D46" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E46" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G46" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H46" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I46" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L46" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M46" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="47" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A47" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="18" t="n"/>
-      <c r="C47" s="10" t="n"/>
-      <c r="D47" s="14" t="n"/>
-      <c r="E47" s="10" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="11" t="n"/>
-      <c r="H47" s="11" t="n"/>
-      <c r="I47" s="11" t="n"/>
-      <c r="J47" s="10" t="n"/>
-      <c r="K47" s="9" t="n"/>
-      <c r="L47" s="10" t="n"/>
-      <c r="M47" s="16">
-        <f>L47+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B47" s="18" t="n">
+        <v>60152</v>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G47" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H47" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I47" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L47" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M47" s="16" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="48" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A48" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="18" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="14" t="n"/>
-      <c r="E48" s="10" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="11" t="n"/>
-      <c r="H48" s="11" t="n"/>
-      <c r="I48" s="11" t="n"/>
-      <c r="J48" s="10" t="n"/>
-      <c r="K48" s="9" t="n"/>
-      <c r="L48" s="10" t="n"/>
-      <c r="M48" s="16">
-        <f>L48+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B48" s="18" t="n">
+        <v>527532</v>
+      </c>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D48" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E48" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G48" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H48" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A49" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="18" t="n"/>
-      <c r="C49" s="10" t="n"/>
-      <c r="D49" s="14" t="n"/>
-      <c r="E49" s="10" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="11" t="n"/>
-      <c r="H49" s="11" t="n"/>
-      <c r="I49" s="11" t="n"/>
-      <c r="J49" s="10" t="n"/>
-      <c r="K49" s="9" t="n"/>
-      <c r="L49" s="10" t="n"/>
-      <c r="M49" s="16">
-        <f>L49+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B49" s="18" t="n">
+        <v>527533</v>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D49" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E49" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G49" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H49" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I49" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A50" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="18" t="n"/>
-      <c r="C50" s="10" t="n"/>
-      <c r="D50" s="14" t="n"/>
-      <c r="E50" s="10" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="11" t="n"/>
-      <c r="H50" s="11" t="n"/>
-      <c r="I50" s="11" t="n"/>
-      <c r="J50" s="10" t="n"/>
-      <c r="K50" s="9" t="n"/>
-      <c r="L50" s="10" t="n"/>
-      <c r="M50" s="16">
-        <f>L50+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B50" s="18" t="n">
+        <v>527534</v>
+      </c>
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D50" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E50" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G50" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H50" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I50" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L50" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A51" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="18" t="n"/>
-      <c r="C51" s="10" t="n"/>
-      <c r="D51" s="14" t="n"/>
-      <c r="E51" s="10" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="11" t="n"/>
-      <c r="H51" s="11" t="n"/>
-      <c r="I51" s="11" t="n"/>
-      <c r="J51" s="10" t="n"/>
-      <c r="K51" s="9" t="n"/>
-      <c r="L51" s="10" t="n"/>
-      <c r="M51" s="16">
-        <f>L51+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B51" s="18" t="n">
+        <v>527535</v>
+      </c>
+      <c r="C51" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D51" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E51" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G51" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H51" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I51" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L51" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A52" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="B52" s="18" t="n"/>
-      <c r="C52" s="10" t="n"/>
-      <c r="D52" s="14" t="n"/>
-      <c r="E52" s="10" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="11" t="n"/>
-      <c r="H52" s="11" t="n"/>
-      <c r="I52" s="11" t="n"/>
-      <c r="J52" s="10" t="n"/>
-      <c r="K52" s="9" t="n"/>
-      <c r="L52" s="10" t="n"/>
-      <c r="M52" s="16">
-        <f>L52+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B52" s="18" t="n">
+        <v>527536</v>
+      </c>
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D52" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E52" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G52" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H52" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I52" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L52" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A53" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="B53" s="18" t="n"/>
-      <c r="C53" s="10" t="n"/>
-      <c r="D53" s="14" t="n"/>
-      <c r="E53" s="10" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="11" t="n"/>
-      <c r="H53" s="11" t="n"/>
-      <c r="I53" s="11" t="n"/>
-      <c r="J53" s="10" t="n"/>
-      <c r="K53" s="9" t="n"/>
-      <c r="L53" s="10" t="n"/>
-      <c r="M53" s="16">
-        <f>L53+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" ht="24.9" customFormat="1" customHeight="1" s="4">
+      <c r="B53" s="18" t="n">
+        <v>527537</v>
+      </c>
+      <c r="C53" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D53" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E53" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G53" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H53" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I53" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L53" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A54" s="17" t="n">
         <v>44</v>
       </c>
@@ -3190,7 +3618,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="55" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A55" s="17" t="n">
         <v>45</v>
       </c>
@@ -3210,7 +3638,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="56" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A56" s="17" t="n">
         <v>46</v>
       </c>
@@ -3230,7 +3658,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="57" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A57" s="17" t="n">
         <v>47</v>
       </c>
@@ -3250,7 +3678,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="58" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A58" s="17" t="n">
         <v>48</v>
       </c>
@@ -3270,7 +3698,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="59" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A59" s="17" t="n">
         <v>49</v>
       </c>
@@ -3290,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="60" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A60" s="17" t="n">
         <v>50</v>
       </c>
@@ -3310,7 +3738,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="61" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A61" s="17" t="n">
         <v>51</v>
       </c>
@@ -3330,7 +3758,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="62" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A62" s="17" t="n">
         <v>52</v>
       </c>
@@ -3350,7 +3778,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="63" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A63" s="17" t="n">
         <v>53</v>
       </c>
@@ -3370,7 +3798,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="64" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A64" s="17" t="n">
         <v>54</v>
       </c>
@@ -3390,7 +3818,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="65" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A65" s="17" t="n">
         <v>55</v>
       </c>
@@ -3410,7 +3838,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="66" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A66" s="17" t="n">
         <v>56</v>
       </c>
@@ -3430,7 +3858,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="67" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A67" s="17" t="n">
         <v>57</v>
       </c>
@@ -3450,7 +3878,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="68" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A68" s="17" t="n">
         <v>58</v>
       </c>
@@ -3470,7 +3898,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="69" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A69" s="17" t="n">
         <v>59</v>
       </c>
@@ -3490,7 +3918,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="70" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A70" s="17" t="n">
         <v>60</v>
       </c>
@@ -3510,7 +3938,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="71" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A71" s="17" t="n">
         <v>61</v>
       </c>
@@ -3530,7 +3958,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="72" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A72" s="17" t="n">
         <v>62</v>
       </c>
@@ -3550,7 +3978,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="73" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A73" s="17" t="n">
         <v>63</v>
       </c>
@@ -3570,7 +3998,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="74" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A74" s="17" t="n">
         <v>64</v>
       </c>
@@ -3590,7 +4018,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="75" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A75" s="17" t="n">
         <v>65</v>
       </c>
@@ -3610,7 +4038,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="76" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A76" s="17" t="n">
         <v>66</v>
       </c>
@@ -3630,16 +4058,16 @@
         <v/>
       </c>
     </row>
-    <row r="77" ht="24.9" customFormat="1" customHeight="1" s="4">
+    <row r="77" ht="24.9" customFormat="1" customHeight="1" s="54">
       <c r="A77" s="17" t="n">
         <v>67</v>
       </c>
-      <c r="B77" s="18" t="n"/>
+      <c r="B77" s="15" t="n"/>
       <c r="C77" s="10" t="n"/>
       <c r="D77" s="14" t="n"/>
       <c r="E77" s="10" t="n"/>
       <c r="F77" s="13" t="n"/>
-      <c r="G77" s="11" t="n"/>
+      <c r="G77" s="76" t="n"/>
       <c r="H77" s="11" t="n"/>
       <c r="I77" s="11" t="n"/>
       <c r="J77" s="10" t="n"/>
@@ -3650,499 +4078,299 @@
         <v/>
       </c>
     </row>
-    <row r="78" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A78" s="17" t="n">
-        <v>68</v>
-      </c>
-      <c r="B78" s="18" t="n"/>
-      <c r="C78" s="10" t="n"/>
-      <c r="D78" s="14" t="n"/>
-      <c r="E78" s="10" t="n"/>
-      <c r="F78" s="13" t="n"/>
-      <c r="G78" s="11" t="n"/>
-      <c r="H78" s="11" t="n"/>
-      <c r="I78" s="11" t="n"/>
-      <c r="J78" s="10" t="n"/>
-      <c r="K78" s="9" t="n"/>
-      <c r="L78" s="10" t="n"/>
-      <c r="M78" s="16">
-        <f>L78+30</f>
+    <row r="78" ht="15.9" customFormat="1" customHeight="1" s="54">
+      <c r="A78" s="8" t="n"/>
+      <c r="B78" s="48" t="n"/>
+      <c r="F78" s="53" t="n"/>
+      <c r="I78" s="53" t="n"/>
+      <c r="J78" s="6">
+        <f>SUM(J11:J77)</f>
         <v/>
       </c>
-    </row>
-    <row r="79" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A79" s="17" t="n">
-        <v>69</v>
-      </c>
-      <c r="B79" s="18" t="n"/>
-      <c r="C79" s="10" t="n"/>
-      <c r="D79" s="14" t="n"/>
-      <c r="E79" s="10" t="n"/>
-      <c r="F79" s="13" t="n"/>
-      <c r="G79" s="11" t="n"/>
-      <c r="H79" s="11" t="n"/>
-      <c r="I79" s="11" t="n"/>
-      <c r="J79" s="10" t="n"/>
-      <c r="K79" s="9" t="n"/>
-      <c r="L79" s="10" t="n"/>
-      <c r="M79" s="16">
-        <f>L79+30</f>
+      <c r="K78" s="7">
+        <f>SUM(K11:K77)</f>
         <v/>
       </c>
-    </row>
-    <row r="80" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A80" s="17" t="n">
-        <v>70</v>
-      </c>
-      <c r="B80" s="18" t="n"/>
-      <c r="C80" s="10" t="n"/>
-      <c r="D80" s="14" t="n"/>
-      <c r="E80" s="10" t="n"/>
-      <c r="F80" s="13" t="n"/>
-      <c r="G80" s="11" t="n"/>
-      <c r="H80" s="11" t="n"/>
-      <c r="I80" s="11" t="n"/>
-      <c r="J80" s="10" t="n"/>
-      <c r="K80" s="9" t="n"/>
-      <c r="L80" s="10" t="n"/>
-      <c r="M80" s="16">
-        <f>L80+30</f>
+      <c r="L78" s="6">
+        <f>SUM(L11:L77)</f>
         <v/>
       </c>
-    </row>
-    <row r="81" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A81" s="17" t="n">
-        <v>71</v>
-      </c>
-      <c r="B81" s="18" t="n"/>
-      <c r="C81" s="10" t="n"/>
-      <c r="D81" s="14" t="n"/>
-      <c r="E81" s="10" t="n"/>
-      <c r="F81" s="13" t="n"/>
-      <c r="G81" s="11" t="n"/>
-      <c r="H81" s="11" t="n"/>
-      <c r="I81" s="11" t="n"/>
-      <c r="J81" s="10" t="n"/>
-      <c r="K81" s="9" t="n"/>
-      <c r="L81" s="10" t="n"/>
-      <c r="M81" s="16">
-        <f>L81+30</f>
+      <c r="M78" s="5">
+        <f>SUM(M11:M77)</f>
         <v/>
       </c>
     </row>
-    <row r="82" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A82" s="17" t="n">
-        <v>72</v>
-      </c>
-      <c r="B82" s="18" t="n"/>
-      <c r="C82" s="10" t="n"/>
-      <c r="D82" s="14" t="n"/>
-      <c r="E82" s="10" t="n"/>
-      <c r="F82" s="13" t="n"/>
-      <c r="G82" s="11" t="n"/>
-      <c r="H82" s="11" t="n"/>
-      <c r="I82" s="11" t="n"/>
-      <c r="J82" s="10" t="n"/>
-      <c r="K82" s="9" t="n"/>
-      <c r="L82" s="10" t="n"/>
-      <c r="M82" s="16">
-        <f>L82+30</f>
+    <row r="79" ht="15.9" customFormat="1" customHeight="1" s="54">
+      <c r="A79" s="8" t="n"/>
+      <c r="B79" s="48" t="n"/>
+      <c r="F79" s="53" t="n"/>
+      <c r="G79" s="53" t="n"/>
+      <c r="H79" s="53" t="n"/>
+      <c r="I79" s="53" t="n"/>
+      <c r="J79" s="6" t="n"/>
+      <c r="K79" s="7" t="n"/>
+      <c r="L79" s="6" t="n"/>
+      <c r="M79" s="5" t="n"/>
+    </row>
+    <row r="80" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
+      <c r="A80" s="27" t="n"/>
+      <c r="B80" s="24" t="n"/>
+      <c r="C80" s="25" t="n"/>
+      <c r="D80" s="26" t="n"/>
+      <c r="E80" s="26" t="n"/>
+      <c r="F80" s="53" t="n"/>
+      <c r="G80" s="53" t="n"/>
+      <c r="H80" s="53" t="n"/>
+      <c r="I80" s="53" t="n"/>
+      <c r="J80" s="6" t="n"/>
+      <c r="K80" s="7" t="n"/>
+      <c r="L80" s="6" t="n"/>
+      <c r="M80" s="5" t="n"/>
+    </row>
+    <row r="81" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
+      <c r="A81" s="70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL CASES                                                        </t>
+        </is>
+      </c>
+      <c r="B81" s="71" t="n"/>
+      <c r="C81" s="72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> W. CASES</t>
+        </is>
+      </c>
+      <c r="D81" s="73" t="n"/>
+      <c r="E81" s="26" t="n"/>
+      <c r="F81" s="53" t="n"/>
+      <c r="G81" s="53" t="n"/>
+      <c r="H81" s="53" t="n"/>
+      <c r="I81" s="53" t="n"/>
+      <c r="J81" s="6" t="n"/>
+      <c r="K81" s="7" t="n"/>
+      <c r="L81" s="6" t="n"/>
+      <c r="M81" s="5" t="n"/>
+    </row>
+    <row r="82" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
+      <c r="A82" s="38" t="n"/>
+      <c r="B82" s="29" t="n"/>
+      <c r="C82" s="29" t="n"/>
+      <c r="D82" s="26" t="n"/>
+      <c r="E82" s="26" t="n"/>
+      <c r="F82" s="53" t="n"/>
+      <c r="G82" s="53" t="n"/>
+      <c r="H82" s="53" t="n"/>
+      <c r="I82" s="53" t="n"/>
+      <c r="J82" s="6" t="n"/>
+      <c r="K82" s="7" t="n"/>
+      <c r="L82" s="6" t="n"/>
+      <c r="M82" s="5" t="n"/>
+    </row>
+    <row r="83" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
+      <c r="A83" s="70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL NET KG                         </t>
+        </is>
+      </c>
+      <c r="B83" s="71" t="n"/>
+      <c r="C83" s="74">
+        <f>+L78</f>
         <v/>
       </c>
-    </row>
-    <row r="83" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A83" s="17" t="n">
-        <v>73</v>
-      </c>
-      <c r="B83" s="18" t="n"/>
-      <c r="C83" s="10" t="n"/>
-      <c r="D83" s="14" t="n"/>
-      <c r="E83" s="10" t="n"/>
-      <c r="F83" s="13" t="n"/>
-      <c r="G83" s="11" t="n"/>
-      <c r="H83" s="11" t="n"/>
-      <c r="I83" s="11" t="n"/>
-      <c r="J83" s="10" t="n"/>
-      <c r="K83" s="9" t="n"/>
-      <c r="L83" s="10" t="n"/>
-      <c r="M83" s="16">
-        <f>L83+30</f>
+      <c r="D83" s="73" t="n"/>
+      <c r="E83" s="39" t="inlineStr">
+        <is>
+          <t>KGS</t>
+        </is>
+      </c>
+      <c r="F83" s="53" t="n"/>
+      <c r="G83" s="53" t="n"/>
+      <c r="H83" s="53" t="n"/>
+      <c r="I83" s="53" t="n"/>
+      <c r="J83" s="6" t="n"/>
+      <c r="K83" s="7" t="n"/>
+      <c r="L83" s="6" t="n"/>
+      <c r="M83" s="5" t="n"/>
+    </row>
+    <row r="84" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A84" s="28" t="n"/>
+      <c r="B84" s="24" t="n"/>
+      <c r="C84" s="25" t="n"/>
+      <c r="D84" s="26" t="n"/>
+      <c r="E84" s="26" t="n"/>
+      <c r="M84" s="3" t="n"/>
+    </row>
+    <row r="85" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A85" s="70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL GROSS KG                     </t>
+        </is>
+      </c>
+      <c r="B85" s="71" t="n"/>
+      <c r="C85" s="74">
+        <f>+M78</f>
         <v/>
       </c>
-    </row>
-    <row r="84" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A84" s="17" t="n">
-        <v>74</v>
-      </c>
-      <c r="B84" s="18" t="n"/>
-      <c r="C84" s="10" t="n"/>
-      <c r="D84" s="14" t="n"/>
-      <c r="E84" s="10" t="n"/>
-      <c r="F84" s="13" t="n"/>
-      <c r="G84" s="11" t="n"/>
-      <c r="H84" s="11" t="n"/>
-      <c r="I84" s="11" t="n"/>
-      <c r="J84" s="10" t="n"/>
-      <c r="K84" s="9" t="n"/>
-      <c r="L84" s="10" t="n"/>
-      <c r="M84" s="16">
-        <f>L84+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A85" s="17" t="n">
-        <v>75</v>
-      </c>
-      <c r="B85" s="18" t="n"/>
-      <c r="C85" s="10" t="n"/>
-      <c r="D85" s="14" t="n"/>
-      <c r="E85" s="10" t="n"/>
-      <c r="F85" s="13" t="n"/>
-      <c r="G85" s="11" t="n"/>
-      <c r="H85" s="11" t="n"/>
-      <c r="I85" s="11" t="n"/>
-      <c r="J85" s="10" t="n"/>
-      <c r="K85" s="9" t="n"/>
-      <c r="L85" s="10" t="n"/>
-      <c r="M85" s="16">
-        <f>L85+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A86" s="17" t="n">
-        <v>76</v>
-      </c>
-      <c r="B86" s="18" t="n"/>
-      <c r="C86" s="10" t="n"/>
-      <c r="D86" s="14" t="n"/>
-      <c r="E86" s="10" t="n"/>
-      <c r="F86" s="13" t="n"/>
-      <c r="G86" s="11" t="n"/>
-      <c r="H86" s="11" t="n"/>
-      <c r="I86" s="11" t="n"/>
-      <c r="J86" s="10" t="n"/>
-      <c r="K86" s="9" t="n"/>
-      <c r="L86" s="10" t="n"/>
-      <c r="M86" s="16">
-        <f>L86+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" ht="24.9" customFormat="1" customHeight="1" s="4">
-      <c r="A87" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="B87" s="15" t="n"/>
-      <c r="C87" s="10" t="n"/>
-      <c r="D87" s="14" t="n"/>
-      <c r="E87" s="10" t="n"/>
-      <c r="F87" s="13" t="n"/>
-      <c r="G87" s="74" t="n"/>
-      <c r="H87" s="11" t="n"/>
-      <c r="I87" s="11" t="n"/>
-      <c r="J87" s="10" t="n"/>
-      <c r="K87" s="9" t="n"/>
-      <c r="L87" s="10" t="n"/>
-      <c r="M87" s="16">
-        <f>L87+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" ht="15.9" customFormat="1" customHeight="1" s="4">
-      <c r="A88" s="8" t="n"/>
-      <c r="B88" s="2" t="n"/>
-      <c r="F88" s="59" t="n"/>
-      <c r="I88" s="59" t="n"/>
-      <c r="J88" s="6">
-        <f>SUM(J11:J87)</f>
-        <v/>
-      </c>
-      <c r="K88" s="7">
-        <f>SUM(K11:K87)</f>
-        <v/>
-      </c>
-      <c r="L88" s="6">
-        <f>SUM(L11:L87)</f>
-        <v/>
-      </c>
-      <c r="M88" s="5">
-        <f>SUM(M11:M87)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" ht="15.9" customFormat="1" customHeight="1" s="4">
+      <c r="D85" s="73" t="n"/>
+      <c r="E85" s="39" t="inlineStr">
+        <is>
+          <t>KGS</t>
+        </is>
+      </c>
+      <c r="M85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="40" t="n"/>
+      <c r="B86" s="41" t="n"/>
+      <c r="C86" s="42" t="n"/>
+      <c r="D86" s="43" t="n"/>
+      <c r="E86" s="39" t="n"/>
+      <c r="M86" s="3" t="n"/>
+    </row>
+    <row r="87" ht="18" customHeight="1" thickBot="1">
+      <c r="A87" s="65" t="inlineStr">
+        <is>
+          <t>EK AÇIKLAMALAR</t>
+        </is>
+      </c>
+      <c r="E87" s="59" t="inlineStr">
+        <is>
+          <t>KASA ÖLÇÜLERİ</t>
+        </is>
+      </c>
+      <c r="M87" s="60" t="n"/>
+    </row>
+    <row r="88" ht="25.05" customHeight="1">
+      <c r="A88" s="66" t="n"/>
+      <c r="B88" s="67" t="n"/>
+      <c r="C88" s="67" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="68" t="n"/>
+      <c r="F88" s="67" t="n"/>
+      <c r="G88" s="67" t="n"/>
+      <c r="H88" s="67" t="n"/>
+      <c r="I88" s="67" t="n"/>
+      <c r="J88" s="67" t="n"/>
+      <c r="K88" s="67" t="n"/>
+      <c r="L88" s="67" t="n"/>
+      <c r="M88" s="69" t="n"/>
+    </row>
+    <row r="89" ht="25.05" customHeight="1">
       <c r="A89" s="8" t="n"/>
-      <c r="B89" s="2" t="n"/>
-      <c r="F89" s="59" t="n"/>
-      <c r="G89" s="59" t="n"/>
-      <c r="H89" s="59" t="n"/>
-      <c r="I89" s="59" t="n"/>
-      <c r="J89" s="6" t="n"/>
-      <c r="K89" s="7" t="n"/>
-      <c r="L89" s="6" t="n"/>
-      <c r="M89" s="5" t="n"/>
-    </row>
-    <row r="90" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A90" s="27" t="n"/>
-      <c r="B90" s="24" t="n"/>
-      <c r="C90" s="25" t="n"/>
-      <c r="D90" s="26" t="n"/>
-      <c r="E90" s="26" t="n"/>
-      <c r="F90" s="59" t="n"/>
-      <c r="G90" s="59" t="n"/>
-      <c r="H90" s="59" t="n"/>
-      <c r="I90" s="59" t="n"/>
-      <c r="J90" s="6" t="n"/>
-      <c r="K90" s="7" t="n"/>
-      <c r="L90" s="6" t="n"/>
-      <c r="M90" s="5" t="n"/>
-    </row>
-    <row r="91" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A91" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL CASES                                                        </t>
-        </is>
-      </c>
-      <c r="B91" s="75" t="n"/>
-      <c r="C91" s="76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> W. CASES</t>
-        </is>
-      </c>
-      <c r="D91" s="77" t="n"/>
-      <c r="E91" s="26" t="n"/>
-      <c r="F91" s="59" t="n"/>
-      <c r="G91" s="59" t="n"/>
-      <c r="H91" s="59" t="n"/>
-      <c r="I91" s="59" t="n"/>
-      <c r="J91" s="6" t="n"/>
-      <c r="K91" s="7" t="n"/>
-      <c r="L91" s="6" t="n"/>
-      <c r="M91" s="5" t="n"/>
-    </row>
-    <row r="92" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A92" s="38" t="n"/>
-      <c r="B92" s="29" t="n"/>
-      <c r="C92" s="29" t="n"/>
-      <c r="D92" s="26" t="n"/>
-      <c r="E92" s="26" t="n"/>
-      <c r="F92" s="59" t="n"/>
-      <c r="G92" s="59" t="n"/>
-      <c r="H92" s="59" t="n"/>
-      <c r="I92" s="59" t="n"/>
-      <c r="J92" s="6" t="n"/>
-      <c r="K92" s="7" t="n"/>
-      <c r="L92" s="6" t="n"/>
-      <c r="M92" s="5" t="n"/>
-    </row>
-    <row r="93" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A93" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL NET KG                         </t>
-        </is>
-      </c>
-      <c r="B93" s="75" t="n"/>
-      <c r="C93" s="78">
-        <f>+L88</f>
-        <v/>
-      </c>
-      <c r="D93" s="77" t="n"/>
-      <c r="E93" s="39" t="inlineStr">
-        <is>
-          <t>KGS</t>
-        </is>
-      </c>
-      <c r="F93" s="59" t="n"/>
-      <c r="G93" s="59" t="n"/>
-      <c r="H93" s="59" t="n"/>
-      <c r="I93" s="59" t="n"/>
-      <c r="J93" s="6" t="n"/>
-      <c r="K93" s="7" t="n"/>
-      <c r="L93" s="6" t="n"/>
-      <c r="M93" s="5" t="n"/>
-    </row>
-    <row r="94" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A94" s="28" t="n"/>
-      <c r="B94" s="24" t="n"/>
-      <c r="C94" s="25" t="n"/>
-      <c r="D94" s="26" t="n"/>
-      <c r="E94" s="26" t="n"/>
-      <c r="M94" s="3" t="n"/>
-    </row>
-    <row r="95" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A95" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL GROSS KG                     </t>
-        </is>
-      </c>
-      <c r="B95" s="75" t="n"/>
-      <c r="C95" s="78">
-        <f>+M88</f>
-        <v/>
-      </c>
-      <c r="D95" s="77" t="n"/>
-      <c r="E95" s="39" t="inlineStr">
-        <is>
-          <t>KGS</t>
-        </is>
-      </c>
-      <c r="M95" s="3" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="40" t="n"/>
-      <c r="B96" s="41" t="n"/>
-      <c r="C96" s="42" t="n"/>
-      <c r="D96" s="43" t="n"/>
-      <c r="E96" s="39" t="n"/>
-      <c r="M96" s="3" t="n"/>
-    </row>
-    <row r="97" ht="18" customHeight="1" thickBot="1">
-      <c r="A97" s="67" t="inlineStr">
-        <is>
-          <t>EK AÇIKLAMALAR</t>
-        </is>
-      </c>
-      <c r="E97" s="47" t="inlineStr">
-        <is>
-          <t>KASA ÖLÇÜLERİ</t>
-        </is>
-      </c>
-      <c r="M97" s="79" t="n"/>
-    </row>
-    <row r="98" ht="25.05" customHeight="1">
-      <c r="A98" s="44" t="n"/>
-      <c r="B98" s="80" t="n"/>
-      <c r="C98" s="80" t="n"/>
-      <c r="D98" s="80" t="n"/>
-      <c r="E98" s="81" t="n"/>
-      <c r="F98" s="80" t="n"/>
-      <c r="G98" s="80" t="n"/>
-      <c r="H98" s="80" t="n"/>
-      <c r="I98" s="80" t="n"/>
-      <c r="J98" s="80" t="n"/>
-      <c r="K98" s="80" t="n"/>
-      <c r="L98" s="80" t="n"/>
-      <c r="M98" s="82" t="n"/>
-    </row>
-    <row r="99" ht="25.05" customHeight="1">
-      <c r="A99" s="8" t="n"/>
-      <c r="B99" s="2" t="n"/>
-      <c r="C99" s="2" t="n"/>
-      <c r="D99" s="2" t="n"/>
-      <c r="E99" s="21" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-      <c r="H99" s="2" t="n"/>
-      <c r="I99" s="2" t="n"/>
-      <c r="J99" s="2" t="n"/>
-      <c r="K99" s="2" t="n"/>
-      <c r="L99" s="2" t="n"/>
-      <c r="M99" s="3" t="n"/>
-    </row>
-    <row r="100" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A100" s="34" t="n"/>
-      <c r="B100" s="35" t="n"/>
-      <c r="C100" s="35" t="n"/>
-      <c r="D100" s="35" t="n"/>
-      <c r="E100" s="36" t="n"/>
-      <c r="F100" s="35" t="n"/>
-      <c r="G100" s="35" t="n"/>
-      <c r="H100" s="35" t="n"/>
-      <c r="I100" s="35" t="n"/>
-      <c r="J100" s="35" t="n"/>
-      <c r="K100" s="35" t="n"/>
-      <c r="L100" s="35" t="n"/>
-      <c r="M100" s="37" t="n"/>
-    </row>
-    <row r="101" ht="25.05" customHeight="1">
-      <c r="A101" s="67" t="inlineStr">
+      <c r="B89" s="48" t="n"/>
+      <c r="C89" s="48" t="n"/>
+      <c r="D89" s="48" t="n"/>
+      <c r="E89" s="21" t="n"/>
+      <c r="F89" s="48" t="n"/>
+      <c r="G89" s="48" t="n"/>
+      <c r="H89" s="48" t="n"/>
+      <c r="I89" s="48" t="n"/>
+      <c r="J89" s="48" t="n"/>
+      <c r="K89" s="48" t="n"/>
+      <c r="L89" s="48" t="n"/>
+      <c r="M89" s="3" t="n"/>
+    </row>
+    <row r="90" ht="25.05" customHeight="1" thickBot="1">
+      <c r="A90" s="34" t="n"/>
+      <c r="B90" s="35" t="n"/>
+      <c r="C90" s="35" t="n"/>
+      <c r="D90" s="35" t="n"/>
+      <c r="E90" s="36" t="n"/>
+      <c r="F90" s="35" t="n"/>
+      <c r="G90" s="35" t="n"/>
+      <c r="H90" s="35" t="n"/>
+      <c r="I90" s="35" t="n"/>
+      <c r="J90" s="35" t="n"/>
+      <c r="K90" s="35" t="n"/>
+      <c r="L90" s="35" t="n"/>
+      <c r="M90" s="37" t="n"/>
+    </row>
+    <row r="91" ht="25.05" customHeight="1">
+      <c r="A91" s="65" t="inlineStr">
         <is>
           <t>KONTEYNER İÇİ DAĞILIM</t>
         </is>
       </c>
-      <c r="E101" s="47" t="inlineStr">
+      <c r="E91" s="59" t="inlineStr">
         <is>
           <t>YÜKLEME TOPLANTISI NOTLARI</t>
         </is>
       </c>
-      <c r="M101" s="79" t="n"/>
-    </row>
-    <row r="102" ht="25.05" customHeight="1">
-      <c r="A102" s="66" t="n"/>
-      <c r="B102" s="83" t="n"/>
-      <c r="C102" s="83" t="n"/>
-      <c r="D102" s="83" t="n"/>
-      <c r="E102" s="84" t="n"/>
-      <c r="F102" s="83" t="n"/>
-      <c r="G102" s="83" t="n"/>
-      <c r="H102" s="83" t="n"/>
-      <c r="I102" s="83" t="n"/>
-      <c r="J102" s="83" t="n"/>
-      <c r="K102" s="83" t="n"/>
-      <c r="L102" s="83" t="n"/>
-      <c r="M102" s="85" t="n"/>
-    </row>
-    <row r="103" ht="25.05" customHeight="1">
-      <c r="A103" s="20" t="n"/>
-      <c r="B103" s="2" t="n"/>
-      <c r="C103" s="2" t="n"/>
-      <c r="D103" s="2" t="n"/>
-      <c r="E103" s="21" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-      <c r="H103" s="2" t="n"/>
-      <c r="I103" s="2" t="n"/>
-      <c r="J103" s="2" t="n"/>
-      <c r="K103" s="2" t="n"/>
-      <c r="L103" s="2" t="n"/>
-      <c r="M103" s="22" t="n"/>
-    </row>
-    <row r="104" ht="25.05" customHeight="1">
-      <c r="A104" s="55" t="n"/>
-      <c r="B104" s="86" t="n"/>
-      <c r="C104" s="86" t="n"/>
-      <c r="D104" s="86" t="n"/>
-      <c r="E104" s="87" t="n"/>
-      <c r="F104" s="86" t="n"/>
-      <c r="G104" s="86" t="n"/>
-      <c r="H104" s="86" t="n"/>
-      <c r="I104" s="86" t="n"/>
-      <c r="J104" s="86" t="n"/>
-      <c r="K104" s="86" t="n"/>
-      <c r="L104" s="86" t="n"/>
-      <c r="M104" s="88" t="n"/>
-    </row>
-    <row r="105" ht="25.05" customHeight="1"/>
+      <c r="M91" s="60" t="n"/>
+    </row>
+    <row r="92" ht="25.05" customHeight="1">
+      <c r="A92" s="64" t="n"/>
+      <c r="B92" s="62" t="n"/>
+      <c r="C92" s="62" t="n"/>
+      <c r="D92" s="62" t="n"/>
+      <c r="E92" s="61" t="n"/>
+      <c r="F92" s="62" t="n"/>
+      <c r="G92" s="62" t="n"/>
+      <c r="H92" s="62" t="n"/>
+      <c r="I92" s="62" t="n"/>
+      <c r="J92" s="62" t="n"/>
+      <c r="K92" s="62" t="n"/>
+      <c r="L92" s="62" t="n"/>
+      <c r="M92" s="63" t="n"/>
+    </row>
+    <row r="93" ht="25.05" customHeight="1">
+      <c r="A93" s="20" t="n"/>
+      <c r="B93" s="48" t="n"/>
+      <c r="C93" s="48" t="n"/>
+      <c r="D93" s="48" t="n"/>
+      <c r="E93" s="21" t="n"/>
+      <c r="F93" s="48" t="n"/>
+      <c r="G93" s="48" t="n"/>
+      <c r="H93" s="48" t="n"/>
+      <c r="I93" s="48" t="n"/>
+      <c r="J93" s="48" t="n"/>
+      <c r="K93" s="48" t="n"/>
+      <c r="L93" s="48" t="n"/>
+      <c r="M93" s="22" t="n"/>
+    </row>
+    <row r="94" ht="25.05" customHeight="1">
+      <c r="A94" s="49" t="n"/>
+      <c r="B94" s="50" t="n"/>
+      <c r="C94" s="50" t="n"/>
+      <c r="D94" s="50" t="n"/>
+      <c r="E94" s="51" t="n"/>
+      <c r="F94" s="50" t="n"/>
+      <c r="G94" s="50" t="n"/>
+      <c r="H94" s="50" t="n"/>
+      <c r="I94" s="50" t="n"/>
+      <c r="J94" s="50" t="n"/>
+      <c r="K94" s="50" t="n"/>
+      <c r="L94" s="50" t="n"/>
+      <c r="M94" s="52" t="n"/>
+    </row>
+    <row r="95" ht="25.05" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E87:M87"/>
+    <mergeCell ref="E88:M88"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="E104:M104"/>
-    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:M94"/>
+    <mergeCell ref="F78:H78"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E101:M101"/>
-    <mergeCell ref="E102:M102"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E91:M91"/>
+    <mergeCell ref="E92:M92"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A91:D91"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E97:M97"/>
-    <mergeCell ref="E98:M98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1574803149606299" right="0.1181102362204725" top="0.33" bottom="0.59" header="0.33" footer="0.5118110236220472"/>

--- a/excel/dosyalar/ceki_listesi.xlsx
+++ b/excel/dosyalar/ceki_listesi.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet'!$A$6:$M$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet'!$A$6:$M$212</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -17,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -502,26 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -561,13 +540,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -597,20 +595,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -680,6 +672,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,7 +706,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -705,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -713,10 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -725,39 +739,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal_WO" xfId="2"/>
+    <cellStyle name="Normal_WO" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1132,198 +1117,198 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K199" sqref="K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col width="6.5546875" customWidth="1" style="47" min="1" max="1"/>
-    <col width="11.88671875" customWidth="1" style="47" min="2" max="2"/>
-    <col width="21.44140625" customWidth="1" style="47" min="3" max="3"/>
-    <col width="33.33203125" customWidth="1" style="47" min="4" max="4"/>
-    <col width="23" customWidth="1" style="47" min="5" max="5"/>
-    <col width="5.5546875" customWidth="1" style="47" min="6" max="6"/>
-    <col width="10" customWidth="1" style="47" min="7" max="7"/>
-    <col width="9.88671875" customWidth="1" style="47" min="8" max="9"/>
-    <col width="8.88671875" customWidth="1" style="47" min="10" max="10"/>
-    <col width="10" customWidth="1" style="47" min="11" max="11"/>
-    <col width="9.109375" customWidth="1" style="47" min="12" max="12"/>
-    <col width="9.109375" customWidth="1" style="48" min="13" max="13"/>
-    <col width="9.109375" customWidth="1" style="47" min="14" max="14"/>
-    <col width="9.109375" customWidth="1" style="47" min="15" max="16384"/>
+    <col width="6.5546875" customWidth="1" style="43" min="1" max="1"/>
+    <col width="11.88671875" customWidth="1" style="43" min="2" max="2"/>
+    <col width="21.44140625" customWidth="1" style="43" min="3" max="3"/>
+    <col width="33.33203125" customWidth="1" style="43" min="4" max="4"/>
+    <col width="23" customWidth="1" style="43" min="5" max="5"/>
+    <col width="5.5546875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="10" customWidth="1" style="43" min="7" max="7"/>
+    <col width="9.88671875" customWidth="1" style="43" min="8" max="9"/>
+    <col width="8.88671875" customWidth="1" style="43" min="10" max="10"/>
+    <col width="10" customWidth="1" style="43" min="11" max="11"/>
+    <col width="9.109375" customWidth="1" style="43" min="12" max="12"/>
+    <col width="9.109375" customWidth="1" style="58" min="13" max="13"/>
+    <col width="9.109375" customWidth="1" style="43" min="14" max="14"/>
+    <col width="9.109375" customWidth="1" style="43" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>CONSIGNEE:</t>
         </is>
       </c>
-      <c r="B1" s="31" t="n"/>
+      <c r="B1" s="29" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="n"/>
-      <c r="B2" s="31" t="n"/>
+      <c r="A2" s="29" t="n"/>
+      <c r="B2" s="29" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="30" t="inlineStr">
         <is>
           <t>PO NO:</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
+      <c r="B3" s="29" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>INVOICE NO:</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
+      <c r="B4" s="29" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>CONT NO:</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="29" t="n"/>
     </row>
     <row r="6" ht="17.4" customHeight="1">
-      <c r="A6" s="46" t="inlineStr">
+      <c r="A6" s="57" t="inlineStr">
         <is>
           <t>ÇEKİ LİSTESİ</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="L7" s="75" t="n"/>
+      <c r="L7" s="65" t="n"/>
     </row>
     <row r="8" ht="17.4" customHeight="1">
-      <c r="A8" s="30" t="n"/>
-      <c r="B8" s="30" t="n"/>
-      <c r="C8" s="30" t="n"/>
-      <c r="D8" s="30" t="n"/>
-      <c r="E8" s="30" t="n"/>
-      <c r="F8" s="30" t="n"/>
-      <c r="G8" s="30" t="n"/>
-      <c r="H8" s="30" t="n"/>
-      <c r="I8" s="30" t="n"/>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="30" t="n"/>
-      <c r="L8" s="30" t="n"/>
-      <c r="M8" s="30" t="n"/>
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="28" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="28" t="n"/>
+      <c r="G8" s="28" t="n"/>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="28" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="28" t="n"/>
+      <c r="M8" s="28" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="56" t="inlineStr">
+      <c r="A9" s="66" t="inlineStr">
         <is>
           <t>CRATE</t>
         </is>
       </c>
-      <c r="B9" s="44" t="inlineStr">
+      <c r="B9" s="55" t="inlineStr">
         <is>
           <t>CASE ID</t>
         </is>
       </c>
-      <c r="C9" s="44" t="inlineStr">
+      <c r="C9" s="55" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D9" s="44" t="inlineStr">
+      <c r="D9" s="55" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="E9" s="44" t="inlineStr">
+      <c r="E9" s="55" t="inlineStr">
         <is>
           <t>COLOR</t>
         </is>
       </c>
-      <c r="F9" s="56" t="inlineStr">
+      <c r="F9" s="66" t="inlineStr">
         <is>
           <t>SIZES (cm)</t>
         </is>
       </c>
-      <c r="G9" s="57" t="n"/>
-      <c r="H9" s="58" t="n"/>
-      <c r="I9" s="44" t="inlineStr">
+      <c r="G9" s="67" t="n"/>
+      <c r="H9" s="68" t="n"/>
+      <c r="I9" s="55" t="inlineStr">
         <is>
           <t>BOX</t>
         </is>
       </c>
-      <c r="J9" s="44" t="inlineStr">
+      <c r="J9" s="55" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="K9" s="56" t="inlineStr">
+      <c r="K9" s="66" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="L9" s="56" t="inlineStr">
+      <c r="L9" s="66" t="inlineStr">
         <is>
           <t>NET</t>
         </is>
       </c>
-      <c r="M9" s="56" t="inlineStr">
+      <c r="M9" s="66" t="inlineStr">
         <is>
           <t>GROSS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="inlineStr">
+      <c r="A10" s="66" t="inlineStr">
         <is>
           <t>NR</t>
         </is>
       </c>
-      <c r="B10" s="45" t="n"/>
-      <c r="C10" s="45" t="n"/>
-      <c r="D10" s="45" t="n"/>
-      <c r="E10" s="45" t="n"/>
-      <c r="F10" s="56" t="inlineStr">
+      <c r="B10" s="56" t="n"/>
+      <c r="C10" s="56" t="n"/>
+      <c r="D10" s="56" t="n"/>
+      <c r="E10" s="56" t="n"/>
+      <c r="F10" s="66" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="G10" s="56" t="inlineStr">
+      <c r="G10" s="66" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H10" s="56" t="inlineStr">
+      <c r="H10" s="66" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="I10" s="45" t="n"/>
-      <c r="J10" s="45" t="n"/>
-      <c r="K10" s="56" t="inlineStr">
+      <c r="I10" s="56" t="n"/>
+      <c r="J10" s="56" t="n"/>
+      <c r="K10" s="66" t="inlineStr">
         <is>
           <t>SQM</t>
         </is>
       </c>
-      <c r="L10" s="56" t="inlineStr">
+      <c r="L10" s="66" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="M10" s="56" t="inlineStr">
+      <c r="M10" s="66" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A11" s="17" t="n">
+    <row r="11" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A11" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="16" t="n">
         <v>53384</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
@@ -1331,9 +1316,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
@@ -1341,7 +1326,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F11" s="13" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1368,15 +1353,15 @@
       <c r="L11" s="10" t="n">
         <v>1155.5376</v>
       </c>
-      <c r="M11" s="16" t="n">
+      <c r="M11" s="14" t="n">
         <v>1185.5376</v>
       </c>
     </row>
-    <row r="12" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A12" s="17" t="n">
+    <row r="12" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A12" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="16" t="n">
         <v>53450</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
@@ -1384,9 +1369,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
@@ -1394,7 +1379,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F12" s="13" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1421,15 +1406,15 @@
       <c r="L12" s="10" t="n">
         <v>1182.384</v>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="M12" s="14" t="n">
         <v>1212.384</v>
       </c>
     </row>
-    <row r="13" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A13" s="17" t="n">
+    <row r="13" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A13" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="16" t="n">
         <v>53586</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
@@ -1437,9 +1422,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
@@ -1447,7 +1432,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F13" s="13" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1474,15 +1459,15 @@
       <c r="L13" s="10" t="n">
         <v>1155.5376</v>
       </c>
-      <c r="M13" s="16" t="n">
+      <c r="M13" s="14" t="n">
         <v>1185.5376</v>
       </c>
     </row>
-    <row r="14" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A14" s="17" t="n">
+    <row r="14" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A14" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="16" t="n">
         <v>53587</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
@@ -1490,9 +1475,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
@@ -1500,7 +1485,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F14" s="13" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1527,15 +1512,15 @@
       <c r="L14" s="10" t="n">
         <v>1155.5376</v>
       </c>
-      <c r="M14" s="16" t="n">
+      <c r="M14" s="14" t="n">
         <v>1185.5376</v>
       </c>
     </row>
-    <row r="15" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A15" s="17" t="n">
+    <row r="15" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A15" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="16" t="n">
         <v>53818</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
@@ -1543,9 +1528,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D15" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
@@ -1553,7 +1538,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F15" s="13" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1580,15 +1565,15 @@
       <c r="L15" s="10" t="n">
         <v>1262.0664</v>
       </c>
-      <c r="M15" s="16" t="n">
+      <c r="M15" s="14" t="n">
         <v>1292.0664</v>
       </c>
     </row>
-    <row r="16" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A16" s="17" t="n">
+    <row r="16" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A16" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="16" t="n">
         <v>53841</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -1596,9 +1581,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
@@ -1606,7 +1591,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F16" s="13" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1633,15 +1618,15 @@
       <c r="L16" s="10" t="n">
         <v>1301.7648</v>
       </c>
-      <c r="M16" s="16" t="n">
+      <c r="M16" s="14" t="n">
         <v>1331.7648</v>
       </c>
     </row>
-    <row r="17" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A17" s="17" t="n">
+    <row r="17" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A17" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="16" t="n">
         <v>53875</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
@@ -1649,9 +1634,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D17" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
@@ -1659,7 +1644,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F17" s="13" t="inlineStr">
+      <c r="F17" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1686,15 +1671,15 @@
       <c r="L17" s="10" t="n">
         <v>1195.5216</v>
       </c>
-      <c r="M17" s="16" t="n">
+      <c r="M17" s="14" t="n">
         <v>1225.5216</v>
       </c>
     </row>
-    <row r="18" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A18" s="17" t="n">
+    <row r="18" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A18" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="16" t="n">
         <v>54339</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
@@ -1702,9 +1687,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
@@ -1712,7 +1697,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F18" s="13" t="inlineStr">
+      <c r="F18" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1739,15 +1724,15 @@
       <c r="L18" s="10" t="n">
         <v>1235.5056</v>
       </c>
-      <c r="M18" s="16" t="n">
+      <c r="M18" s="14" t="n">
         <v>1265.5056</v>
       </c>
     </row>
-    <row r="19" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A19" s="17" t="n">
+    <row r="19" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A19" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="16" t="n">
         <v>54557</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
@@ -1755,9 +1740,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
@@ -1765,7 +1750,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F19" s="13" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1792,15 +1777,15 @@
       <c r="L19" s="10" t="n">
         <v>1195.5216</v>
       </c>
-      <c r="M19" s="16" t="n">
+      <c r="M19" s="14" t="n">
         <v>1225.5216</v>
       </c>
     </row>
-    <row r="20" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A20" s="17" t="n">
+    <row r="20" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A20" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="16" t="n">
         <v>54558</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -1808,9 +1793,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D20" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
@@ -1818,7 +1803,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F20" s="13" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1845,15 +1830,15 @@
       <c r="L20" s="10" t="n">
         <v>1195.5216</v>
       </c>
-      <c r="M20" s="16" t="n">
+      <c r="M20" s="14" t="n">
         <v>1225.5216</v>
       </c>
     </row>
-    <row r="21" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A21" s="17" t="n">
+    <row r="21" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A21" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="16" t="n">
         <v>54700</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
@@ -1861,9 +1846,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
@@ -1871,7 +1856,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F21" s="13" t="inlineStr">
+      <c r="F21" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1898,15 +1883,15 @@
       <c r="L21" s="10" t="n">
         <v>1222.0824</v>
       </c>
-      <c r="M21" s="16" t="n">
+      <c r="M21" s="14" t="n">
         <v>1252.0824</v>
       </c>
     </row>
-    <row r="22" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A22" s="17" t="n">
+    <row r="22" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A22" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="16" t="n">
         <v>55864</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
@@ -1914,9 +1899,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D22" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
@@ -1924,7 +1909,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F22" s="13" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -1951,15 +1936,15 @@
       <c r="L22" s="10" t="n">
         <v>1195.5216</v>
       </c>
-      <c r="M22" s="16" t="n">
+      <c r="M22" s="14" t="n">
         <v>1225.5216</v>
       </c>
     </row>
-    <row r="23" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A23" s="17" t="n">
+    <row r="23" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A23" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="16" t="n">
         <v>56502</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
@@ -1967,9 +1952,9 @@
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
@@ -1977,7 +1962,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F23" s="13" t="inlineStr">
+      <c r="F23" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2004,78 +1989,78 @@
       <c r="L23" s="10" t="n">
         <v>1129.2624</v>
       </c>
-      <c r="M23" s="16" t="n">
+      <c r="M23" s="14" t="n">
         <v>1159.2624</v>
       </c>
     </row>
-    <row r="24" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A24" s="17" t="n">
+    <row r="24" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A24" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B24" s="16" t="n">
+        <v>56503</v>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D24" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M24" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="25" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A25" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="16" t="n">
         <v>59365</v>
       </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I24" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10" t="n">
-        <v>400</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="L24" s="10" t="n">
-        <v>1062.7176</v>
-      </c>
-      <c r="M24" s="16" t="n">
-        <v>1092.7176</v>
-      </c>
-    </row>
-    <row r="25" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A25" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B25" s="18" t="n">
-        <v>59740</v>
-      </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D25" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
@@ -2083,7 +2068,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F25" s="13" t="inlineStr">
+      <c r="F25" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2110,25 +2095,25 @@
       <c r="L25" s="10" t="n">
         <v>1062.7176</v>
       </c>
-      <c r="M25" s="16" t="n">
+      <c r="M25" s="14" t="n">
         <v>1092.7176</v>
       </c>
     </row>
-    <row r="26" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A26" s="17" t="n">
+    <row r="26" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A26" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>59797</v>
+      <c r="B26" s="16" t="n">
+        <v>59740</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D26" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
@@ -2136,7 +2121,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F26" s="13" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2163,25 +2148,25 @@
       <c r="L26" s="10" t="n">
         <v>1062.7176</v>
       </c>
-      <c r="M26" s="16" t="n">
+      <c r="M26" s="14" t="n">
         <v>1092.7176</v>
       </c>
     </row>
-    <row r="27" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A27" s="17" t="n">
+    <row r="27" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A27" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n">
-        <v>59798</v>
+      <c r="B27" s="16" t="n">
+        <v>59741</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D27" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
@@ -2189,7 +2174,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F27" s="13" t="inlineStr">
+      <c r="F27" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2208,33 +2193,33 @@
         <v>0</v>
       </c>
       <c r="J27" s="10" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>37.21</v>
+        <v>38.14</v>
       </c>
       <c r="L27" s="10" t="n">
-        <v>1062.7176</v>
-      </c>
-      <c r="M27" s="16" t="n">
-        <v>1092.7176</v>
-      </c>
-    </row>
-    <row r="28" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A28" s="17" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M27" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="28" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A28" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n">
-        <v>59800</v>
+      <c r="B28" s="16" t="n">
+        <v>59797</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D28" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
@@ -2242,7 +2227,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F28" s="13" t="inlineStr">
+      <c r="F28" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2269,25 +2254,25 @@
       <c r="L28" s="10" t="n">
         <v>1062.7176</v>
       </c>
-      <c r="M28" s="16" t="n">
+      <c r="M28" s="14" t="n">
         <v>1092.7176</v>
       </c>
     </row>
-    <row r="29" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A29" s="17" t="n">
+    <row r="29" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A29" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n">
-        <v>59803</v>
+      <c r="B29" s="16" t="n">
+        <v>59798</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D29" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D29" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
@@ -2295,7 +2280,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F29" s="13" t="inlineStr">
+      <c r="F29" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2322,25 +2307,25 @@
       <c r="L29" s="10" t="n">
         <v>1062.7176</v>
       </c>
-      <c r="M29" s="16" t="n">
+      <c r="M29" s="14" t="n">
         <v>1092.7176</v>
       </c>
     </row>
-    <row r="30" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A30" s="17" t="n">
+    <row r="30" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A30" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="18" t="n">
-        <v>59804</v>
+      <c r="B30" s="16" t="n">
+        <v>59800</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D30" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D30" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
@@ -2348,7 +2333,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F30" s="13" t="inlineStr">
+      <c r="F30" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2375,555 +2360,555 @@
       <c r="L30" s="10" t="n">
         <v>1062.7176</v>
       </c>
-      <c r="M30" s="16" t="n">
+      <c r="M30" s="14" t="n">
         <v>1092.7176</v>
       </c>
     </row>
-    <row r="31" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A31" s="17" t="n">
+    <row r="31" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A31" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="18" t="n">
+      <c r="B31" s="16" t="n">
+        <v>59801</v>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D31" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="n">
+        <v>420</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="L31" s="10" t="n">
+        <v>1115.8392</v>
+      </c>
+      <c r="M31" s="14" t="n">
+        <v>1145.8392</v>
+      </c>
+    </row>
+    <row r="32" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A32" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B32" s="16" t="n">
+        <v>59803</v>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F32" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="L32" s="10" t="n">
+        <v>1062.7176</v>
+      </c>
+      <c r="M32" s="14" t="n">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="33" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A33" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B33" s="16" t="n">
+        <v>59804</v>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D33" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F33" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G33" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H33" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="L33" s="10" t="n">
+        <v>1062.7176</v>
+      </c>
+      <c r="M33" s="14" t="n">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="34" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A34" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" s="16" t="n">
         <v>59806</v>
       </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D31" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E31" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D34" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="G31" s="11" t="inlineStr">
+      <c r="G34" s="11" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="H31" s="11" t="inlineStr">
+      <c r="H34" s="11" t="inlineStr">
         <is>
           <t>61,0</t>
         </is>
       </c>
-      <c r="I31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10" t="n">
+      <c r="I34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="K31" s="9" t="n">
+      <c r="K34" s="9" t="n">
         <v>37.21</v>
       </c>
-      <c r="L31" s="10" t="n">
+      <c r="L34" s="10" t="n">
         <v>1062.7176</v>
       </c>
-      <c r="M31" s="16" t="n">
+      <c r="M34" s="14" t="n">
         <v>1092.7176</v>
       </c>
     </row>
-    <row r="32" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A32" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="B32" s="18" t="n">
+    <row r="35" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A35" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" s="16" t="n">
+        <v>59881</v>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D35" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L35" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M35" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="36" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A36" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="16" t="n">
         <v>59883</v>
       </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D32" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E32" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="inlineStr">
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E36" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="G32" s="11" t="inlineStr">
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="H32" s="11" t="inlineStr">
+      <c r="H36" s="11" t="inlineStr">
         <is>
           <t>61,0</t>
         </is>
       </c>
-      <c r="I32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10" t="n">
+      <c r="I36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="n">
         <v>410</v>
       </c>
-      <c r="K32" s="9" t="n">
+      <c r="K36" s="9" t="n">
         <v>38.14</v>
       </c>
-      <c r="L32" s="10" t="n">
+      <c r="L36" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M32" s="16" t="n">
+      <c r="M36" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="33" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A33" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="B33" s="18" t="n">
+    <row r="37" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A37" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" s="16" t="n">
         <v>59884</v>
       </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D33" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E33" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="inlineStr">
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D37" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E37" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F37" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="G33" s="11" t="inlineStr">
+      <c r="G37" s="11" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="H33" s="11" t="inlineStr">
+      <c r="H37" s="11" t="inlineStr">
         <is>
           <t>61,0</t>
         </is>
       </c>
-      <c r="I33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10" t="n">
+      <c r="I37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="n">
         <v>410</v>
       </c>
-      <c r="K33" s="9" t="n">
+      <c r="K37" s="9" t="n">
         <v>38.14</v>
       </c>
-      <c r="L33" s="10" t="n">
+      <c r="L37" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M33" s="16" t="n">
+      <c r="M37" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="34" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A34" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" s="18" t="n">
+    <row r="38" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A38" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" s="16" t="n">
         <v>59894</v>
       </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D34" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="inlineStr">
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D38" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E38" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="G34" s="11" t="inlineStr">
+      <c r="G38" s="11" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="H34" s="11" t="inlineStr">
+      <c r="H38" s="11" t="inlineStr">
         <is>
           <t>61,0</t>
         </is>
       </c>
-      <c r="I34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10" t="n">
+      <c r="I38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="n">
         <v>420</v>
       </c>
-      <c r="K34" s="9" t="n">
+      <c r="K38" s="9" t="n">
         <v>39.07</v>
       </c>
-      <c r="L34" s="10" t="n">
+      <c r="L38" s="10" t="n">
         <v>1115.8392</v>
       </c>
-      <c r="M34" s="16" t="n">
+      <c r="M38" s="14" t="n">
         <v>1145.8392</v>
       </c>
     </row>
-    <row r="35" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A35" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="B35" s="18" t="n">
+    <row r="39" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A39" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" s="16" t="n">
         <v>59893</v>
       </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E35" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="inlineStr">
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D39" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F39" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="G35" s="11" t="inlineStr">
+      <c r="G39" s="11" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="H35" s="11" t="inlineStr">
+      <c r="H39" s="11" t="inlineStr">
         <is>
           <t>61,0</t>
         </is>
       </c>
-      <c r="I35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10" t="n">
+      <c r="I39" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="n">
         <v>420</v>
       </c>
-      <c r="K35" s="9" t="n">
+      <c r="K39" s="9" t="n">
         <v>39.07</v>
       </c>
-      <c r="L35" s="10" t="n">
+      <c r="L39" s="10" t="n">
         <v>1115.8392</v>
       </c>
-      <c r="M35" s="16" t="n">
+      <c r="M39" s="14" t="n">
         <v>1145.8392</v>
       </c>
     </row>
-    <row r="36" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A36" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="B36" s="18" t="n">
+    <row r="40" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A40" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" s="16" t="n">
         <v>59895</v>
       </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D36" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E36" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="inlineStr">
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D40" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E40" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F40" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="G36" s="11" t="inlineStr">
+      <c r="G40" s="11" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="H36" s="11" t="inlineStr">
+      <c r="H40" s="11" t="inlineStr">
         <is>
           <t>61,0</t>
         </is>
       </c>
-      <c r="I36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10" t="n">
+      <c r="I40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="n">
         <v>420</v>
       </c>
-      <c r="K36" s="9" t="n">
+      <c r="K40" s="9" t="n">
         <v>39.07</v>
       </c>
-      <c r="L36" s="10" t="n">
+      <c r="L40" s="10" t="n">
         <v>1115.8392</v>
       </c>
-      <c r="M36" s="16" t="n">
+      <c r="M40" s="14" t="n">
         <v>1145.8392</v>
       </c>
     </row>
-    <row r="37" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A37" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="B37" s="18" t="n">
-        <v>60015</v>
-      </c>
-      <c r="C37" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D37" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E37" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10" t="n">
-        <v>400</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="L37" s="10" t="n">
-        <v>1062.7176</v>
-      </c>
-      <c r="M37" s="16" t="n">
-        <v>1092.7176</v>
-      </c>
-    </row>
-    <row r="38" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A38" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="B38" s="18" t="n">
-        <v>60062</v>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D38" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E38" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G38" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="10" t="n">
-        <v>410</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="L38" s="10" t="n">
-        <v>1089.2784</v>
-      </c>
-      <c r="M38" s="16" t="n">
-        <v>1119.2784</v>
-      </c>
-    </row>
-    <row r="39" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A39" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="B39" s="18" t="n">
-        <v>60063</v>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D39" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E39" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G39" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I39" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="10" t="n">
-        <v>410</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="L39" s="10" t="n">
-        <v>1089.2784</v>
-      </c>
-      <c r="M39" s="16" t="n">
-        <v>1119.2784</v>
-      </c>
-    </row>
-    <row r="40" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A40" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="B40" s="18" t="n">
-        <v>60073</v>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D40" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E40" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G40" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H40" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I40" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10" t="n">
-        <v>410</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="L40" s="10" t="n">
-        <v>1089.2784</v>
-      </c>
-      <c r="M40" s="16" t="n">
-        <v>1119.2784</v>
-      </c>
-    </row>
-    <row r="41" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A41" s="17" t="n">
+    <row r="41" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A41" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n">
-        <v>60077</v>
+      <c r="B41" s="16" t="n">
+        <v>60014</v>
       </c>
       <c r="C41" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D41" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D41" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E41" s="10" t="inlineStr">
@@ -2931,7 +2916,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F41" s="13" t="inlineStr">
+      <c r="F41" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -2958,25 +2943,25 @@
       <c r="L41" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M41" s="16" t="n">
+      <c r="M41" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="42" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A42" s="17" t="n">
+    <row r="42" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A42" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="18" t="n">
-        <v>60080</v>
+      <c r="B42" s="16" t="n">
+        <v>60015</v>
       </c>
       <c r="C42" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D42" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D42" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E42" s="10" t="inlineStr">
@@ -2984,7 +2969,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F42" s="13" t="inlineStr">
+      <c r="F42" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -3003,33 +2988,33 @@
         <v>0</v>
       </c>
       <c r="J42" s="10" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>38.14</v>
+        <v>37.21</v>
       </c>
       <c r="L42" s="10" t="n">
-        <v>1089.2784</v>
-      </c>
-      <c r="M42" s="16" t="n">
-        <v>1119.2784</v>
-      </c>
-    </row>
-    <row r="43" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A43" s="17" t="n">
+        <v>1062.7176</v>
+      </c>
+      <c r="M42" s="14" t="n">
+        <v>1092.7176</v>
+      </c>
+    </row>
+    <row r="43" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A43" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="18" t="n">
-        <v>60084</v>
+      <c r="B43" s="16" t="n">
+        <v>60062</v>
       </c>
       <c r="C43" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D43" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D43" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E43" s="10" t="inlineStr">
@@ -3037,7 +3022,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F43" s="13" t="inlineStr">
+      <c r="F43" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -3064,25 +3049,25 @@
       <c r="L43" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M43" s="16" t="n">
+      <c r="M43" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="44" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A44" s="17" t="n">
+    <row r="44" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A44" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="18" t="n">
-        <v>60087</v>
+      <c r="B44" s="16" t="n">
+        <v>60063</v>
       </c>
       <c r="C44" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D44" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D44" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E44" s="10" t="inlineStr">
@@ -3090,7 +3075,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F44" s="13" t="inlineStr">
+      <c r="F44" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -3117,25 +3102,25 @@
       <c r="L44" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M44" s="16" t="n">
+      <c r="M44" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="45" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A45" s="17" t="n">
+    <row r="45" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A45" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="18" t="n">
-        <v>60095</v>
+      <c r="B45" s="16" t="n">
+        <v>60073</v>
       </c>
       <c r="C45" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D45" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D45" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E45" s="10" t="inlineStr">
@@ -3143,7 +3128,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F45" s="13" t="inlineStr">
+      <c r="F45" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -3170,25 +3155,25 @@
       <c r="L45" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M45" s="16" t="n">
+      <c r="M45" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="46" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A46" s="17" t="n">
+    <row r="46" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A46" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="18" t="n">
-        <v>60151</v>
+      <c r="B46" s="16" t="n">
+        <v>60077</v>
       </c>
       <c r="C46" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D46" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D46" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E46" s="10" t="inlineStr">
@@ -3196,7 +3181,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F46" s="13" t="inlineStr">
+      <c r="F46" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -3223,25 +3208,25 @@
       <c r="L46" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M46" s="16" t="n">
+      <c r="M46" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="47" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A47" s="17" t="n">
+    <row r="47" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A47" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="18" t="n">
-        <v>60152</v>
+      <c r="B47" s="16" t="n">
+        <v>60080</v>
       </c>
       <c r="C47" s="10" t="inlineStr">
         <is>
           <t>Travertine Tiles</t>
         </is>
       </c>
-      <c r="D47" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
+      <c r="D47" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E47" s="10" t="inlineStr">
@@ -3249,7 +3234,7 @@
           <t>Classic Vein Cut</t>
         </is>
       </c>
-      <c r="F47" s="13" t="inlineStr">
+      <c r="F47" s="12" t="inlineStr">
         <is>
           <t>1,2</t>
         </is>
@@ -3276,1101 +3261,4962 @@
       <c r="L47" s="10" t="n">
         <v>1089.2784</v>
       </c>
-      <c r="M47" s="16" t="n">
+      <c r="M47" s="14" t="n">
         <v>1119.2784</v>
       </c>
     </row>
-    <row r="48" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A48" s="17" t="n">
+    <row r="48" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A48" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="18" t="n">
+      <c r="B48" s="16" t="n">
+        <v>60084</v>
+      </c>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D48" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E48" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G48" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H48" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L48" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M48" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="49" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A49" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B49" s="16" t="n">
+        <v>60087</v>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D49" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E49" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F49" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G49" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H49" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I49" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L49" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M49" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="50" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A50" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="B50" s="16" t="n">
+        <v>60095</v>
+      </c>
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D50" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E50" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F50" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G50" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H50" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I50" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L50" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M50" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="51" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A51" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="B51" s="16" t="n">
+        <v>60151</v>
+      </c>
+      <c r="C51" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D51" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E51" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F51" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G51" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H51" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I51" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L51" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M51" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="52" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A52" s="15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B52" s="16" t="n">
+        <v>60152</v>
+      </c>
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D52" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E52" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F52" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G52" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H52" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I52" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L52" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M52" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="53" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A53" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B53" s="16" t="n">
+        <v>60184</v>
+      </c>
+      <c r="C53" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D53" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E53" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F53" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G53" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H53" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I53" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L53" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M53" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="54" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A54" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="B54" s="16" t="n">
+        <v>60227</v>
+      </c>
+      <c r="C54" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D54" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E54" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G54" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H54" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I54" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L54" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M54" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="55" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A55" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="B55" s="16" t="n">
+        <v>60226</v>
+      </c>
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D55" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E55" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F55" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G55" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H55" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I55" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L55" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M55" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="56" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A56" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="B56" s="16" t="n">
+        <v>60228</v>
+      </c>
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D56" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E56" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F56" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G56" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H56" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I56" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L56" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M56" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="57" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A57" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="B57" s="16" t="n">
+        <v>60285</v>
+      </c>
+      <c r="C57" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D57" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E57" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F57" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G57" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H57" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I57" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L57" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M57" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="58" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A58" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B58" s="16" t="n">
+        <v>60286</v>
+      </c>
+      <c r="C58" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D58" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E58" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F58" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G58" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H58" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I58" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L58" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M58" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="59" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A59" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="B59" s="16" t="n">
+        <v>60287</v>
+      </c>
+      <c r="C59" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D59" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E59" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F59" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G59" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H59" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L59" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M59" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="60" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A60" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" s="16" t="n">
+        <v>60290</v>
+      </c>
+      <c r="C60" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D60" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E60" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F60" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G60" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H60" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L60" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M60" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="61" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A61" s="15" t="n">
+        <v>51</v>
+      </c>
+      <c r="B61" s="16" t="n">
+        <v>60289</v>
+      </c>
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D61" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E61" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F61" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G61" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H61" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I61" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L61" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M61" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="62" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A62" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B62" s="16" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D62" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E62" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F62" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G62" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H62" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L62" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M62" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="63" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A63" s="15" t="n">
+        <v>53</v>
+      </c>
+      <c r="B63" s="16" t="n">
+        <v>60299</v>
+      </c>
+      <c r="C63" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D63" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E63" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F63" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G63" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H63" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I63" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L63" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M63" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="64" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A64" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="B64" s="16" t="n">
+        <v>60298</v>
+      </c>
+      <c r="C64" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D64" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E64" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F64" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G64" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H64" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L64" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M64" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="65" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A65" s="15" t="n">
+        <v>55</v>
+      </c>
+      <c r="B65" s="16" t="n">
+        <v>60304</v>
+      </c>
+      <c r="C65" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D65" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E65" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F65" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G65" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H65" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L65" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M65" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="66" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A66" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="B66" s="16" t="n">
+        <v>60306</v>
+      </c>
+      <c r="C66" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D66" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E66" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F66" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G66" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H66" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I66" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L66" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M66" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="67" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A67" s="15" t="n">
+        <v>57</v>
+      </c>
+      <c r="B67" s="16" t="n">
+        <v>60305</v>
+      </c>
+      <c r="C67" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D67" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E67" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F67" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G67" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H67" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L67" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M67" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="68" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A68" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="B68" s="16" t="n">
+        <v>60320</v>
+      </c>
+      <c r="C68" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D68" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E68" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F68" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G68" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H68" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I68" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L68" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M68" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="69" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A69" s="15" t="n">
+        <v>59</v>
+      </c>
+      <c r="B69" s="16" t="n">
+        <v>60321</v>
+      </c>
+      <c r="C69" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D69" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E69" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F69" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G69" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H69" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I69" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L69" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M69" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="70" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A70" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="B70" s="16" t="n">
+        <v>60328</v>
+      </c>
+      <c r="C70" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D70" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E70" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F70" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G70" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H70" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I70" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L70" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M70" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="71" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A71" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="B71" s="16" t="n">
+        <v>60329</v>
+      </c>
+      <c r="C71" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D71" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E71" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F71" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G71" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H71" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I71" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L71" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M71" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="72" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A72" s="15" t="n">
+        <v>62</v>
+      </c>
+      <c r="B72" s="16" t="n">
+        <v>60330</v>
+      </c>
+      <c r="C72" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D72" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E72" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F72" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G72" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H72" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I72" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L72" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M72" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="73" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A73" s="15" t="n">
+        <v>63</v>
+      </c>
+      <c r="B73" s="16" t="n">
+        <v>60333</v>
+      </c>
+      <c r="C73" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D73" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E73" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F73" s="12" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G73" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H73" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I73" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="L73" s="10" t="n">
+        <v>1089.2784</v>
+      </c>
+      <c r="M73" s="14" t="n">
+        <v>1119.2784</v>
+      </c>
+    </row>
+    <row r="74" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A74" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="B74" s="16" t="n">
+        <v>527744</v>
+      </c>
+      <c r="C74" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D74" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E74" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F74" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G74" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H74" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I74" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L74" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M74" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="75" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A75" s="15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B75" s="16" t="n">
+        <v>527745</v>
+      </c>
+      <c r="C75" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D75" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E75" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F75" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G75" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H75" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I75" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L75" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M75" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="76" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A76" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="B76" s="16" t="n">
+        <v>527746</v>
+      </c>
+      <c r="C76" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D76" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E76" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F76" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G76" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H76" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I76" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L76" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M76" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="77" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A77" s="15" t="n">
+        <v>67</v>
+      </c>
+      <c r="B77" s="16" t="n">
+        <v>527747</v>
+      </c>
+      <c r="C77" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D77" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E77" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F77" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G77" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H77" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I77" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L77" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M77" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="78" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A78" s="15" t="n">
+        <v>68</v>
+      </c>
+      <c r="B78" s="16" t="n">
+        <v>527748</v>
+      </c>
+      <c r="C78" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D78" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E78" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F78" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G78" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H78" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I78" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L78" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M78" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="79" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A79" s="15" t="n">
+        <v>69</v>
+      </c>
+      <c r="B79" s="16" t="n">
+        <v>527749</v>
+      </c>
+      <c r="C79" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D79" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E79" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F79" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G79" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H79" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I79" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L79" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M79" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="80" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A80" s="15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B80" s="16" t="n">
+        <v>527750</v>
+      </c>
+      <c r="C80" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D80" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E80" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F80" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G80" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H80" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I80" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L80" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M80" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="81" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A81" s="15" t="n">
+        <v>71</v>
+      </c>
+      <c r="B81" s="16" t="n">
+        <v>527751</v>
+      </c>
+      <c r="C81" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D81" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E81" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F81" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G81" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H81" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I81" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L81" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M81" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="82" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A82" s="15" t="n">
+        <v>72</v>
+      </c>
+      <c r="B82" s="16" t="n">
+        <v>527752</v>
+      </c>
+      <c r="C82" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D82" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E82" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F82" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G82" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H82" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I82" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L82" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M82" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="83" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A83" s="15" t="n">
+        <v>73</v>
+      </c>
+      <c r="B83" s="16" t="n">
+        <v>527753</v>
+      </c>
+      <c r="C83" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D83" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F83" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G83" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H83" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I83" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K83" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L83" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M83" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="84" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A84" s="15" t="n">
+        <v>74</v>
+      </c>
+      <c r="B84" s="16" t="n">
+        <v>527754</v>
+      </c>
+      <c r="C84" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D84" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E84" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F84" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G84" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H84" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I84" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L84" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M84" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="85" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A85" s="15" t="n">
+        <v>75</v>
+      </c>
+      <c r="B85" s="16" t="n">
+        <v>527755</v>
+      </c>
+      <c r="C85" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D85" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E85" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F85" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G85" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H85" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I85" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L85" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M85" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="86" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A86" s="15" t="n">
+        <v>76</v>
+      </c>
+      <c r="B86" s="16" t="n">
+        <v>527756</v>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D86" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E86" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F86" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G86" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H86" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I86" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K86" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L86" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M86" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="87" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A87" s="15" t="n">
+        <v>77</v>
+      </c>
+      <c r="B87" s="16" t="n">
+        <v>527757</v>
+      </c>
+      <c r="C87" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D87" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E87" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F87" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G87" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H87" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I87" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L87" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M87" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="88" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A88" s="15" t="n">
+        <v>78</v>
+      </c>
+      <c r="B88" s="16" t="n">
+        <v>527758</v>
+      </c>
+      <c r="C88" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D88" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E88" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F88" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G88" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H88" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I88" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L88" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M88" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="89" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A89" s="15" t="n">
+        <v>79</v>
+      </c>
+      <c r="B89" s="16" t="n">
+        <v>527759</v>
+      </c>
+      <c r="C89" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D89" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E89" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F89" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G89" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H89" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I89" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L89" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M89" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="90" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A90" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="B90" s="16" t="n">
+        <v>527760</v>
+      </c>
+      <c r="C90" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D90" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E90" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F90" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G90" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H90" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I90" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L90" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M90" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="91" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A91" s="15" t="n">
+        <v>81</v>
+      </c>
+      <c r="B91" s="16" t="n">
+        <v>527761</v>
+      </c>
+      <c r="C91" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D91" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E91" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F91" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G91" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H91" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I91" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L91" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M91" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="92" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A92" s="15" t="n">
+        <v>82</v>
+      </c>
+      <c r="B92" s="16" t="n">
+        <v>527762</v>
+      </c>
+      <c r="C92" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D92" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E92" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F92" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G92" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H92" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I92" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L92" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M92" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="93" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A93" s="15" t="n">
+        <v>83</v>
+      </c>
+      <c r="B93" s="16" t="n">
+        <v>527763</v>
+      </c>
+      <c r="C93" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D93" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E93" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F93" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G93" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H93" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I93" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L93" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M93" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="94" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A94" s="15" t="n">
+        <v>84</v>
+      </c>
+      <c r="B94" s="16" t="n">
+        <v>527764</v>
+      </c>
+      <c r="C94" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D94" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E94" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F94" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G94" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H94" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I94" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L94" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M94" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="95" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A95" s="15" t="n">
+        <v>85</v>
+      </c>
+      <c r="B95" s="16" t="n">
+        <v>527765</v>
+      </c>
+      <c r="C95" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D95" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E95" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F95" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G95" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H95" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I95" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L95" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M95" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="96" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A96" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="B96" s="16" t="n">
+        <v>527766</v>
+      </c>
+      <c r="C96" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D96" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E96" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F96" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G96" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H96" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I96" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L96" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M96" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="97" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A97" s="15" t="n">
+        <v>87</v>
+      </c>
+      <c r="B97" s="16" t="n">
+        <v>527767</v>
+      </c>
+      <c r="C97" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D97" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E97" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F97" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G97" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H97" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I97" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L97" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M97" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="98" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A98" s="15" t="n">
+        <v>88</v>
+      </c>
+      <c r="B98" s="16" t="n">
+        <v>527768</v>
+      </c>
+      <c r="C98" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D98" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E98" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F98" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G98" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H98" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I98" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L98" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M98" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="99" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A99" s="15" t="n">
+        <v>89</v>
+      </c>
+      <c r="B99" s="16" t="n">
+        <v>527770</v>
+      </c>
+      <c r="C99" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D99" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E99" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F99" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G99" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H99" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I99" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L99" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M99" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="100" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A100" s="15" t="n">
+        <v>90</v>
+      </c>
+      <c r="B100" s="16" t="n">
+        <v>527769</v>
+      </c>
+      <c r="C100" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D100" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E100" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F100" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G100" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H100" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I100" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K100" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L100" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M100" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="101" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A101" s="15" t="n">
+        <v>91</v>
+      </c>
+      <c r="B101" s="16" t="n">
+        <v>527771</v>
+      </c>
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D101" s="13" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E101" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F101" s="12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G101" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H101" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I101" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L101" s="10" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="M101" s="14" t="n">
+        <v>886.8</v>
+      </c>
+    </row>
+    <row r="102" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A102" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="B102" s="16" t="n">
         <v>527532</v>
       </c>
-      <c r="C48" s="10" t="inlineStr">
+      <c r="C102" s="10" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D48" s="14" t="inlineStr">
+      <c r="D102" s="13" t="inlineStr">
         <is>
           <t>Tile Adhesive</t>
         </is>
       </c>
-      <c r="E48" s="10" t="inlineStr">
+      <c r="E102" s="10" t="inlineStr">
         <is>
           <t>Kalekim 1051</t>
         </is>
       </c>
-      <c r="F48" s="13" t="inlineStr">
+      <c r="F102" s="12" t="inlineStr">
         <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="G48" s="11" t="inlineStr">
+      <c r="G102" s="11" t="inlineStr">
         <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="H48" s="11" t="inlineStr">
+      <c r="H102" s="11" t="inlineStr">
         <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="I48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="10" t="n">
+      <c r="I102" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="K48" s="9" t="n">
+      <c r="K102" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="L48" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A49" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="B49" s="18" t="n">
+      <c r="L102" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A103" s="15" t="n">
+        <v>93</v>
+      </c>
+      <c r="B103" s="16" t="n">
         <v>527533</v>
       </c>
-      <c r="C49" s="10" t="inlineStr">
+      <c r="C103" s="10" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D49" s="14" t="inlineStr">
+      <c r="D103" s="13" t="inlineStr">
         <is>
           <t>Tile Adhesive</t>
         </is>
       </c>
-      <c r="E49" s="10" t="inlineStr">
+      <c r="E103" s="10" t="inlineStr">
         <is>
           <t>Kalekim 1051</t>
         </is>
       </c>
-      <c r="F49" s="13" t="inlineStr">
+      <c r="F103" s="12" t="inlineStr">
         <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="G49" s="11" t="inlineStr">
+      <c r="G103" s="11" t="inlineStr">
         <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="H49" s="11" t="inlineStr">
+      <c r="H103" s="11" t="inlineStr">
         <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="I49" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="10" t="n">
+      <c r="I103" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="K49" s="9" t="n">
+      <c r="K103" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="L49" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A50" s="17" t="n">
+      <c r="L103" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A104" s="15" t="n">
+        <v>94</v>
+      </c>
+      <c r="B104" s="16" t="n">
+        <v>527534</v>
+      </c>
+      <c r="C104" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D104" s="13" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E104" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F104" s="12" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G104" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H104" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I104" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L104" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A105" s="15" t="n">
+        <v>95</v>
+      </c>
+      <c r="B105" s="16" t="n">
+        <v>527535</v>
+      </c>
+      <c r="C105" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D105" s="13" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E105" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F105" s="12" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G105" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H105" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I105" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L105" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A106" s="15" t="n">
+        <v>96</v>
+      </c>
+      <c r="B106" s="16" t="n">
+        <v>527536</v>
+      </c>
+      <c r="C106" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D106" s="13" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E106" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F106" s="12" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G106" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H106" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I106" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="L106" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A107" s="15" t="n">
+        <v>97</v>
+      </c>
+      <c r="B107" s="16" t="n">
+        <v>527537</v>
+      </c>
+      <c r="C107" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D107" s="13" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E107" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F107" s="12" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G107" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H107" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I107" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="18" t="n">
-        <v>527534</v>
-      </c>
-      <c r="C50" s="10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D50" s="14" t="inlineStr">
-        <is>
-          <t>Tile Adhesive</t>
-        </is>
-      </c>
-      <c r="E50" s="10" t="inlineStr">
-        <is>
-          <t>Kalekim 1051</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="G50" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="H50" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="I50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="10" t="n">
-        <v>64</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="L50" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A51" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="B51" s="18" t="n">
-        <v>527535</v>
-      </c>
-      <c r="C51" s="10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D51" s="14" t="inlineStr">
-        <is>
-          <t>Tile Adhesive</t>
-        </is>
-      </c>
-      <c r="E51" s="10" t="inlineStr">
-        <is>
-          <t>Kalekim 1051</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="G51" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="H51" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="I51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="10" t="n">
-        <v>64</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="L51" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A52" s="17" t="n">
-        <v>42</v>
-      </c>
-      <c r="B52" s="18" t="n">
-        <v>527536</v>
-      </c>
-      <c r="C52" s="10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D52" s="14" t="inlineStr">
-        <is>
-          <t>Tile Adhesive</t>
-        </is>
-      </c>
-      <c r="E52" s="10" t="inlineStr">
-        <is>
-          <t>Kalekim 1051</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="G52" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="H52" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="I52" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="10" t="n">
-        <v>64</v>
-      </c>
-      <c r="K52" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="L52" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A53" s="17" t="n">
-        <v>43</v>
-      </c>
-      <c r="B53" s="18" t="n">
-        <v>527537</v>
-      </c>
-      <c r="C53" s="10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D53" s="14" t="inlineStr">
-        <is>
-          <t>Tile Adhesive</t>
-        </is>
-      </c>
-      <c r="E53" s="10" t="inlineStr">
-        <is>
-          <t>Kalekim 1051</t>
-        </is>
-      </c>
-      <c r="F53" s="13" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="G53" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="H53" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="I53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="10" t="n">
+      <c r="K107" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="K53" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L53" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A54" s="17" t="n">
-        <v>44</v>
-      </c>
-      <c r="B54" s="18" t="n"/>
-      <c r="C54" s="10" t="n"/>
-      <c r="D54" s="14" t="n"/>
-      <c r="E54" s="10" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="11" t="n"/>
-      <c r="H54" s="11" t="n"/>
-      <c r="I54" s="11" t="n"/>
-      <c r="J54" s="10" t="n"/>
-      <c r="K54" s="9" t="n"/>
-      <c r="L54" s="10" t="n"/>
-      <c r="M54" s="16">
-        <f>L54+30</f>
+      <c r="L107" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A108" s="15" t="n">
+        <v>98</v>
+      </c>
+      <c r="B108" s="16" t="n"/>
+      <c r="C108" s="10" t="n"/>
+      <c r="D108" s="13" t="n"/>
+      <c r="E108" s="10" t="n"/>
+      <c r="F108" s="12" t="n"/>
+      <c r="G108" s="11" t="n"/>
+      <c r="H108" s="11" t="n"/>
+      <c r="I108" s="11" t="n"/>
+      <c r="J108" s="10" t="n"/>
+      <c r="K108" s="9" t="n"/>
+      <c r="L108" s="10" t="n"/>
+      <c r="M108" s="14" t="n"/>
+    </row>
+    <row r="109" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A109" s="15" t="n">
+        <v>99</v>
+      </c>
+      <c r="B109" s="16" t="n"/>
+      <c r="C109" s="10" t="n"/>
+      <c r="D109" s="13" t="n"/>
+      <c r="E109" s="10" t="n"/>
+      <c r="F109" s="12" t="n"/>
+      <c r="G109" s="11" t="n"/>
+      <c r="H109" s="11" t="n"/>
+      <c r="I109" s="11" t="n"/>
+      <c r="J109" s="10" t="n"/>
+      <c r="K109" s="9" t="n"/>
+      <c r="L109" s="10" t="n"/>
+      <c r="M109" s="14" t="n"/>
+    </row>
+    <row r="110" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A110" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="B110" s="16" t="n"/>
+      <c r="C110" s="10" t="n"/>
+      <c r="D110" s="13" t="n"/>
+      <c r="E110" s="10" t="n"/>
+      <c r="F110" s="12" t="n"/>
+      <c r="G110" s="11" t="n"/>
+      <c r="H110" s="11" t="n"/>
+      <c r="I110" s="11" t="n"/>
+      <c r="J110" s="10" t="n"/>
+      <c r="K110" s="9" t="n"/>
+      <c r="L110" s="10" t="n"/>
+      <c r="M110" s="14" t="n"/>
+    </row>
+    <row r="111" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A111" s="15" t="n">
+        <v>101</v>
+      </c>
+      <c r="B111" s="16" t="n"/>
+      <c r="C111" s="10" t="n"/>
+      <c r="D111" s="13" t="n"/>
+      <c r="E111" s="10" t="n"/>
+      <c r="F111" s="12" t="n"/>
+      <c r="G111" s="11" t="n"/>
+      <c r="H111" s="11" t="n"/>
+      <c r="I111" s="11" t="n"/>
+      <c r="J111" s="10" t="n"/>
+      <c r="K111" s="9" t="n"/>
+      <c r="L111" s="10" t="n"/>
+      <c r="M111" s="14" t="n"/>
+    </row>
+    <row r="112" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A112" s="15" t="n">
+        <v>102</v>
+      </c>
+      <c r="B112" s="16" t="n"/>
+      <c r="C112" s="10" t="n"/>
+      <c r="D112" s="13" t="n"/>
+      <c r="E112" s="10" t="n"/>
+      <c r="F112" s="12" t="n"/>
+      <c r="G112" s="11" t="n"/>
+      <c r="H112" s="11" t="n"/>
+      <c r="I112" s="11" t="n"/>
+      <c r="J112" s="10" t="n"/>
+      <c r="K112" s="9" t="n"/>
+      <c r="L112" s="10" t="n"/>
+      <c r="M112" s="14" t="n"/>
+    </row>
+    <row r="113" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A113" s="15" t="n">
+        <v>103</v>
+      </c>
+      <c r="B113" s="16" t="n"/>
+      <c r="C113" s="10" t="n"/>
+      <c r="D113" s="13" t="n"/>
+      <c r="E113" s="10" t="n"/>
+      <c r="F113" s="12" t="n"/>
+      <c r="G113" s="11" t="n"/>
+      <c r="H113" s="11" t="n"/>
+      <c r="I113" s="11" t="n"/>
+      <c r="J113" s="10" t="n"/>
+      <c r="K113" s="9" t="n"/>
+      <c r="L113" s="10" t="n"/>
+      <c r="M113" s="14" t="n"/>
+    </row>
+    <row r="114" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A114" s="15" t="n">
+        <v>104</v>
+      </c>
+      <c r="B114" s="16" t="n"/>
+      <c r="C114" s="10" t="n"/>
+      <c r="D114" s="13" t="n"/>
+      <c r="E114" s="10" t="n"/>
+      <c r="F114" s="12" t="n"/>
+      <c r="G114" s="11" t="n"/>
+      <c r="H114" s="11" t="n"/>
+      <c r="I114" s="11" t="n"/>
+      <c r="J114" s="10" t="n"/>
+      <c r="K114" s="9" t="n"/>
+      <c r="L114" s="10" t="n"/>
+      <c r="M114" s="14" t="n"/>
+    </row>
+    <row r="115" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A115" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="B115" s="16" t="n"/>
+      <c r="C115" s="10" t="n"/>
+      <c r="D115" s="13" t="n"/>
+      <c r="E115" s="10" t="n"/>
+      <c r="F115" s="12" t="n"/>
+      <c r="G115" s="11" t="n"/>
+      <c r="H115" s="11" t="n"/>
+      <c r="I115" s="11" t="n"/>
+      <c r="J115" s="10" t="n"/>
+      <c r="K115" s="9" t="n"/>
+      <c r="L115" s="10" t="n"/>
+      <c r="M115" s="14" t="n"/>
+    </row>
+    <row r="116" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A116" s="15" t="n">
+        <v>106</v>
+      </c>
+      <c r="B116" s="16" t="n"/>
+      <c r="C116" s="10" t="n"/>
+      <c r="D116" s="13" t="n"/>
+      <c r="E116" s="10" t="n"/>
+      <c r="F116" s="12" t="n"/>
+      <c r="G116" s="11" t="n"/>
+      <c r="H116" s="11" t="n"/>
+      <c r="I116" s="11" t="n"/>
+      <c r="J116" s="10" t="n"/>
+      <c r="K116" s="9" t="n"/>
+      <c r="L116" s="10" t="n"/>
+      <c r="M116" s="14" t="n"/>
+    </row>
+    <row r="117" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A117" s="15" t="n">
+        <v>107</v>
+      </c>
+      <c r="B117" s="16" t="n"/>
+      <c r="C117" s="10" t="n"/>
+      <c r="D117" s="13" t="n"/>
+      <c r="E117" s="10" t="n"/>
+      <c r="F117" s="12" t="n"/>
+      <c r="G117" s="11" t="n"/>
+      <c r="H117" s="11" t="n"/>
+      <c r="I117" s="11" t="n"/>
+      <c r="J117" s="10" t="n"/>
+      <c r="K117" s="9" t="n"/>
+      <c r="L117" s="10" t="n"/>
+      <c r="M117" s="14" t="n"/>
+    </row>
+    <row r="118" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A118" s="15" t="n">
+        <v>108</v>
+      </c>
+      <c r="B118" s="16" t="n"/>
+      <c r="C118" s="10" t="n"/>
+      <c r="D118" s="13" t="n"/>
+      <c r="E118" s="10" t="n"/>
+      <c r="F118" s="12" t="n"/>
+      <c r="G118" s="11" t="n"/>
+      <c r="H118" s="11" t="n"/>
+      <c r="I118" s="11" t="n"/>
+      <c r="J118" s="10" t="n"/>
+      <c r="K118" s="9" t="n"/>
+      <c r="L118" s="10" t="n"/>
+      <c r="M118" s="14" t="n"/>
+    </row>
+    <row r="119" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A119" s="15" t="n">
+        <v>109</v>
+      </c>
+      <c r="B119" s="16" t="n"/>
+      <c r="C119" s="10" t="n"/>
+      <c r="D119" s="13" t="n"/>
+      <c r="E119" s="10" t="n"/>
+      <c r="F119" s="12" t="n"/>
+      <c r="G119" s="11" t="n"/>
+      <c r="H119" s="11" t="n"/>
+      <c r="I119" s="11" t="n"/>
+      <c r="J119" s="10" t="n"/>
+      <c r="K119" s="9" t="n"/>
+      <c r="L119" s="10" t="n"/>
+      <c r="M119" s="14" t="n"/>
+    </row>
+    <row r="120" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A120" s="15" t="n">
+        <v>110</v>
+      </c>
+      <c r="B120" s="16" t="n"/>
+      <c r="C120" s="10" t="n"/>
+      <c r="D120" s="13" t="n"/>
+      <c r="E120" s="10" t="n"/>
+      <c r="F120" s="12" t="n"/>
+      <c r="G120" s="11" t="n"/>
+      <c r="H120" s="11" t="n"/>
+      <c r="I120" s="11" t="n"/>
+      <c r="J120" s="10" t="n"/>
+      <c r="K120" s="9" t="n"/>
+      <c r="L120" s="10" t="n"/>
+      <c r="M120" s="14" t="n"/>
+    </row>
+    <row r="121" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A121" s="15" t="n">
+        <v>111</v>
+      </c>
+      <c r="B121" s="16" t="n"/>
+      <c r="C121" s="10" t="n"/>
+      <c r="D121" s="13" t="n"/>
+      <c r="E121" s="10" t="n"/>
+      <c r="F121" s="12" t="n"/>
+      <c r="G121" s="11" t="n"/>
+      <c r="H121" s="11" t="n"/>
+      <c r="I121" s="11" t="n"/>
+      <c r="J121" s="10" t="n"/>
+      <c r="K121" s="9" t="n"/>
+      <c r="L121" s="10" t="n"/>
+      <c r="M121" s="14" t="n"/>
+    </row>
+    <row r="122" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A122" s="15" t="n">
+        <v>112</v>
+      </c>
+      <c r="B122" s="16" t="n"/>
+      <c r="C122" s="10" t="n"/>
+      <c r="D122" s="13" t="n"/>
+      <c r="E122" s="10" t="n"/>
+      <c r="F122" s="12" t="n"/>
+      <c r="G122" s="11" t="n"/>
+      <c r="H122" s="11" t="n"/>
+      <c r="I122" s="11" t="n"/>
+      <c r="J122" s="10" t="n"/>
+      <c r="K122" s="9" t="n"/>
+      <c r="L122" s="10" t="n"/>
+      <c r="M122" s="14" t="n"/>
+    </row>
+    <row r="123" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A123" s="15" t="n">
+        <v>113</v>
+      </c>
+      <c r="B123" s="16" t="n"/>
+      <c r="C123" s="10" t="n"/>
+      <c r="D123" s="13" t="n"/>
+      <c r="E123" s="10" t="n"/>
+      <c r="F123" s="12" t="n"/>
+      <c r="G123" s="11" t="n"/>
+      <c r="H123" s="11" t="n"/>
+      <c r="I123" s="11" t="n"/>
+      <c r="J123" s="10" t="n"/>
+      <c r="K123" s="9" t="n"/>
+      <c r="L123" s="10" t="n"/>
+      <c r="M123" s="14" t="n"/>
+    </row>
+    <row r="124" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A124" s="15" t="n">
+        <v>114</v>
+      </c>
+      <c r="B124" s="16" t="n"/>
+      <c r="C124" s="10" t="n"/>
+      <c r="D124" s="13" t="n"/>
+      <c r="E124" s="10" t="n"/>
+      <c r="F124" s="12" t="n"/>
+      <c r="G124" s="11" t="n"/>
+      <c r="H124" s="11" t="n"/>
+      <c r="I124" s="11" t="n"/>
+      <c r="J124" s="10" t="n"/>
+      <c r="K124" s="9" t="n"/>
+      <c r="L124" s="10" t="n"/>
+      <c r="M124" s="14" t="n"/>
+    </row>
+    <row r="125" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A125" s="15" t="n">
+        <v>115</v>
+      </c>
+      <c r="B125" s="16" t="n"/>
+      <c r="C125" s="10" t="n"/>
+      <c r="D125" s="13" t="n"/>
+      <c r="E125" s="10" t="n"/>
+      <c r="F125" s="12" t="n"/>
+      <c r="G125" s="11" t="n"/>
+      <c r="H125" s="11" t="n"/>
+      <c r="I125" s="11" t="n"/>
+      <c r="J125" s="10" t="n"/>
+      <c r="K125" s="9" t="n"/>
+      <c r="L125" s="10" t="n"/>
+      <c r="M125" s="14" t="n"/>
+    </row>
+    <row r="126" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A126" s="15" t="n">
+        <v>116</v>
+      </c>
+      <c r="B126" s="16" t="n"/>
+      <c r="C126" s="10" t="n"/>
+      <c r="D126" s="13" t="n"/>
+      <c r="E126" s="10" t="n"/>
+      <c r="F126" s="12" t="n"/>
+      <c r="G126" s="11" t="n"/>
+      <c r="H126" s="11" t="n"/>
+      <c r="I126" s="11" t="n"/>
+      <c r="J126" s="10" t="n"/>
+      <c r="K126" s="9" t="n"/>
+      <c r="L126" s="10" t="n"/>
+      <c r="M126" s="14" t="n"/>
+    </row>
+    <row r="127" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A127" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="B127" s="16" t="n"/>
+      <c r="C127" s="10" t="n"/>
+      <c r="D127" s="13" t="n"/>
+      <c r="E127" s="10" t="n"/>
+      <c r="F127" s="12" t="n"/>
+      <c r="G127" s="11" t="n"/>
+      <c r="H127" s="11" t="n"/>
+      <c r="I127" s="11" t="n"/>
+      <c r="J127" s="10" t="n"/>
+      <c r="K127" s="9" t="n"/>
+      <c r="L127" s="10" t="n"/>
+      <c r="M127" s="14" t="n"/>
+    </row>
+    <row r="128" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A128" s="15" t="n">
+        <v>118</v>
+      </c>
+      <c r="B128" s="16" t="n"/>
+      <c r="C128" s="10" t="n"/>
+      <c r="D128" s="13" t="n"/>
+      <c r="E128" s="10" t="n"/>
+      <c r="F128" s="12" t="n"/>
+      <c r="G128" s="11" t="n"/>
+      <c r="H128" s="11" t="n"/>
+      <c r="I128" s="11" t="n"/>
+      <c r="J128" s="10" t="n"/>
+      <c r="K128" s="9" t="n"/>
+      <c r="L128" s="10" t="n"/>
+      <c r="M128" s="14" t="n"/>
+    </row>
+    <row r="129" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A129" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="B129" s="16" t="n"/>
+      <c r="C129" s="10" t="n"/>
+      <c r="D129" s="13" t="n"/>
+      <c r="E129" s="10" t="n"/>
+      <c r="F129" s="12" t="n"/>
+      <c r="G129" s="11" t="n"/>
+      <c r="H129" s="11" t="n"/>
+      <c r="I129" s="11" t="n"/>
+      <c r="J129" s="10" t="n"/>
+      <c r="K129" s="9" t="n"/>
+      <c r="L129" s="10" t="n"/>
+      <c r="M129" s="14" t="n"/>
+    </row>
+    <row r="130" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A130" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="B130" s="16" t="n"/>
+      <c r="C130" s="10" t="n"/>
+      <c r="D130" s="13" t="n"/>
+      <c r="E130" s="10" t="n"/>
+      <c r="F130" s="12" t="n"/>
+      <c r="G130" s="11" t="n"/>
+      <c r="H130" s="11" t="n"/>
+      <c r="I130" s="11" t="n"/>
+      <c r="J130" s="10" t="n"/>
+      <c r="K130" s="9" t="n"/>
+      <c r="L130" s="10" t="n"/>
+      <c r="M130" s="14" t="n"/>
+    </row>
+    <row r="131" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A131" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="B131" s="16" t="n"/>
+      <c r="C131" s="10" t="n"/>
+      <c r="D131" s="13" t="n"/>
+      <c r="E131" s="10" t="n"/>
+      <c r="F131" s="12" t="n"/>
+      <c r="G131" s="11" t="n"/>
+      <c r="H131" s="11" t="n"/>
+      <c r="I131" s="11" t="n"/>
+      <c r="J131" s="10" t="n"/>
+      <c r="K131" s="9" t="n"/>
+      <c r="L131" s="10" t="n"/>
+      <c r="M131" s="14" t="n"/>
+    </row>
+    <row r="132" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A132" s="15" t="n">
+        <v>122</v>
+      </c>
+      <c r="B132" s="16" t="n"/>
+      <c r="C132" s="10" t="n"/>
+      <c r="D132" s="13" t="n"/>
+      <c r="E132" s="10" t="n"/>
+      <c r="F132" s="12" t="n"/>
+      <c r="G132" s="11" t="n"/>
+      <c r="H132" s="11" t="n"/>
+      <c r="I132" s="11" t="n"/>
+      <c r="J132" s="10" t="n"/>
+      <c r="K132" s="9" t="n"/>
+      <c r="L132" s="10" t="n"/>
+      <c r="M132" s="14" t="n"/>
+    </row>
+    <row r="133" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A133" s="15" t="n">
+        <v>123</v>
+      </c>
+      <c r="B133" s="16" t="n"/>
+      <c r="C133" s="10" t="n"/>
+      <c r="D133" s="13" t="n"/>
+      <c r="E133" s="10" t="n"/>
+      <c r="F133" s="12" t="n"/>
+      <c r="G133" s="11" t="n"/>
+      <c r="H133" s="11" t="n"/>
+      <c r="I133" s="11" t="n"/>
+      <c r="J133" s="10" t="n"/>
+      <c r="K133" s="9" t="n"/>
+      <c r="L133" s="10" t="n"/>
+      <c r="M133" s="14" t="n"/>
+    </row>
+    <row r="134" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A134" s="15" t="n">
+        <v>124</v>
+      </c>
+      <c r="B134" s="16" t="n"/>
+      <c r="C134" s="10" t="n"/>
+      <c r="D134" s="13" t="n"/>
+      <c r="E134" s="10" t="n"/>
+      <c r="F134" s="12" t="n"/>
+      <c r="G134" s="11" t="n"/>
+      <c r="H134" s="11" t="n"/>
+      <c r="I134" s="11" t="n"/>
+      <c r="J134" s="10" t="n"/>
+      <c r="K134" s="9" t="n"/>
+      <c r="L134" s="10" t="n"/>
+      <c r="M134" s="14" t="n"/>
+    </row>
+    <row r="135" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A135" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="B135" s="16" t="n"/>
+      <c r="C135" s="10" t="n"/>
+      <c r="D135" s="13" t="n"/>
+      <c r="E135" s="10" t="n"/>
+      <c r="F135" s="12" t="n"/>
+      <c r="G135" s="11" t="n"/>
+      <c r="H135" s="11" t="n"/>
+      <c r="I135" s="11" t="n"/>
+      <c r="J135" s="10" t="n"/>
+      <c r="K135" s="9" t="n"/>
+      <c r="L135" s="10" t="n"/>
+      <c r="M135" s="14" t="n"/>
+    </row>
+    <row r="136" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A136" s="15" t="n">
+        <v>126</v>
+      </c>
+      <c r="B136" s="16" t="n"/>
+      <c r="C136" s="10" t="n"/>
+      <c r="D136" s="13" t="n"/>
+      <c r="E136" s="10" t="n"/>
+      <c r="F136" s="12" t="n"/>
+      <c r="G136" s="11" t="n"/>
+      <c r="H136" s="11" t="n"/>
+      <c r="I136" s="11" t="n"/>
+      <c r="J136" s="10" t="n"/>
+      <c r="K136" s="9" t="n"/>
+      <c r="L136" s="10" t="n"/>
+      <c r="M136" s="14" t="n"/>
+    </row>
+    <row r="137" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A137" s="15" t="n">
+        <v>127</v>
+      </c>
+      <c r="B137" s="16" t="n"/>
+      <c r="C137" s="10" t="n"/>
+      <c r="D137" s="13" t="n"/>
+      <c r="E137" s="10" t="n"/>
+      <c r="F137" s="12" t="n"/>
+      <c r="G137" s="11" t="n"/>
+      <c r="H137" s="11" t="n"/>
+      <c r="I137" s="11" t="n"/>
+      <c r="J137" s="10" t="n"/>
+      <c r="K137" s="9" t="n"/>
+      <c r="L137" s="10" t="n"/>
+      <c r="M137" s="14" t="n"/>
+    </row>
+    <row r="138" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A138" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="B138" s="16" t="n"/>
+      <c r="C138" s="10" t="n"/>
+      <c r="D138" s="13" t="n"/>
+      <c r="E138" s="10" t="n"/>
+      <c r="F138" s="12" t="n"/>
+      <c r="G138" s="11" t="n"/>
+      <c r="H138" s="11" t="n"/>
+      <c r="I138" s="11" t="n"/>
+      <c r="J138" s="10" t="n"/>
+      <c r="K138" s="9" t="n"/>
+      <c r="L138" s="10" t="n"/>
+      <c r="M138" s="14" t="n"/>
+    </row>
+    <row r="139" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A139" s="15" t="n">
+        <v>129</v>
+      </c>
+      <c r="B139" s="16" t="n"/>
+      <c r="C139" s="10" t="n"/>
+      <c r="D139" s="13" t="n"/>
+      <c r="E139" s="10" t="n"/>
+      <c r="F139" s="12" t="n"/>
+      <c r="G139" s="11" t="n"/>
+      <c r="H139" s="11" t="n"/>
+      <c r="I139" s="11" t="n"/>
+      <c r="J139" s="10" t="n"/>
+      <c r="K139" s="9" t="n"/>
+      <c r="L139" s="10" t="n"/>
+      <c r="M139" s="14" t="n"/>
+    </row>
+    <row r="140" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A140" s="15" t="n">
+        <v>130</v>
+      </c>
+      <c r="B140" s="16" t="n"/>
+      <c r="C140" s="10" t="n"/>
+      <c r="D140" s="13" t="n"/>
+      <c r="E140" s="10" t="n"/>
+      <c r="F140" s="12" t="n"/>
+      <c r="G140" s="11" t="n"/>
+      <c r="H140" s="11" t="n"/>
+      <c r="I140" s="11" t="n"/>
+      <c r="J140" s="10" t="n"/>
+      <c r="K140" s="9" t="n"/>
+      <c r="L140" s="10" t="n"/>
+      <c r="M140" s="14" t="n"/>
+    </row>
+    <row r="141" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A141" s="15" t="n">
+        <v>131</v>
+      </c>
+      <c r="B141" s="16" t="n"/>
+      <c r="C141" s="10" t="n"/>
+      <c r="D141" s="13" t="n"/>
+      <c r="E141" s="10" t="n"/>
+      <c r="F141" s="12" t="n"/>
+      <c r="G141" s="11" t="n"/>
+      <c r="H141" s="11" t="n"/>
+      <c r="I141" s="11" t="n"/>
+      <c r="J141" s="10" t="n"/>
+      <c r="K141" s="9" t="n"/>
+      <c r="L141" s="10" t="n"/>
+      <c r="M141" s="14" t="n"/>
+    </row>
+    <row r="142" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A142" s="15" t="n">
+        <v>132</v>
+      </c>
+      <c r="B142" s="16" t="n"/>
+      <c r="C142" s="10" t="n"/>
+      <c r="D142" s="13" t="n"/>
+      <c r="E142" s="10" t="n"/>
+      <c r="F142" s="12" t="n"/>
+      <c r="G142" s="11" t="n"/>
+      <c r="H142" s="11" t="n"/>
+      <c r="I142" s="11" t="n"/>
+      <c r="J142" s="10" t="n"/>
+      <c r="K142" s="9" t="n"/>
+      <c r="L142" s="10" t="n"/>
+      <c r="M142" s="14" t="n"/>
+    </row>
+    <row r="143" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A143" s="15" t="n">
+        <v>133</v>
+      </c>
+      <c r="B143" s="16" t="n"/>
+      <c r="C143" s="10" t="n"/>
+      <c r="D143" s="13" t="n"/>
+      <c r="E143" s="10" t="n"/>
+      <c r="F143" s="12" t="n"/>
+      <c r="G143" s="11" t="n"/>
+      <c r="H143" s="11" t="n"/>
+      <c r="I143" s="11" t="n"/>
+      <c r="J143" s="10" t="n"/>
+      <c r="K143" s="9" t="n"/>
+      <c r="L143" s="10" t="n"/>
+      <c r="M143" s="14" t="n"/>
+    </row>
+    <row r="144" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A144" s="15" t="n">
+        <v>134</v>
+      </c>
+      <c r="B144" s="16" t="n"/>
+      <c r="C144" s="10" t="n"/>
+      <c r="D144" s="13" t="n"/>
+      <c r="E144" s="10" t="n"/>
+      <c r="F144" s="12" t="n"/>
+      <c r="G144" s="11" t="n"/>
+      <c r="H144" s="11" t="n"/>
+      <c r="I144" s="11" t="n"/>
+      <c r="J144" s="10" t="n"/>
+      <c r="K144" s="9" t="n"/>
+      <c r="L144" s="10" t="n"/>
+      <c r="M144" s="14" t="n"/>
+    </row>
+    <row r="145" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A145" s="15" t="n">
+        <v>135</v>
+      </c>
+      <c r="B145" s="16" t="n"/>
+      <c r="C145" s="10" t="n"/>
+      <c r="D145" s="13" t="n"/>
+      <c r="E145" s="10" t="n"/>
+      <c r="F145" s="12" t="n"/>
+      <c r="G145" s="11" t="n"/>
+      <c r="H145" s="11" t="n"/>
+      <c r="I145" s="11" t="n"/>
+      <c r="J145" s="10" t="n"/>
+      <c r="K145" s="9" t="n"/>
+      <c r="L145" s="10" t="n"/>
+      <c r="M145" s="14" t="n"/>
+    </row>
+    <row r="146" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A146" s="15" t="n">
+        <v>136</v>
+      </c>
+      <c r="B146" s="16" t="n"/>
+      <c r="C146" s="10" t="n"/>
+      <c r="D146" s="13" t="n"/>
+      <c r="E146" s="10" t="n"/>
+      <c r="F146" s="12" t="n"/>
+      <c r="G146" s="11" t="n"/>
+      <c r="H146" s="11" t="n"/>
+      <c r="I146" s="11" t="n"/>
+      <c r="J146" s="10" t="n"/>
+      <c r="K146" s="9" t="n"/>
+      <c r="L146" s="10" t="n"/>
+      <c r="M146" s="14" t="n"/>
+    </row>
+    <row r="147" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A147" s="15" t="n">
+        <v>137</v>
+      </c>
+      <c r="B147" s="16" t="n"/>
+      <c r="C147" s="10" t="n"/>
+      <c r="D147" s="13" t="n"/>
+      <c r="E147" s="10" t="n"/>
+      <c r="F147" s="12" t="n"/>
+      <c r="G147" s="11" t="n"/>
+      <c r="H147" s="11" t="n"/>
+      <c r="I147" s="11" t="n"/>
+      <c r="J147" s="10" t="n"/>
+      <c r="K147" s="9" t="n"/>
+      <c r="L147" s="10" t="n"/>
+      <c r="M147" s="14" t="n"/>
+    </row>
+    <row r="148" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A148" s="15" t="n">
+        <v>138</v>
+      </c>
+      <c r="B148" s="16" t="n"/>
+      <c r="C148" s="10" t="n"/>
+      <c r="D148" s="13" t="n"/>
+      <c r="E148" s="10" t="n"/>
+      <c r="F148" s="12" t="n"/>
+      <c r="G148" s="11" t="n"/>
+      <c r="H148" s="11" t="n"/>
+      <c r="I148" s="11" t="n"/>
+      <c r="J148" s="10" t="n"/>
+      <c r="K148" s="9" t="n"/>
+      <c r="L148" s="10" t="n"/>
+      <c r="M148" s="14" t="n"/>
+    </row>
+    <row r="149" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A149" s="15" t="n">
+        <v>139</v>
+      </c>
+      <c r="B149" s="16" t="n"/>
+      <c r="C149" s="10" t="n"/>
+      <c r="D149" s="13" t="n"/>
+      <c r="E149" s="10" t="n"/>
+      <c r="F149" s="12" t="n"/>
+      <c r="G149" s="11" t="n"/>
+      <c r="H149" s="11" t="n"/>
+      <c r="I149" s="11" t="n"/>
+      <c r="J149" s="10" t="n"/>
+      <c r="K149" s="9" t="n"/>
+      <c r="L149" s="10" t="n"/>
+      <c r="M149" s="14" t="n"/>
+    </row>
+    <row r="150" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A150" s="15" t="n">
+        <v>140</v>
+      </c>
+      <c r="B150" s="16" t="n"/>
+      <c r="C150" s="10" t="n"/>
+      <c r="D150" s="13" t="n"/>
+      <c r="E150" s="10" t="n"/>
+      <c r="F150" s="12" t="n"/>
+      <c r="G150" s="11" t="n"/>
+      <c r="H150" s="11" t="n"/>
+      <c r="I150" s="11" t="n"/>
+      <c r="J150" s="10" t="n"/>
+      <c r="K150" s="9" t="n"/>
+      <c r="L150" s="10" t="n"/>
+      <c r="M150" s="14" t="n"/>
+    </row>
+    <row r="151" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A151" s="15" t="n">
+        <v>141</v>
+      </c>
+      <c r="B151" s="16" t="n"/>
+      <c r="C151" s="10" t="n"/>
+      <c r="D151" s="13" t="n"/>
+      <c r="E151" s="10" t="n"/>
+      <c r="F151" s="12" t="n"/>
+      <c r="G151" s="11" t="n"/>
+      <c r="H151" s="11" t="n"/>
+      <c r="I151" s="11" t="n"/>
+      <c r="J151" s="10" t="n"/>
+      <c r="K151" s="9" t="n"/>
+      <c r="L151" s="10" t="n"/>
+      <c r="M151" s="14" t="n"/>
+    </row>
+    <row r="152" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A152" s="15" t="n">
+        <v>142</v>
+      </c>
+      <c r="B152" s="16" t="n"/>
+      <c r="C152" s="10" t="n"/>
+      <c r="D152" s="13" t="n"/>
+      <c r="E152" s="10" t="n"/>
+      <c r="F152" s="12" t="n"/>
+      <c r="G152" s="11" t="n"/>
+      <c r="H152" s="11" t="n"/>
+      <c r="I152" s="11" t="n"/>
+      <c r="J152" s="10" t="n"/>
+      <c r="K152" s="9" t="n"/>
+      <c r="L152" s="10" t="n"/>
+      <c r="M152" s="14" t="n"/>
+    </row>
+    <row r="153" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A153" s="15" t="n">
+        <v>143</v>
+      </c>
+      <c r="B153" s="16" t="n"/>
+      <c r="C153" s="10" t="n"/>
+      <c r="D153" s="13" t="n"/>
+      <c r="E153" s="10" t="n"/>
+      <c r="F153" s="12" t="n"/>
+      <c r="G153" s="11" t="n"/>
+      <c r="H153" s="11" t="n"/>
+      <c r="I153" s="11" t="n"/>
+      <c r="J153" s="10" t="n"/>
+      <c r="K153" s="9" t="n"/>
+      <c r="L153" s="10" t="n"/>
+      <c r="M153" s="14" t="n"/>
+    </row>
+    <row r="154" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A154" s="15" t="n">
+        <v>144</v>
+      </c>
+      <c r="B154" s="16" t="n"/>
+      <c r="C154" s="10" t="n"/>
+      <c r="D154" s="13" t="n"/>
+      <c r="E154" s="10" t="n"/>
+      <c r="F154" s="12" t="n"/>
+      <c r="G154" s="11" t="n"/>
+      <c r="H154" s="11" t="n"/>
+      <c r="I154" s="11" t="n"/>
+      <c r="J154" s="10" t="n"/>
+      <c r="K154" s="9" t="n"/>
+      <c r="L154" s="10" t="n"/>
+      <c r="M154" s="14" t="n"/>
+    </row>
+    <row r="155" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A155" s="15" t="n">
+        <v>145</v>
+      </c>
+      <c r="B155" s="16" t="n"/>
+      <c r="C155" s="10" t="n"/>
+      <c r="D155" s="13" t="n"/>
+      <c r="E155" s="10" t="n"/>
+      <c r="F155" s="12" t="n"/>
+      <c r="G155" s="11" t="n"/>
+      <c r="H155" s="11" t="n"/>
+      <c r="I155" s="11" t="n"/>
+      <c r="J155" s="10" t="n"/>
+      <c r="K155" s="9" t="n"/>
+      <c r="L155" s="10" t="n"/>
+      <c r="M155" s="14" t="n"/>
+    </row>
+    <row r="156" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A156" s="15" t="n">
+        <v>146</v>
+      </c>
+      <c r="B156" s="16" t="n"/>
+      <c r="C156" s="10" t="n"/>
+      <c r="D156" s="13" t="n"/>
+      <c r="E156" s="10" t="n"/>
+      <c r="F156" s="12" t="n"/>
+      <c r="G156" s="11" t="n"/>
+      <c r="H156" s="11" t="n"/>
+      <c r="I156" s="11" t="n"/>
+      <c r="J156" s="10" t="n"/>
+      <c r="K156" s="9" t="n"/>
+      <c r="L156" s="10" t="n"/>
+      <c r="M156" s="14" t="n"/>
+    </row>
+    <row r="157" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A157" s="15" t="n">
+        <v>147</v>
+      </c>
+      <c r="B157" s="16" t="n"/>
+      <c r="C157" s="10" t="n"/>
+      <c r="D157" s="13" t="n"/>
+      <c r="E157" s="10" t="n"/>
+      <c r="F157" s="12" t="n"/>
+      <c r="G157" s="11" t="n"/>
+      <c r="H157" s="11" t="n"/>
+      <c r="I157" s="11" t="n"/>
+      <c r="J157" s="10" t="n"/>
+      <c r="K157" s="9" t="n"/>
+      <c r="L157" s="10" t="n"/>
+      <c r="M157" s="14" t="n"/>
+    </row>
+    <row r="158" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A158" s="15" t="n">
+        <v>148</v>
+      </c>
+      <c r="B158" s="16" t="n"/>
+      <c r="C158" s="10" t="n"/>
+      <c r="D158" s="13" t="n"/>
+      <c r="E158" s="10" t="n"/>
+      <c r="F158" s="12" t="n"/>
+      <c r="G158" s="11" t="n"/>
+      <c r="H158" s="11" t="n"/>
+      <c r="I158" s="11" t="n"/>
+      <c r="J158" s="10" t="n"/>
+      <c r="K158" s="9" t="n"/>
+      <c r="L158" s="10" t="n"/>
+      <c r="M158" s="14" t="n"/>
+    </row>
+    <row r="159" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A159" s="15" t="n">
+        <v>149</v>
+      </c>
+      <c r="B159" s="16" t="n"/>
+      <c r="C159" s="10" t="n"/>
+      <c r="D159" s="13" t="n"/>
+      <c r="E159" s="10" t="n"/>
+      <c r="F159" s="12" t="n"/>
+      <c r="G159" s="11" t="n"/>
+      <c r="H159" s="11" t="n"/>
+      <c r="I159" s="11" t="n"/>
+      <c r="J159" s="10" t="n"/>
+      <c r="K159" s="9" t="n"/>
+      <c r="L159" s="10" t="n"/>
+      <c r="M159" s="14" t="n"/>
+    </row>
+    <row r="160" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A160" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="B160" s="16" t="n"/>
+      <c r="C160" s="10" t="n"/>
+      <c r="D160" s="13" t="n"/>
+      <c r="E160" s="10" t="n"/>
+      <c r="F160" s="12" t="n"/>
+      <c r="G160" s="11" t="n"/>
+      <c r="H160" s="11" t="n"/>
+      <c r="I160" s="11" t="n"/>
+      <c r="J160" s="10" t="n"/>
+      <c r="K160" s="9" t="n"/>
+      <c r="L160" s="10" t="n"/>
+      <c r="M160" s="14" t="n"/>
+    </row>
+    <row r="161" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A161" s="15" t="n">
+        <v>151</v>
+      </c>
+      <c r="B161" s="16" t="n"/>
+      <c r="C161" s="10" t="n"/>
+      <c r="D161" s="13" t="n"/>
+      <c r="E161" s="10" t="n"/>
+      <c r="F161" s="12" t="n"/>
+      <c r="G161" s="11" t="n"/>
+      <c r="H161" s="11" t="n"/>
+      <c r="I161" s="11" t="n"/>
+      <c r="J161" s="10" t="n"/>
+      <c r="K161" s="9" t="n"/>
+      <c r="L161" s="10" t="n"/>
+      <c r="M161" s="14" t="n"/>
+    </row>
+    <row r="162" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A162" s="15" t="n">
+        <v>152</v>
+      </c>
+      <c r="B162" s="16" t="n"/>
+      <c r="C162" s="10" t="n"/>
+      <c r="D162" s="13" t="n"/>
+      <c r="E162" s="10" t="n"/>
+      <c r="F162" s="12" t="n"/>
+      <c r="G162" s="11" t="n"/>
+      <c r="H162" s="11" t="n"/>
+      <c r="I162" s="11" t="n"/>
+      <c r="J162" s="10" t="n"/>
+      <c r="K162" s="9" t="n"/>
+      <c r="L162" s="10" t="n"/>
+      <c r="M162" s="14" t="n"/>
+    </row>
+    <row r="163" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A163" s="15" t="n">
+        <v>153</v>
+      </c>
+      <c r="B163" s="16" t="n"/>
+      <c r="C163" s="10" t="n"/>
+      <c r="D163" s="13" t="n"/>
+      <c r="E163" s="10" t="n"/>
+      <c r="F163" s="12" t="n"/>
+      <c r="G163" s="11" t="n"/>
+      <c r="H163" s="11" t="n"/>
+      <c r="I163" s="11" t="n"/>
+      <c r="J163" s="10" t="n"/>
+      <c r="K163" s="9" t="n"/>
+      <c r="L163" s="10" t="n"/>
+      <c r="M163" s="14" t="n"/>
+    </row>
+    <row r="164" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A164" s="15" t="n">
+        <v>154</v>
+      </c>
+      <c r="B164" s="16" t="n"/>
+      <c r="C164" s="10" t="n"/>
+      <c r="D164" s="13" t="n"/>
+      <c r="E164" s="10" t="n"/>
+      <c r="F164" s="12" t="n"/>
+      <c r="G164" s="11" t="n"/>
+      <c r="H164" s="11" t="n"/>
+      <c r="I164" s="11" t="n"/>
+      <c r="J164" s="10" t="n"/>
+      <c r="K164" s="9" t="n"/>
+      <c r="L164" s="10" t="n"/>
+      <c r="M164" s="14" t="n"/>
+    </row>
+    <row r="165" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A165" s="15" t="n">
+        <v>155</v>
+      </c>
+      <c r="B165" s="16" t="n"/>
+      <c r="C165" s="10" t="n"/>
+      <c r="D165" s="13" t="n"/>
+      <c r="E165" s="10" t="n"/>
+      <c r="F165" s="12" t="n"/>
+      <c r="G165" s="11" t="n"/>
+      <c r="H165" s="11" t="n"/>
+      <c r="I165" s="11" t="n"/>
+      <c r="J165" s="10" t="n"/>
+      <c r="K165" s="9" t="n"/>
+      <c r="L165" s="10" t="n"/>
+      <c r="M165" s="14" t="n"/>
+    </row>
+    <row r="166" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A166" s="15" t="n">
+        <v>156</v>
+      </c>
+      <c r="B166" s="16" t="n"/>
+      <c r="C166" s="10" t="n"/>
+      <c r="D166" s="13" t="n"/>
+      <c r="E166" s="10" t="n"/>
+      <c r="F166" s="12" t="n"/>
+      <c r="G166" s="11" t="n"/>
+      <c r="H166" s="11" t="n"/>
+      <c r="I166" s="11" t="n"/>
+      <c r="J166" s="10" t="n"/>
+      <c r="K166" s="9" t="n"/>
+      <c r="L166" s="10" t="n"/>
+      <c r="M166" s="14" t="n"/>
+    </row>
+    <row r="167" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A167" s="15" t="n">
+        <v>157</v>
+      </c>
+      <c r="B167" s="16" t="n"/>
+      <c r="C167" s="10" t="n"/>
+      <c r="D167" s="13" t="n"/>
+      <c r="E167" s="10" t="n"/>
+      <c r="F167" s="12" t="n"/>
+      <c r="G167" s="11" t="n"/>
+      <c r="H167" s="11" t="n"/>
+      <c r="I167" s="11" t="n"/>
+      <c r="J167" s="10" t="n"/>
+      <c r="K167" s="9" t="n"/>
+      <c r="L167" s="10" t="n"/>
+      <c r="M167" s="14" t="n"/>
+    </row>
+    <row r="168" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A168" s="15" t="n">
+        <v>158</v>
+      </c>
+      <c r="B168" s="16" t="n"/>
+      <c r="C168" s="10" t="n"/>
+      <c r="D168" s="13" t="n"/>
+      <c r="E168" s="10" t="n"/>
+      <c r="F168" s="12" t="n"/>
+      <c r="G168" s="11" t="n"/>
+      <c r="H168" s="11" t="n"/>
+      <c r="I168" s="11" t="n"/>
+      <c r="J168" s="10" t="n"/>
+      <c r="K168" s="9" t="n"/>
+      <c r="L168" s="10" t="n"/>
+      <c r="M168" s="14" t="n"/>
+    </row>
+    <row r="169" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A169" s="15" t="n">
+        <v>159</v>
+      </c>
+      <c r="B169" s="16" t="n"/>
+      <c r="C169" s="10" t="n"/>
+      <c r="D169" s="13" t="n"/>
+      <c r="E169" s="10" t="n"/>
+      <c r="F169" s="12" t="n"/>
+      <c r="G169" s="11" t="n"/>
+      <c r="H169" s="11" t="n"/>
+      <c r="I169" s="11" t="n"/>
+      <c r="J169" s="10" t="n"/>
+      <c r="K169" s="9" t="n"/>
+      <c r="L169" s="10" t="n"/>
+      <c r="M169" s="14" t="n"/>
+    </row>
+    <row r="170" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A170" s="15" t="n">
+        <v>160</v>
+      </c>
+      <c r="B170" s="16" t="n"/>
+      <c r="C170" s="10" t="n"/>
+      <c r="D170" s="13" t="n"/>
+      <c r="E170" s="10" t="n"/>
+      <c r="F170" s="12" t="n"/>
+      <c r="G170" s="11" t="n"/>
+      <c r="H170" s="11" t="n"/>
+      <c r="I170" s="11" t="n"/>
+      <c r="J170" s="10" t="n"/>
+      <c r="K170" s="9" t="n"/>
+      <c r="L170" s="10" t="n"/>
+      <c r="M170" s="14" t="n"/>
+    </row>
+    <row r="171" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A171" s="15" t="n">
+        <v>161</v>
+      </c>
+      <c r="B171" s="16" t="n"/>
+      <c r="C171" s="10" t="n"/>
+      <c r="D171" s="13" t="n"/>
+      <c r="E171" s="10" t="n"/>
+      <c r="F171" s="12" t="n"/>
+      <c r="G171" s="11" t="n"/>
+      <c r="H171" s="11" t="n"/>
+      <c r="I171" s="11" t="n"/>
+      <c r="J171" s="10" t="n"/>
+      <c r="K171" s="9" t="n"/>
+      <c r="L171" s="10" t="n"/>
+      <c r="M171" s="14" t="n"/>
+    </row>
+    <row r="172" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A172" s="15" t="n">
+        <v>162</v>
+      </c>
+      <c r="B172" s="16" t="n"/>
+      <c r="C172" s="10" t="n"/>
+      <c r="D172" s="13" t="n"/>
+      <c r="E172" s="10" t="n"/>
+      <c r="F172" s="12" t="n"/>
+      <c r="G172" s="11" t="n"/>
+      <c r="H172" s="11" t="n"/>
+      <c r="I172" s="11" t="n"/>
+      <c r="J172" s="10" t="n"/>
+      <c r="K172" s="9" t="n"/>
+      <c r="L172" s="10" t="n"/>
+      <c r="M172" s="14" t="n"/>
+    </row>
+    <row r="173" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A173" s="15" t="n">
+        <v>163</v>
+      </c>
+      <c r="B173" s="16" t="n"/>
+      <c r="C173" s="10" t="n"/>
+      <c r="D173" s="13" t="n"/>
+      <c r="E173" s="10" t="n"/>
+      <c r="F173" s="12" t="n"/>
+      <c r="G173" s="11" t="n"/>
+      <c r="H173" s="11" t="n"/>
+      <c r="I173" s="11" t="n"/>
+      <c r="J173" s="10" t="n"/>
+      <c r="K173" s="9" t="n"/>
+      <c r="L173" s="10" t="n"/>
+      <c r="M173" s="14" t="n"/>
+    </row>
+    <row r="174" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A174" s="15" t="n">
+        <v>164</v>
+      </c>
+      <c r="B174" s="16" t="n"/>
+      <c r="C174" s="10" t="n"/>
+      <c r="D174" s="13" t="n"/>
+      <c r="E174" s="10" t="n"/>
+      <c r="F174" s="12" t="n"/>
+      <c r="G174" s="11" t="n"/>
+      <c r="H174" s="11" t="n"/>
+      <c r="I174" s="11" t="n"/>
+      <c r="J174" s="10" t="n"/>
+      <c r="K174" s="9" t="n"/>
+      <c r="L174" s="10" t="n"/>
+      <c r="M174" s="14" t="n"/>
+    </row>
+    <row r="175" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A175" s="15" t="n">
+        <v>165</v>
+      </c>
+      <c r="B175" s="16" t="n"/>
+      <c r="C175" s="10" t="n"/>
+      <c r="D175" s="13" t="n"/>
+      <c r="E175" s="10" t="n"/>
+      <c r="F175" s="12" t="n"/>
+      <c r="G175" s="11" t="n"/>
+      <c r="H175" s="11" t="n"/>
+      <c r="I175" s="11" t="n"/>
+      <c r="J175" s="10" t="n"/>
+      <c r="K175" s="9" t="n"/>
+      <c r="L175" s="10" t="n"/>
+      <c r="M175" s="14" t="n"/>
+    </row>
+    <row r="176" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A176" s="15" t="n">
+        <v>166</v>
+      </c>
+      <c r="B176" s="16" t="n"/>
+      <c r="C176" s="10" t="n"/>
+      <c r="D176" s="13" t="n"/>
+      <c r="E176" s="10" t="n"/>
+      <c r="F176" s="12" t="n"/>
+      <c r="G176" s="11" t="n"/>
+      <c r="H176" s="11" t="n"/>
+      <c r="I176" s="11" t="n"/>
+      <c r="J176" s="10" t="n"/>
+      <c r="K176" s="9" t="n"/>
+      <c r="L176" s="10" t="n"/>
+      <c r="M176" s="14" t="n"/>
+    </row>
+    <row r="177" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A177" s="15" t="n">
+        <v>167</v>
+      </c>
+      <c r="B177" s="16" t="n"/>
+      <c r="C177" s="10" t="n"/>
+      <c r="D177" s="13" t="n"/>
+      <c r="E177" s="10" t="n"/>
+      <c r="F177" s="12" t="n"/>
+      <c r="G177" s="11" t="n"/>
+      <c r="H177" s="11" t="n"/>
+      <c r="I177" s="11" t="n"/>
+      <c r="J177" s="10" t="n"/>
+      <c r="K177" s="9" t="n"/>
+      <c r="L177" s="10" t="n"/>
+      <c r="M177" s="14" t="n"/>
+    </row>
+    <row r="178" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A178" s="15" t="n">
+        <v>168</v>
+      </c>
+      <c r="B178" s="16" t="n"/>
+      <c r="C178" s="10" t="n"/>
+      <c r="D178" s="13" t="n"/>
+      <c r="E178" s="10" t="n"/>
+      <c r="F178" s="12" t="n"/>
+      <c r="G178" s="11" t="n"/>
+      <c r="H178" s="11" t="n"/>
+      <c r="I178" s="11" t="n"/>
+      <c r="J178" s="10" t="n"/>
+      <c r="K178" s="9" t="n"/>
+      <c r="L178" s="10" t="n"/>
+      <c r="M178" s="14" t="n"/>
+    </row>
+    <row r="179" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A179" s="15" t="n">
+        <v>169</v>
+      </c>
+      <c r="B179" s="16" t="n"/>
+      <c r="C179" s="10" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="10" t="n"/>
+      <c r="F179" s="12" t="n"/>
+      <c r="G179" s="11" t="n"/>
+      <c r="H179" s="11" t="n"/>
+      <c r="I179" s="11" t="n"/>
+      <c r="J179" s="10" t="n"/>
+      <c r="K179" s="9" t="n"/>
+      <c r="L179" s="10" t="n"/>
+      <c r="M179" s="14" t="n"/>
+    </row>
+    <row r="180" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A180" s="15" t="n">
+        <v>170</v>
+      </c>
+      <c r="B180" s="16" t="n"/>
+      <c r="C180" s="10" t="n"/>
+      <c r="D180" s="13" t="n"/>
+      <c r="E180" s="10" t="n"/>
+      <c r="F180" s="12" t="n"/>
+      <c r="G180" s="11" t="n"/>
+      <c r="H180" s="11" t="n"/>
+      <c r="I180" s="11" t="n"/>
+      <c r="J180" s="10" t="n"/>
+      <c r="K180" s="9" t="n"/>
+      <c r="L180" s="10" t="n"/>
+      <c r="M180" s="14" t="n"/>
+    </row>
+    <row r="181" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A181" s="15" t="n">
+        <v>171</v>
+      </c>
+      <c r="B181" s="16" t="n"/>
+      <c r="C181" s="10" t="n"/>
+      <c r="D181" s="13" t="n"/>
+      <c r="E181" s="10" t="n"/>
+      <c r="F181" s="12" t="n"/>
+      <c r="G181" s="11" t="n"/>
+      <c r="H181" s="11" t="n"/>
+      <c r="I181" s="11" t="n"/>
+      <c r="J181" s="10" t="n"/>
+      <c r="K181" s="9" t="n"/>
+      <c r="L181" s="10" t="n"/>
+      <c r="M181" s="14" t="n"/>
+    </row>
+    <row r="182" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A182" s="15" t="n">
+        <v>172</v>
+      </c>
+      <c r="B182" s="16" t="n"/>
+      <c r="C182" s="10" t="n"/>
+      <c r="D182" s="13" t="n"/>
+      <c r="E182" s="10" t="n"/>
+      <c r="F182" s="12" t="n"/>
+      <c r="G182" s="11" t="n"/>
+      <c r="H182" s="11" t="n"/>
+      <c r="I182" s="11" t="n"/>
+      <c r="J182" s="10" t="n"/>
+      <c r="K182" s="9" t="n"/>
+      <c r="L182" s="10" t="n"/>
+      <c r="M182" s="14" t="n"/>
+    </row>
+    <row r="183" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A183" s="15" t="n">
+        <v>173</v>
+      </c>
+      <c r="B183" s="16" t="n"/>
+      <c r="C183" s="10" t="n"/>
+      <c r="D183" s="13" t="n"/>
+      <c r="E183" s="10" t="n"/>
+      <c r="F183" s="12" t="n"/>
+      <c r="G183" s="11" t="n"/>
+      <c r="H183" s="11" t="n"/>
+      <c r="I183" s="11" t="n"/>
+      <c r="J183" s="10" t="n"/>
+      <c r="K183" s="9" t="n"/>
+      <c r="L183" s="10" t="n"/>
+      <c r="M183" s="14" t="n"/>
+    </row>
+    <row r="184" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A184" s="15" t="n">
+        <v>174</v>
+      </c>
+      <c r="B184" s="16" t="n"/>
+      <c r="C184" s="10" t="n"/>
+      <c r="D184" s="13" t="n"/>
+      <c r="E184" s="10" t="n"/>
+      <c r="F184" s="12" t="n"/>
+      <c r="G184" s="11" t="n"/>
+      <c r="H184" s="11" t="n"/>
+      <c r="I184" s="11" t="n"/>
+      <c r="J184" s="10" t="n"/>
+      <c r="K184" s="9" t="n"/>
+      <c r="L184" s="10" t="n"/>
+      <c r="M184" s="14" t="n"/>
+    </row>
+    <row r="185" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A185" s="15" t="n">
+        <v>175</v>
+      </c>
+      <c r="B185" s="16" t="n"/>
+      <c r="C185" s="10" t="n"/>
+      <c r="D185" s="13" t="n"/>
+      <c r="E185" s="10" t="n"/>
+      <c r="F185" s="12" t="n"/>
+      <c r="G185" s="11" t="n"/>
+      <c r="H185" s="11" t="n"/>
+      <c r="I185" s="11" t="n"/>
+      <c r="J185" s="10" t="n"/>
+      <c r="K185" s="9" t="n"/>
+      <c r="L185" s="10" t="n"/>
+      <c r="M185" s="14" t="n"/>
+    </row>
+    <row r="186" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A186" s="15" t="n">
+        <v>176</v>
+      </c>
+      <c r="B186" s="16" t="n"/>
+      <c r="C186" s="10" t="n"/>
+      <c r="D186" s="13" t="n"/>
+      <c r="E186" s="10" t="n"/>
+      <c r="F186" s="12" t="n"/>
+      <c r="G186" s="11" t="n"/>
+      <c r="H186" s="11" t="n"/>
+      <c r="I186" s="11" t="n"/>
+      <c r="J186" s="10" t="n"/>
+      <c r="K186" s="9" t="n"/>
+      <c r="L186" s="10" t="n"/>
+      <c r="M186" s="14" t="n"/>
+    </row>
+    <row r="187" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A187" s="15" t="n">
+        <v>177</v>
+      </c>
+      <c r="B187" s="16" t="n"/>
+      <c r="C187" s="10" t="n"/>
+      <c r="D187" s="13" t="n"/>
+      <c r="E187" s="10" t="n"/>
+      <c r="F187" s="12" t="n"/>
+      <c r="G187" s="11" t="n"/>
+      <c r="H187" s="11" t="n"/>
+      <c r="I187" s="11" t="n"/>
+      <c r="J187" s="10" t="n"/>
+      <c r="K187" s="9" t="n"/>
+      <c r="L187" s="10" t="n"/>
+      <c r="M187" s="14" t="n"/>
+    </row>
+    <row r="188" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A188" s="15" t="n">
+        <v>178</v>
+      </c>
+      <c r="B188" s="16" t="n"/>
+      <c r="C188" s="10" t="n"/>
+      <c r="D188" s="13" t="n"/>
+      <c r="E188" s="10" t="n"/>
+      <c r="F188" s="12" t="n"/>
+      <c r="G188" s="11" t="n"/>
+      <c r="H188" s="11" t="n"/>
+      <c r="I188" s="11" t="n"/>
+      <c r="J188" s="10" t="n"/>
+      <c r="K188" s="9" t="n"/>
+      <c r="L188" s="10" t="n"/>
+      <c r="M188" s="14" t="n"/>
+    </row>
+    <row r="189" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A189" s="15" t="n">
+        <v>179</v>
+      </c>
+      <c r="B189" s="16" t="n"/>
+      <c r="C189" s="10" t="n"/>
+      <c r="D189" s="13" t="n"/>
+      <c r="E189" s="10" t="n"/>
+      <c r="F189" s="12" t="n"/>
+      <c r="G189" s="11" t="n"/>
+      <c r="H189" s="11" t="n"/>
+      <c r="I189" s="11" t="n"/>
+      <c r="J189" s="10" t="n"/>
+      <c r="K189" s="9" t="n"/>
+      <c r="L189" s="10" t="n"/>
+      <c r="M189" s="14" t="n"/>
+    </row>
+    <row r="190" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A190" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="B190" s="16" t="n"/>
+      <c r="C190" s="10" t="n"/>
+      <c r="D190" s="13" t="n"/>
+      <c r="E190" s="10" t="n"/>
+      <c r="F190" s="12" t="n"/>
+      <c r="G190" s="11" t="n"/>
+      <c r="H190" s="11" t="n"/>
+      <c r="I190" s="11" t="n"/>
+      <c r="J190" s="10" t="n"/>
+      <c r="K190" s="9" t="n"/>
+      <c r="L190" s="10" t="n"/>
+      <c r="M190" s="14" t="n"/>
+    </row>
+    <row r="191" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A191" s="15" t="n">
+        <v>181</v>
+      </c>
+      <c r="B191" s="16" t="n"/>
+      <c r="C191" s="10" t="n"/>
+      <c r="D191" s="13" t="n"/>
+      <c r="E191" s="10" t="n"/>
+      <c r="F191" s="12" t="n"/>
+      <c r="G191" s="11" t="n"/>
+      <c r="H191" s="11" t="n"/>
+      <c r="I191" s="11" t="n"/>
+      <c r="J191" s="10" t="n"/>
+      <c r="K191" s="9" t="n"/>
+      <c r="L191" s="10" t="n"/>
+      <c r="M191" s="14" t="n"/>
+    </row>
+    <row r="192" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A192" s="15" t="n">
+        <v>182</v>
+      </c>
+      <c r="B192" s="16" t="n"/>
+      <c r="C192" s="10" t="n"/>
+      <c r="D192" s="13" t="n"/>
+      <c r="E192" s="10" t="n"/>
+      <c r="F192" s="12" t="n"/>
+      <c r="G192" s="11" t="n"/>
+      <c r="H192" s="11" t="n"/>
+      <c r="I192" s="11" t="n"/>
+      <c r="J192" s="10" t="n"/>
+      <c r="K192" s="9" t="n"/>
+      <c r="L192" s="10" t="n"/>
+      <c r="M192" s="14" t="n"/>
+    </row>
+    <row r="193" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A193" s="15" t="n">
+        <v>183</v>
+      </c>
+      <c r="B193" s="16" t="n"/>
+      <c r="C193" s="10" t="n"/>
+      <c r="D193" s="13" t="n"/>
+      <c r="E193" s="10" t="n"/>
+      <c r="F193" s="12" t="n"/>
+      <c r="G193" s="11" t="n"/>
+      <c r="H193" s="11" t="n"/>
+      <c r="I193" s="11" t="n"/>
+      <c r="J193" s="10" t="n"/>
+      <c r="K193" s="9" t="n"/>
+      <c r="L193" s="10" t="n"/>
+      <c r="M193" s="14" t="n"/>
+    </row>
+    <row r="194" ht="24.9" customFormat="1" customHeight="1" s="64">
+      <c r="A194" s="15" t="n">
+        <v>184</v>
+      </c>
+      <c r="B194" s="16" t="n"/>
+      <c r="C194" s="10" t="n"/>
+      <c r="D194" s="13" t="n"/>
+      <c r="E194" s="10" t="n"/>
+      <c r="F194" s="12" t="n"/>
+      <c r="G194" s="11" t="n"/>
+      <c r="H194" s="11" t="n"/>
+      <c r="I194" s="11" t="n"/>
+      <c r="J194" s="10" t="n"/>
+      <c r="K194" s="9" t="n"/>
+      <c r="L194" s="10" t="n"/>
+      <c r="M194" s="14" t="n"/>
+    </row>
+    <row r="195" ht="15.9" customFormat="1" customHeight="1" s="64">
+      <c r="A195" s="8" t="n"/>
+      <c r="B195" s="58" t="n"/>
+      <c r="F195" s="63" t="n"/>
+      <c r="I195" s="63" t="n"/>
+      <c r="J195" s="6">
+        <f>SUM(J11:J194)</f>
         <v/>
       </c>
-    </row>
-    <row r="55" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A55" s="17" t="n">
-        <v>45</v>
-      </c>
-      <c r="B55" s="18" t="n"/>
-      <c r="C55" s="10" t="n"/>
-      <c r="D55" s="14" t="n"/>
-      <c r="E55" s="10" t="n"/>
-      <c r="F55" s="13" t="n"/>
-      <c r="G55" s="11" t="n"/>
-      <c r="H55" s="11" t="n"/>
-      <c r="I55" s="11" t="n"/>
-      <c r="J55" s="10" t="n"/>
-      <c r="K55" s="9" t="n"/>
-      <c r="L55" s="10" t="n"/>
-      <c r="M55" s="16">
-        <f>L55+30</f>
+      <c r="K195" s="7">
+        <f>SUM(K11:K194)</f>
         <v/>
       </c>
-    </row>
-    <row r="56" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A56" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="B56" s="18" t="n"/>
-      <c r="C56" s="10" t="n"/>
-      <c r="D56" s="14" t="n"/>
-      <c r="E56" s="10" t="n"/>
-      <c r="F56" s="13" t="n"/>
-      <c r="G56" s="11" t="n"/>
-      <c r="H56" s="11" t="n"/>
-      <c r="I56" s="11" t="n"/>
-      <c r="J56" s="10" t="n"/>
-      <c r="K56" s="9" t="n"/>
-      <c r="L56" s="10" t="n"/>
-      <c r="M56" s="16">
-        <f>L56+30</f>
+      <c r="L195" s="6">
+        <f>SUM(L11:L194)</f>
         <v/>
       </c>
-    </row>
-    <row r="57" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A57" s="17" t="n">
-        <v>47</v>
-      </c>
-      <c r="B57" s="18" t="n"/>
-      <c r="C57" s="10" t="n"/>
-      <c r="D57" s="14" t="n"/>
-      <c r="E57" s="10" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="11" t="n"/>
-      <c r="H57" s="11" t="n"/>
-      <c r="I57" s="11" t="n"/>
-      <c r="J57" s="10" t="n"/>
-      <c r="K57" s="9" t="n"/>
-      <c r="L57" s="10" t="n"/>
-      <c r="M57" s="16">
-        <f>L57+30</f>
+      <c r="M195" s="5">
+        <f>SUM(M11:M194)</f>
         <v/>
       </c>
     </row>
-    <row r="58" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A58" s="17" t="n">
-        <v>48</v>
-      </c>
-      <c r="B58" s="18" t="n"/>
-      <c r="C58" s="10" t="n"/>
-      <c r="D58" s="14" t="n"/>
-      <c r="E58" s="10" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="11" t="n"/>
-      <c r="H58" s="11" t="n"/>
-      <c r="I58" s="11" t="n"/>
-      <c r="J58" s="10" t="n"/>
-      <c r="K58" s="9" t="n"/>
-      <c r="L58" s="10" t="n"/>
-      <c r="M58" s="16">
-        <f>L58+30</f>
+    <row r="196" ht="15.9" customFormat="1" customHeight="1" s="64">
+      <c r="A196" s="8" t="n"/>
+      <c r="B196" s="58" t="n"/>
+      <c r="F196" s="63" t="n"/>
+      <c r="G196" s="63" t="n"/>
+      <c r="H196" s="63" t="n"/>
+      <c r="I196" s="63" t="n"/>
+      <c r="J196" s="6" t="n"/>
+      <c r="K196" s="7" t="n"/>
+      <c r="L196" s="6" t="n"/>
+      <c r="M196" s="5" t="n"/>
+    </row>
+    <row r="197" ht="15.9" customFormat="1" customHeight="1" s="64" thickBot="1">
+      <c r="A197" s="25" t="n"/>
+      <c r="B197" s="22" t="n"/>
+      <c r="C197" s="23" t="n"/>
+      <c r="D197" s="24" t="n"/>
+      <c r="E197" s="24" t="n"/>
+      <c r="F197" s="63" t="n"/>
+      <c r="G197" s="63" t="n"/>
+      <c r="H197" s="63" t="n"/>
+      <c r="I197" s="63" t="n"/>
+      <c r="J197" s="6" t="n"/>
+      <c r="K197" s="7" t="n"/>
+      <c r="L197" s="6" t="n"/>
+      <c r="M197" s="5" t="n"/>
+    </row>
+    <row r="198" ht="15.9" customFormat="1" customHeight="1" s="64" thickBot="1">
+      <c r="A198" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL CASES                                                        </t>
+        </is>
+      </c>
+      <c r="B198" s="51" t="n"/>
+      <c r="C198" s="52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> W. CASES</t>
+        </is>
+      </c>
+      <c r="D198" s="53" t="n"/>
+      <c r="E198" s="24" t="n"/>
+      <c r="F198" s="63" t="n"/>
+      <c r="G198" s="63" t="n"/>
+      <c r="H198" s="63" t="n"/>
+      <c r="I198" s="63" t="n"/>
+      <c r="J198" s="6" t="n"/>
+      <c r="K198" s="7" t="n"/>
+      <c r="L198" s="6" t="n"/>
+      <c r="M198" s="5" t="n"/>
+    </row>
+    <row r="199" ht="15.9" customFormat="1" customHeight="1" s="64" thickBot="1">
+      <c r="A199" s="36" t="n"/>
+      <c r="B199" s="27" t="n"/>
+      <c r="C199" s="27" t="n"/>
+      <c r="D199" s="24" t="n"/>
+      <c r="E199" s="24" t="n"/>
+      <c r="F199" s="63" t="n"/>
+      <c r="G199" s="63" t="n"/>
+      <c r="H199" s="63" t="n"/>
+      <c r="I199" s="63" t="n"/>
+      <c r="J199" s="6" t="n"/>
+      <c r="K199" s="7" t="n"/>
+      <c r="L199" s="6" t="n"/>
+      <c r="M199" s="5" t="n"/>
+    </row>
+    <row r="200" ht="15.9" customFormat="1" customHeight="1" s="64" thickBot="1">
+      <c r="A200" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL NET KG                         </t>
+        </is>
+      </c>
+      <c r="B200" s="51" t="n"/>
+      <c r="C200" s="54">
+        <f>+L195</f>
         <v/>
       </c>
-    </row>
-    <row r="59" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A59" s="17" t="n">
-        <v>49</v>
-      </c>
-      <c r="B59" s="18" t="n"/>
-      <c r="C59" s="10" t="n"/>
-      <c r="D59" s="14" t="n"/>
-      <c r="E59" s="10" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="11" t="n"/>
-      <c r="H59" s="11" t="n"/>
-      <c r="I59" s="11" t="n"/>
-      <c r="J59" s="10" t="n"/>
-      <c r="K59" s="9" t="n"/>
-      <c r="L59" s="10" t="n"/>
-      <c r="M59" s="16">
-        <f>L59+30</f>
+      <c r="D200" s="53" t="n"/>
+      <c r="E200" s="37" t="inlineStr">
+        <is>
+          <t>KGS</t>
+        </is>
+      </c>
+      <c r="F200" s="63" t="n"/>
+      <c r="G200" s="63" t="n"/>
+      <c r="H200" s="63" t="n"/>
+      <c r="I200" s="63" t="n"/>
+      <c r="J200" s="6" t="n"/>
+      <c r="K200" s="7" t="n"/>
+      <c r="L200" s="6" t="n"/>
+      <c r="M200" s="5" t="n"/>
+    </row>
+    <row r="201" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A201" s="26" t="n"/>
+      <c r="B201" s="22" t="n"/>
+      <c r="C201" s="23" t="n"/>
+      <c r="D201" s="24" t="n"/>
+      <c r="E201" s="24" t="n"/>
+      <c r="M201" s="3" t="n"/>
+    </row>
+    <row r="202" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A202" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL GROSS KG                     </t>
+        </is>
+      </c>
+      <c r="B202" s="51" t="n"/>
+      <c r="C202" s="54">
+        <f>+M195</f>
         <v/>
       </c>
-    </row>
-    <row r="60" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A60" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="B60" s="18" t="n"/>
-      <c r="C60" s="10" t="n"/>
-      <c r="D60" s="14" t="n"/>
-      <c r="E60" s="10" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="11" t="n"/>
-      <c r="H60" s="11" t="n"/>
-      <c r="I60" s="11" t="n"/>
-      <c r="J60" s="10" t="n"/>
-      <c r="K60" s="9" t="n"/>
-      <c r="L60" s="10" t="n"/>
-      <c r="M60" s="16">
-        <f>L60+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A61" s="17" t="n">
-        <v>51</v>
-      </c>
-      <c r="B61" s="18" t="n"/>
-      <c r="C61" s="10" t="n"/>
-      <c r="D61" s="14" t="n"/>
-      <c r="E61" s="10" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="11" t="n"/>
-      <c r="H61" s="11" t="n"/>
-      <c r="I61" s="11" t="n"/>
-      <c r="J61" s="10" t="n"/>
-      <c r="K61" s="9" t="n"/>
-      <c r="L61" s="10" t="n"/>
-      <c r="M61" s="16">
-        <f>L61+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A62" s="17" t="n">
-        <v>52</v>
-      </c>
-      <c r="B62" s="18" t="n"/>
-      <c r="C62" s="10" t="n"/>
-      <c r="D62" s="14" t="n"/>
-      <c r="E62" s="10" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="11" t="n"/>
-      <c r="H62" s="11" t="n"/>
-      <c r="I62" s="11" t="n"/>
-      <c r="J62" s="10" t="n"/>
-      <c r="K62" s="9" t="n"/>
-      <c r="L62" s="10" t="n"/>
-      <c r="M62" s="16">
-        <f>L62+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A63" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="B63" s="18" t="n"/>
-      <c r="C63" s="10" t="n"/>
-      <c r="D63" s="14" t="n"/>
-      <c r="E63" s="10" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="11" t="n"/>
-      <c r="H63" s="11" t="n"/>
-      <c r="I63" s="11" t="n"/>
-      <c r="J63" s="10" t="n"/>
-      <c r="K63" s="9" t="n"/>
-      <c r="L63" s="10" t="n"/>
-      <c r="M63" s="16">
-        <f>L63+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A64" s="17" t="n">
-        <v>54</v>
-      </c>
-      <c r="B64" s="18" t="n"/>
-      <c r="C64" s="10" t="n"/>
-      <c r="D64" s="14" t="n"/>
-      <c r="E64" s="10" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="11" t="n"/>
-      <c r="H64" s="11" t="n"/>
-      <c r="I64" s="11" t="n"/>
-      <c r="J64" s="10" t="n"/>
-      <c r="K64" s="9" t="n"/>
-      <c r="L64" s="10" t="n"/>
-      <c r="M64" s="16">
-        <f>L64+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A65" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="B65" s="18" t="n"/>
-      <c r="C65" s="10" t="n"/>
-      <c r="D65" s="14" t="n"/>
-      <c r="E65" s="10" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="11" t="n"/>
-      <c r="H65" s="11" t="n"/>
-      <c r="I65" s="11" t="n"/>
-      <c r="J65" s="10" t="n"/>
-      <c r="K65" s="9" t="n"/>
-      <c r="L65" s="10" t="n"/>
-      <c r="M65" s="16">
-        <f>L65+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A66" s="17" t="n">
-        <v>56</v>
-      </c>
-      <c r="B66" s="18" t="n"/>
-      <c r="C66" s="10" t="n"/>
-      <c r="D66" s="14" t="n"/>
-      <c r="E66" s="10" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="11" t="n"/>
-      <c r="H66" s="11" t="n"/>
-      <c r="I66" s="11" t="n"/>
-      <c r="J66" s="10" t="n"/>
-      <c r="K66" s="9" t="n"/>
-      <c r="L66" s="10" t="n"/>
-      <c r="M66" s="16">
-        <f>L66+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A67" s="17" t="n">
-        <v>57</v>
-      </c>
-      <c r="B67" s="18" t="n"/>
-      <c r="C67" s="10" t="n"/>
-      <c r="D67" s="14" t="n"/>
-      <c r="E67" s="10" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="11" t="n"/>
-      <c r="H67" s="11" t="n"/>
-      <c r="I67" s="11" t="n"/>
-      <c r="J67" s="10" t="n"/>
-      <c r="K67" s="9" t="n"/>
-      <c r="L67" s="10" t="n"/>
-      <c r="M67" s="16">
-        <f>L67+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A68" s="17" t="n">
-        <v>58</v>
-      </c>
-      <c r="B68" s="18" t="n"/>
-      <c r="C68" s="10" t="n"/>
-      <c r="D68" s="14" t="n"/>
-      <c r="E68" s="10" t="n"/>
-      <c r="F68" s="13" t="n"/>
-      <c r="G68" s="11" t="n"/>
-      <c r="H68" s="11" t="n"/>
-      <c r="I68" s="11" t="n"/>
-      <c r="J68" s="10" t="n"/>
-      <c r="K68" s="9" t="n"/>
-      <c r="L68" s="10" t="n"/>
-      <c r="M68" s="16">
-        <f>L68+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A69" s="17" t="n">
-        <v>59</v>
-      </c>
-      <c r="B69" s="18" t="n"/>
-      <c r="C69" s="10" t="n"/>
-      <c r="D69" s="14" t="n"/>
-      <c r="E69" s="10" t="n"/>
-      <c r="F69" s="13" t="n"/>
-      <c r="G69" s="11" t="n"/>
-      <c r="H69" s="11" t="n"/>
-      <c r="I69" s="11" t="n"/>
-      <c r="J69" s="10" t="n"/>
-      <c r="K69" s="9" t="n"/>
-      <c r="L69" s="10" t="n"/>
-      <c r="M69" s="16">
-        <f>L69+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A70" s="17" t="n">
-        <v>60</v>
-      </c>
-      <c r="B70" s="18" t="n"/>
-      <c r="C70" s="10" t="n"/>
-      <c r="D70" s="14" t="n"/>
-      <c r="E70" s="10" t="n"/>
-      <c r="F70" s="13" t="n"/>
-      <c r="G70" s="11" t="n"/>
-      <c r="H70" s="11" t="n"/>
-      <c r="I70" s="11" t="n"/>
-      <c r="J70" s="10" t="n"/>
-      <c r="K70" s="9" t="n"/>
-      <c r="L70" s="10" t="n"/>
-      <c r="M70" s="16">
-        <f>L70+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A71" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="B71" s="18" t="n"/>
-      <c r="C71" s="10" t="n"/>
-      <c r="D71" s="14" t="n"/>
-      <c r="E71" s="10" t="n"/>
-      <c r="F71" s="13" t="n"/>
-      <c r="G71" s="11" t="n"/>
-      <c r="H71" s="11" t="n"/>
-      <c r="I71" s="11" t="n"/>
-      <c r="J71" s="10" t="n"/>
-      <c r="K71" s="9" t="n"/>
-      <c r="L71" s="10" t="n"/>
-      <c r="M71" s="16">
-        <f>L71+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A72" s="17" t="n">
-        <v>62</v>
-      </c>
-      <c r="B72" s="18" t="n"/>
-      <c r="C72" s="10" t="n"/>
-      <c r="D72" s="14" t="n"/>
-      <c r="E72" s="10" t="n"/>
-      <c r="F72" s="13" t="n"/>
-      <c r="G72" s="11" t="n"/>
-      <c r="H72" s="11" t="n"/>
-      <c r="I72" s="11" t="n"/>
-      <c r="J72" s="10" t="n"/>
-      <c r="K72" s="9" t="n"/>
-      <c r="L72" s="10" t="n"/>
-      <c r="M72" s="16">
-        <f>L72+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A73" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="B73" s="18" t="n"/>
-      <c r="C73" s="10" t="n"/>
-      <c r="D73" s="14" t="n"/>
-      <c r="E73" s="10" t="n"/>
-      <c r="F73" s="13" t="n"/>
-      <c r="G73" s="11" t="n"/>
-      <c r="H73" s="11" t="n"/>
-      <c r="I73" s="11" t="n"/>
-      <c r="J73" s="10" t="n"/>
-      <c r="K73" s="9" t="n"/>
-      <c r="L73" s="10" t="n"/>
-      <c r="M73" s="16">
-        <f>L73+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A74" s="17" t="n">
-        <v>64</v>
-      </c>
-      <c r="B74" s="18" t="n"/>
-      <c r="C74" s="10" t="n"/>
-      <c r="D74" s="14" t="n"/>
-      <c r="E74" s="10" t="n"/>
-      <c r="F74" s="13" t="n"/>
-      <c r="G74" s="11" t="n"/>
-      <c r="H74" s="11" t="n"/>
-      <c r="I74" s="11" t="n"/>
-      <c r="J74" s="10" t="n"/>
-      <c r="K74" s="9" t="n"/>
-      <c r="L74" s="10" t="n"/>
-      <c r="M74" s="16">
-        <f>L74+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A75" s="17" t="n">
-        <v>65</v>
-      </c>
-      <c r="B75" s="18" t="n"/>
-      <c r="C75" s="10" t="n"/>
-      <c r="D75" s="14" t="n"/>
-      <c r="E75" s="10" t="n"/>
-      <c r="F75" s="13" t="n"/>
-      <c r="G75" s="11" t="n"/>
-      <c r="H75" s="11" t="n"/>
-      <c r="I75" s="11" t="n"/>
-      <c r="J75" s="10" t="n"/>
-      <c r="K75" s="9" t="n"/>
-      <c r="L75" s="10" t="n"/>
-      <c r="M75" s="16">
-        <f>L75+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A76" s="17" t="n">
-        <v>66</v>
-      </c>
-      <c r="B76" s="18" t="n"/>
-      <c r="C76" s="10" t="n"/>
-      <c r="D76" s="14" t="n"/>
-      <c r="E76" s="10" t="n"/>
-      <c r="F76" s="13" t="n"/>
-      <c r="G76" s="11" t="n"/>
-      <c r="H76" s="11" t="n"/>
-      <c r="I76" s="11" t="n"/>
-      <c r="J76" s="10" t="n"/>
-      <c r="K76" s="9" t="n"/>
-      <c r="L76" s="10" t="n"/>
-      <c r="M76" s="16">
-        <f>L76+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" ht="24.9" customFormat="1" customHeight="1" s="54">
-      <c r="A77" s="17" t="n">
-        <v>67</v>
-      </c>
-      <c r="B77" s="15" t="n"/>
-      <c r="C77" s="10" t="n"/>
-      <c r="D77" s="14" t="n"/>
-      <c r="E77" s="10" t="n"/>
-      <c r="F77" s="13" t="n"/>
-      <c r="G77" s="76" t="n"/>
-      <c r="H77" s="11" t="n"/>
-      <c r="I77" s="11" t="n"/>
-      <c r="J77" s="10" t="n"/>
-      <c r="K77" s="9" t="n"/>
-      <c r="L77" s="10" t="n"/>
-      <c r="M77" s="16">
-        <f>L77+30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" ht="15.9" customFormat="1" customHeight="1" s="54">
-      <c r="A78" s="8" t="n"/>
-      <c r="B78" s="48" t="n"/>
-      <c r="F78" s="53" t="n"/>
-      <c r="I78" s="53" t="n"/>
-      <c r="J78" s="6">
-        <f>SUM(J11:J77)</f>
-        <v/>
-      </c>
-      <c r="K78" s="7">
-        <f>SUM(K11:K77)</f>
-        <v/>
-      </c>
-      <c r="L78" s="6">
-        <f>SUM(L11:L77)</f>
-        <v/>
-      </c>
-      <c r="M78" s="5">
-        <f>SUM(M11:M77)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" ht="15.9" customFormat="1" customHeight="1" s="54">
-      <c r="A79" s="8" t="n"/>
-      <c r="B79" s="48" t="n"/>
-      <c r="F79" s="53" t="n"/>
-      <c r="G79" s="53" t="n"/>
-      <c r="H79" s="53" t="n"/>
-      <c r="I79" s="53" t="n"/>
-      <c r="J79" s="6" t="n"/>
-      <c r="K79" s="7" t="n"/>
-      <c r="L79" s="6" t="n"/>
-      <c r="M79" s="5" t="n"/>
-    </row>
-    <row r="80" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
-      <c r="A80" s="27" t="n"/>
-      <c r="B80" s="24" t="n"/>
-      <c r="C80" s="25" t="n"/>
-      <c r="D80" s="26" t="n"/>
-      <c r="E80" s="26" t="n"/>
-      <c r="F80" s="53" t="n"/>
-      <c r="G80" s="53" t="n"/>
-      <c r="H80" s="53" t="n"/>
-      <c r="I80" s="53" t="n"/>
-      <c r="J80" s="6" t="n"/>
-      <c r="K80" s="7" t="n"/>
-      <c r="L80" s="6" t="n"/>
-      <c r="M80" s="5" t="n"/>
-    </row>
-    <row r="81" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
-      <c r="A81" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL CASES                                                        </t>
-        </is>
-      </c>
-      <c r="B81" s="71" t="n"/>
-      <c r="C81" s="72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> W. CASES</t>
-        </is>
-      </c>
-      <c r="D81" s="73" t="n"/>
-      <c r="E81" s="26" t="n"/>
-      <c r="F81" s="53" t="n"/>
-      <c r="G81" s="53" t="n"/>
-      <c r="H81" s="53" t="n"/>
-      <c r="I81" s="53" t="n"/>
-      <c r="J81" s="6" t="n"/>
-      <c r="K81" s="7" t="n"/>
-      <c r="L81" s="6" t="n"/>
-      <c r="M81" s="5" t="n"/>
-    </row>
-    <row r="82" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
-      <c r="A82" s="38" t="n"/>
-      <c r="B82" s="29" t="n"/>
-      <c r="C82" s="29" t="n"/>
-      <c r="D82" s="26" t="n"/>
-      <c r="E82" s="26" t="n"/>
-      <c r="F82" s="53" t="n"/>
-      <c r="G82" s="53" t="n"/>
-      <c r="H82" s="53" t="n"/>
-      <c r="I82" s="53" t="n"/>
-      <c r="J82" s="6" t="n"/>
-      <c r="K82" s="7" t="n"/>
-      <c r="L82" s="6" t="n"/>
-      <c r="M82" s="5" t="n"/>
-    </row>
-    <row r="83" ht="15.9" customFormat="1" customHeight="1" s="54" thickBot="1">
-      <c r="A83" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL NET KG                         </t>
-        </is>
-      </c>
-      <c r="B83" s="71" t="n"/>
-      <c r="C83" s="74">
-        <f>+L78</f>
-        <v/>
-      </c>
-      <c r="D83" s="73" t="n"/>
-      <c r="E83" s="39" t="inlineStr">
+      <c r="D202" s="53" t="n"/>
+      <c r="E202" s="37" t="inlineStr">
         <is>
           <t>KGS</t>
         </is>
       </c>
-      <c r="F83" s="53" t="n"/>
-      <c r="G83" s="53" t="n"/>
-      <c r="H83" s="53" t="n"/>
-      <c r="I83" s="53" t="n"/>
-      <c r="J83" s="6" t="n"/>
-      <c r="K83" s="7" t="n"/>
-      <c r="L83" s="6" t="n"/>
-      <c r="M83" s="5" t="n"/>
-    </row>
-    <row r="84" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A84" s="28" t="n"/>
-      <c r="B84" s="24" t="n"/>
-      <c r="C84" s="25" t="n"/>
-      <c r="D84" s="26" t="n"/>
-      <c r="E84" s="26" t="n"/>
-      <c r="M84" s="3" t="n"/>
-    </row>
-    <row r="85" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A85" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL GROSS KG                     </t>
-        </is>
-      </c>
-      <c r="B85" s="71" t="n"/>
-      <c r="C85" s="74">
-        <f>+M78</f>
-        <v/>
-      </c>
-      <c r="D85" s="73" t="n"/>
-      <c r="E85" s="39" t="inlineStr">
-        <is>
-          <t>KGS</t>
-        </is>
-      </c>
-      <c r="M85" s="3" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="40" t="n"/>
-      <c r="B86" s="41" t="n"/>
-      <c r="C86" s="42" t="n"/>
-      <c r="D86" s="43" t="n"/>
-      <c r="E86" s="39" t="n"/>
-      <c r="M86" s="3" t="n"/>
-    </row>
-    <row r="87" ht="18" customHeight="1" thickBot="1">
-      <c r="A87" s="65" t="inlineStr">
+      <c r="M202" s="3" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="38" t="n"/>
+      <c r="B203" s="39" t="n"/>
+      <c r="C203" s="40" t="n"/>
+      <c r="D203" s="41" t="n"/>
+      <c r="E203" s="37" t="n"/>
+      <c r="M203" s="3" t="n"/>
+    </row>
+    <row r="204" ht="18" customHeight="1" thickBot="1">
+      <c r="A204" s="42" t="inlineStr">
         <is>
           <t>EK AÇIKLAMALAR</t>
         </is>
       </c>
-      <c r="E87" s="59" t="inlineStr">
+      <c r="E204" s="46" t="inlineStr">
         <is>
           <t>KASA ÖLÇÜLERİ</t>
         </is>
       </c>
-      <c r="M87" s="60" t="n"/>
-    </row>
-    <row r="88" ht="25.05" customHeight="1">
-      <c r="A88" s="66" t="n"/>
-      <c r="B88" s="67" t="n"/>
-      <c r="C88" s="67" t="n"/>
-      <c r="D88" s="67" t="n"/>
-      <c r="E88" s="68" t="n"/>
-      <c r="F88" s="67" t="n"/>
-      <c r="G88" s="67" t="n"/>
-      <c r="H88" s="67" t="n"/>
-      <c r="I88" s="67" t="n"/>
-      <c r="J88" s="67" t="n"/>
-      <c r="K88" s="67" t="n"/>
-      <c r="L88" s="67" t="n"/>
-      <c r="M88" s="69" t="n"/>
-    </row>
-    <row r="89" ht="25.05" customHeight="1">
-      <c r="A89" s="8" t="n"/>
-      <c r="B89" s="48" t="n"/>
-      <c r="C89" s="48" t="n"/>
-      <c r="D89" s="48" t="n"/>
-      <c r="E89" s="21" t="n"/>
-      <c r="F89" s="48" t="n"/>
-      <c r="G89" s="48" t="n"/>
-      <c r="H89" s="48" t="n"/>
-      <c r="I89" s="48" t="n"/>
-      <c r="J89" s="48" t="n"/>
-      <c r="K89" s="48" t="n"/>
-      <c r="L89" s="48" t="n"/>
-      <c r="M89" s="3" t="n"/>
-    </row>
-    <row r="90" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A90" s="34" t="n"/>
-      <c r="B90" s="35" t="n"/>
-      <c r="C90" s="35" t="n"/>
-      <c r="D90" s="35" t="n"/>
-      <c r="E90" s="36" t="n"/>
-      <c r="F90" s="35" t="n"/>
-      <c r="G90" s="35" t="n"/>
-      <c r="H90" s="35" t="n"/>
-      <c r="I90" s="35" t="n"/>
-      <c r="J90" s="35" t="n"/>
-      <c r="K90" s="35" t="n"/>
-      <c r="L90" s="35" t="n"/>
-      <c r="M90" s="37" t="n"/>
-    </row>
-    <row r="91" ht="25.05" customHeight="1">
-      <c r="A91" s="65" t="inlineStr">
+      <c r="M204" s="47" t="n"/>
+    </row>
+    <row r="205" ht="25.05" customHeight="1">
+      <c r="A205" s="44" t="n"/>
+      <c r="B205" s="45" t="n"/>
+      <c r="C205" s="45" t="n"/>
+      <c r="D205" s="45" t="n"/>
+      <c r="E205" s="48" t="n"/>
+      <c r="F205" s="45" t="n"/>
+      <c r="G205" s="45" t="n"/>
+      <c r="H205" s="45" t="n"/>
+      <c r="I205" s="45" t="n"/>
+      <c r="J205" s="45" t="n"/>
+      <c r="K205" s="45" t="n"/>
+      <c r="L205" s="45" t="n"/>
+      <c r="M205" s="49" t="n"/>
+    </row>
+    <row r="206" ht="25.05" customHeight="1">
+      <c r="A206" s="8" t="n"/>
+      <c r="B206" s="58" t="n"/>
+      <c r="C206" s="58" t="n"/>
+      <c r="D206" s="58" t="n"/>
+      <c r="E206" s="19" t="n"/>
+      <c r="F206" s="58" t="n"/>
+      <c r="G206" s="58" t="n"/>
+      <c r="H206" s="58" t="n"/>
+      <c r="I206" s="58" t="n"/>
+      <c r="J206" s="58" t="n"/>
+      <c r="K206" s="58" t="n"/>
+      <c r="L206" s="58" t="n"/>
+      <c r="M206" s="3" t="n"/>
+    </row>
+    <row r="207" ht="25.05" customHeight="1" thickBot="1">
+      <c r="A207" s="32" t="n"/>
+      <c r="B207" s="33" t="n"/>
+      <c r="C207" s="33" t="n"/>
+      <c r="D207" s="33" t="n"/>
+      <c r="E207" s="34" t="n"/>
+      <c r="F207" s="33" t="n"/>
+      <c r="G207" s="33" t="n"/>
+      <c r="H207" s="33" t="n"/>
+      <c r="I207" s="33" t="n"/>
+      <c r="J207" s="33" t="n"/>
+      <c r="K207" s="33" t="n"/>
+      <c r="L207" s="33" t="n"/>
+      <c r="M207" s="35" t="n"/>
+    </row>
+    <row r="208" ht="25.05" customHeight="1">
+      <c r="A208" s="42" t="inlineStr">
         <is>
           <t>KONTEYNER İÇİ DAĞILIM</t>
         </is>
       </c>
-      <c r="E91" s="59" t="inlineStr">
+      <c r="E208" s="46" t="inlineStr">
         <is>
           <t>YÜKLEME TOPLANTISI NOTLARI</t>
         </is>
       </c>
-      <c r="M91" s="60" t="n"/>
-    </row>
-    <row r="92" ht="25.05" customHeight="1">
-      <c r="A92" s="64" t="n"/>
-      <c r="B92" s="62" t="n"/>
-      <c r="C92" s="62" t="n"/>
-      <c r="D92" s="62" t="n"/>
-      <c r="E92" s="61" t="n"/>
-      <c r="F92" s="62" t="n"/>
-      <c r="G92" s="62" t="n"/>
-      <c r="H92" s="62" t="n"/>
-      <c r="I92" s="62" t="n"/>
-      <c r="J92" s="62" t="n"/>
-      <c r="K92" s="62" t="n"/>
-      <c r="L92" s="62" t="n"/>
-      <c r="M92" s="63" t="n"/>
-    </row>
-    <row r="93" ht="25.05" customHeight="1">
-      <c r="A93" s="20" t="n"/>
-      <c r="B93" s="48" t="n"/>
-      <c r="C93" s="48" t="n"/>
-      <c r="D93" s="48" t="n"/>
-      <c r="E93" s="21" t="n"/>
-      <c r="F93" s="48" t="n"/>
-      <c r="G93" s="48" t="n"/>
-      <c r="H93" s="48" t="n"/>
-      <c r="I93" s="48" t="n"/>
-      <c r="J93" s="48" t="n"/>
-      <c r="K93" s="48" t="n"/>
-      <c r="L93" s="48" t="n"/>
-      <c r="M93" s="22" t="n"/>
-    </row>
-    <row r="94" ht="25.05" customHeight="1">
-      <c r="A94" s="49" t="n"/>
-      <c r="B94" s="50" t="n"/>
-      <c r="C94" s="50" t="n"/>
-      <c r="D94" s="50" t="n"/>
-      <c r="E94" s="51" t="n"/>
-      <c r="F94" s="50" t="n"/>
-      <c r="G94" s="50" t="n"/>
-      <c r="H94" s="50" t="n"/>
-      <c r="I94" s="50" t="n"/>
-      <c r="J94" s="50" t="n"/>
-      <c r="K94" s="50" t="n"/>
-      <c r="L94" s="50" t="n"/>
-      <c r="M94" s="52" t="n"/>
-    </row>
-    <row r="95" ht="25.05" customHeight="1"/>
+      <c r="M208" s="47" t="n"/>
+    </row>
+    <row r="209" ht="25.05" customHeight="1">
+      <c r="A209" s="72" t="n"/>
+      <c r="B209" s="70" t="n"/>
+      <c r="C209" s="70" t="n"/>
+      <c r="D209" s="70" t="n"/>
+      <c r="E209" s="69" t="n"/>
+      <c r="F209" s="70" t="n"/>
+      <c r="G209" s="70" t="n"/>
+      <c r="H209" s="70" t="n"/>
+      <c r="I209" s="70" t="n"/>
+      <c r="J209" s="70" t="n"/>
+      <c r="K209" s="70" t="n"/>
+      <c r="L209" s="70" t="n"/>
+      <c r="M209" s="71" t="n"/>
+    </row>
+    <row r="210" ht="25.05" customHeight="1">
+      <c r="A210" s="18" t="n"/>
+      <c r="B210" s="58" t="n"/>
+      <c r="C210" s="58" t="n"/>
+      <c r="D210" s="58" t="n"/>
+      <c r="E210" s="19" t="n"/>
+      <c r="F210" s="58" t="n"/>
+      <c r="G210" s="58" t="n"/>
+      <c r="H210" s="58" t="n"/>
+      <c r="I210" s="58" t="n"/>
+      <c r="J210" s="58" t="n"/>
+      <c r="K210" s="58" t="n"/>
+      <c r="L210" s="58" t="n"/>
+      <c r="M210" s="20" t="n"/>
+    </row>
+    <row r="211" ht="25.05" customHeight="1">
+      <c r="A211" s="59" t="n"/>
+      <c r="B211" s="60" t="n"/>
+      <c r="C211" s="60" t="n"/>
+      <c r="D211" s="60" t="n"/>
+      <c r="E211" s="61" t="n"/>
+      <c r="F211" s="60" t="n"/>
+      <c r="G211" s="60" t="n"/>
+      <c r="H211" s="60" t="n"/>
+      <c r="I211" s="60" t="n"/>
+      <c r="J211" s="60" t="n"/>
+      <c r="K211" s="60" t="n"/>
+      <c r="L211" s="60" t="n"/>
+      <c r="M211" s="62" t="n"/>
+    </row>
+    <row r="212" ht="25.05" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E87:M87"/>
-    <mergeCell ref="E88:M88"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:M94"/>
-    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E211:M211"/>
+    <mergeCell ref="F195:H195"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E91:M91"/>
-    <mergeCell ref="E92:M92"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="E208:M208"/>
+    <mergeCell ref="E209:M209"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A208:D208"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="E204:M204"/>
+    <mergeCell ref="E205:M205"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1574803149606299" right="0.1181102362204725" top="0.33" bottom="0.59" header="0.33" footer="0.5118110236220472"/>

--- a/excel/dosyalar/ceki_listesi.xlsx
+++ b/excel/dosyalar/ceki_listesi.xlsx
@@ -628,10 +628,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="21.6" customHeight="1"/>
@@ -692,7 +692,7 @@
     <row r="6" ht="21.6" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
         <is>
-          <t>24VML01-2 Çeki Listesi</t>
+          <t>24IMEX01-3 Packing List</t>
         </is>
       </c>
     </row>
@@ -784,6 +784,11 @@
           <t>GROSS</t>
         </is>
       </c>
+      <c r="P9" s="8" t="inlineStr">
+        <is>
+          <t>C.Size</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="21.6" customHeight="1">
       <c r="A10" s="14" t="inlineStr">
@@ -837,60 +842,66 @@
           <t>KG</t>
         </is>
       </c>
+      <c r="P10" s="9" t="n"/>
     </row>
     <row r="11" ht="28.8" customHeight="1">
       <c r="A11" s="17" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>527925</v>
+        <v>528413</v>
       </c>
       <c r="C11" s="17" t="inlineStr">
         <is>
-          <t>Travertine Balustrade</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F11" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G11" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>86,4</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I11" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K11" s="17" t="inlineStr"/>
-      <c r="L11" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K11" s="17" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="L11" s="17" t="inlineStr"/>
       <c r="M11" s="17" t="inlineStr"/>
       <c r="N11" s="17" t="n">
-        <v>1187</v>
+        <v>2080</v>
       </c>
       <c r="O11" s="17" t="n">
-        <v>1217</v>
+        <v>2110</v>
+      </c>
+      <c r="P11" s="17" t="inlineStr">
+        <is>
+          <t>deneme1</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
@@ -898,54 +909,59 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="n">
-        <v>527926</v>
+        <v>528414</v>
       </c>
       <c r="C12" s="17" t="inlineStr">
         <is>
-          <t>Travertine Balustrade</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D12" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F12" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="H12" s="17" t="inlineStr">
         <is>
-          <t>86,4</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I12" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K12" s="17" t="inlineStr"/>
-      <c r="L12" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K12" s="17" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="L12" s="17" t="inlineStr"/>
       <c r="M12" s="17" t="inlineStr"/>
       <c r="N12" s="17" t="n">
-        <v>1187</v>
+        <v>2080</v>
       </c>
       <c r="O12" s="17" t="n">
-        <v>1217</v>
+        <v>2110</v>
+      </c>
+      <c r="P12" s="17" t="inlineStr">
+        <is>
+          <t>deneme1</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="28.8" customHeight="1">
@@ -953,54 +969,59 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="n">
-        <v>527927</v>
+        <v>528419</v>
       </c>
       <c r="C13" s="17" t="inlineStr">
         <is>
-          <t>Travertine Balustrade</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D13" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F13" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G13" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t>86,4</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I13" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K13" s="17" t="inlineStr"/>
-      <c r="L13" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="L13" s="17" t="inlineStr"/>
       <c r="M13" s="17" t="inlineStr"/>
       <c r="N13" s="17" t="n">
-        <v>1187</v>
+        <v>1263</v>
       </c>
       <c r="O13" s="17" t="n">
-        <v>1217</v>
+        <v>1293</v>
+      </c>
+      <c r="P13" s="17" t="inlineStr">
+        <is>
+          <t>deneme1</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="28.8" customHeight="1">
@@ -1008,54 +1029,59 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="n">
-        <v>527928</v>
+        <v>61284</v>
       </c>
       <c r="C14" s="17" t="inlineStr">
         <is>
-          <t>Travertine Balustrade</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D14" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F14" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G14" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
-          <t>86,4</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="inlineStr"/>
-      <c r="L14" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="L14" s="17" t="inlineStr"/>
       <c r="M14" s="17" t="inlineStr"/>
       <c r="N14" s="17" t="n">
-        <v>1187</v>
+        <v>1238</v>
       </c>
       <c r="O14" s="17" t="n">
-        <v>1217</v>
+        <v>1268</v>
+      </c>
+      <c r="P14" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="15" ht="28.8" customHeight="1">
@@ -1063,54 +1089,59 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="n">
-        <v>527929</v>
+        <v>61287</v>
       </c>
       <c r="C15" s="17" t="inlineStr">
         <is>
-          <t>Travertine Balustrade</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D15" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F15" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G15" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>86,4</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" s="17" t="inlineStr"/>
-      <c r="L15" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="L15" s="17" t="inlineStr"/>
       <c r="M15" s="17" t="inlineStr"/>
       <c r="N15" s="17" t="n">
-        <v>1187</v>
+        <v>1238</v>
       </c>
       <c r="O15" s="17" t="n">
-        <v>1217</v>
+        <v>1268</v>
+      </c>
+      <c r="P15" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="28.8" customHeight="1">
@@ -1118,54 +1149,59 @@
         <v>6</v>
       </c>
       <c r="B16" s="17" t="n">
-        <v>527930</v>
+        <v>61289</v>
       </c>
       <c r="C16" s="17" t="inlineStr">
         <is>
-          <t>Travertine Balustrade</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D16" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E16" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F16" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G16" s="17" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H16" s="17" t="inlineStr">
         <is>
-          <t>86,4</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I16" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="inlineStr"/>
-      <c r="L16" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="K16" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="L16" s="17" t="inlineStr"/>
       <c r="M16" s="17" t="inlineStr"/>
       <c r="N16" s="17" t="n">
-        <v>1187</v>
+        <v>1238</v>
       </c>
       <c r="O16" s="17" t="n">
-        <v>1217</v>
+        <v>1268</v>
+      </c>
+      <c r="P16" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="17" ht="28.8" customHeight="1">
@@ -1173,54 +1209,59 @@
         <v>7</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>527578</v>
+        <v>61435</v>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>Travertine Stairs</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished&amp;Split</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>33,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>213,4</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I17" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="K17" s="17" t="inlineStr"/>
-      <c r="L17" s="17" t="n">
-        <v>12</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="L17" s="17" t="inlineStr"/>
       <c r="M17" s="17" t="inlineStr"/>
       <c r="N17" s="17" t="n">
-        <v>1206</v>
+        <v>1238</v>
       </c>
       <c r="O17" s="17" t="n">
-        <v>1236</v>
+        <v>1268</v>
+      </c>
+      <c r="P17" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="18" ht="28.8" customHeight="1">
@@ -1228,54 +1269,59 @@
         <v>8</v>
       </c>
       <c r="B18" s="17" t="n">
-        <v>527931</v>
+        <v>61438</v>
       </c>
       <c r="C18" s="17" t="inlineStr">
         <is>
-          <t>Travertine Wall Cap</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D18" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F18" s="17" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G18" s="17" t="inlineStr">
         <is>
-          <t>36,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H18" s="17" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I18" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" s="17" t="inlineStr"/>
+        <v>1200</v>
+      </c>
+      <c r="K18" s="17" t="n">
+        <v>24</v>
+      </c>
       <c r="L18" s="17" t="inlineStr"/>
-      <c r="M18" s="17" t="n">
-        <v>19.81</v>
-      </c>
+      <c r="M18" s="17" t="inlineStr"/>
       <c r="N18" s="17" t="n">
-        <v>1527</v>
+        <v>1238</v>
       </c>
       <c r="O18" s="17" t="n">
-        <v>1557</v>
+        <v>1268</v>
+      </c>
+      <c r="P18" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="28.8" customHeight="1">
@@ -1283,54 +1329,59 @@
         <v>9</v>
       </c>
       <c r="B19" s="17" t="n">
-        <v>527932</v>
+        <v>61453</v>
       </c>
       <c r="C19" s="17" t="inlineStr">
         <is>
-          <t>Travertine Top Rail</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D19" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E19" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F19" s="17" t="inlineStr">
         <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G19" s="17" t="inlineStr">
+        <is>
           <t>10,0</t>
         </is>
       </c>
-      <c r="G19" s="17" t="inlineStr">
-        <is>
-          <t>26,0</t>
-        </is>
-      </c>
       <c r="H19" s="17" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I19" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="K19" s="17" t="inlineStr"/>
+        <v>1200</v>
+      </c>
+      <c r="K19" s="17" t="n">
+        <v>24</v>
+      </c>
       <c r="L19" s="17" t="inlineStr"/>
-      <c r="M19" s="17" t="n">
-        <v>17</v>
-      </c>
+      <c r="M19" s="17" t="inlineStr"/>
       <c r="N19" s="17" t="n">
-        <v>1051</v>
+        <v>1238</v>
       </c>
       <c r="O19" s="17" t="n">
-        <v>1081</v>
+        <v>1268</v>
+      </c>
+      <c r="P19" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="20" ht="28.8" customHeight="1">
@@ -1338,463 +1389,232 @@
         <v>10</v>
       </c>
       <c r="B20" s="17" t="n">
-        <v>527933</v>
+        <v>61457</v>
       </c>
       <c r="C20" s="17" t="inlineStr">
         <is>
-          <t>Travertine Top Rail</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="D20" s="17" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="F20" s="17" t="inlineStr">
         <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G20" s="17" t="inlineStr">
+        <is>
           <t>10,0</t>
         </is>
       </c>
-      <c r="G20" s="17" t="inlineStr">
-        <is>
-          <t>26,0</t>
-        </is>
-      </c>
       <c r="H20" s="17" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="I20" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="K20" s="17" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="K20" s="17" t="n">
+        <v>14</v>
+      </c>
       <c r="L20" s="17" t="inlineStr"/>
-      <c r="M20" s="17" t="n">
-        <v>17</v>
-      </c>
+      <c r="M20" s="17" t="inlineStr"/>
       <c r="N20" s="17" t="n">
-        <v>1051</v>
+        <v>722</v>
       </c>
       <c r="O20" s="17" t="n">
-        <v>1081</v>
+        <v>752</v>
+      </c>
+      <c r="P20" s="17" t="inlineStr">
+        <is>
+          <t>deneme2</t>
+        </is>
       </c>
     </row>
     <row r="21" ht="28.8" customHeight="1">
-      <c r="A21" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="B21" s="17" t="n">
-        <v>527934</v>
-      </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Top Rail</t>
-        </is>
-      </c>
-      <c r="D21" s="17" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E21" s="17" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="F21" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="G21" s="17" t="inlineStr">
-        <is>
-          <t>26,0</t>
-        </is>
-      </c>
-      <c r="H21" s="17" t="inlineStr">
-        <is>
-          <t>100,0</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n">
+      <c r="K21" s="18" t="n">
+        <v>263.12</v>
+      </c>
+      <c r="L21" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="K21" s="17" t="inlineStr"/>
-      <c r="L21" s="17" t="inlineStr"/>
-      <c r="M21" s="17" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="N21" s="17" t="n">
-        <v>725</v>
-      </c>
-      <c r="O21" s="17" t="n">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="22" ht="28.8" customHeight="1">
-      <c r="A22" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="B22" s="17" t="n">
-        <v>527579</v>
-      </c>
-      <c r="C22" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Column</t>
-        </is>
-      </c>
-      <c r="D22" s="17" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished&amp;Carved</t>
-        </is>
-      </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="F22" s="17" t="inlineStr">
-        <is>
-          <t>30,0</t>
-        </is>
-      </c>
-      <c r="G22" s="17" t="inlineStr">
-        <is>
-          <t>30,0</t>
-        </is>
-      </c>
-      <c r="H22" s="17" t="inlineStr">
-        <is>
-          <t>102,0</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n">
+      <c r="M21" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" s="17" t="inlineStr"/>
-      <c r="L22" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" s="17" t="inlineStr"/>
-      <c r="N22" s="17" t="n">
-        <v>873</v>
-      </c>
-      <c r="O22" s="17" t="n">
-        <v>903</v>
-      </c>
-    </row>
+      <c r="N21" s="18" t="n">
+        <v>13573</v>
+      </c>
+      <c r="O21" s="18" t="n">
+        <v>13873</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" customHeight="1"/>
     <row r="23" ht="28.8" customHeight="1">
-      <c r="A23" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" s="17" t="n">
-        <v>527580</v>
-      </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Column</t>
-        </is>
-      </c>
-      <c r="D23" s="17" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished&amp;Carved</t>
-        </is>
-      </c>
-      <c r="E23" s="17" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
-        <is>
-          <t>30,0</t>
-        </is>
-      </c>
-      <c r="G23" s="17" t="inlineStr">
-        <is>
-          <t>30,0</t>
-        </is>
-      </c>
-      <c r="H23" s="17" t="inlineStr">
-        <is>
-          <t>102,0</t>
-        </is>
-      </c>
-      <c r="I23" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="17" t="inlineStr"/>
-      <c r="L23" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" s="17" t="inlineStr"/>
-      <c r="N23" s="17" t="n">
-        <v>873</v>
-      </c>
-      <c r="O23" s="17" t="n">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" customHeight="1">
-      <c r="A24" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" s="17" t="n">
-        <v>527935</v>
-      </c>
-      <c r="C24" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Cap</t>
-        </is>
-      </c>
-      <c r="D24" s="17" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E24" s="17" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="F24" s="17" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="G24" s="17" t="inlineStr">
-        <is>
-          <t>32,0</t>
-        </is>
-      </c>
-      <c r="H24" s="17" t="inlineStr">
-        <is>
-          <t>36,0</t>
-        </is>
-      </c>
-      <c r="I24" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" s="17" t="inlineStr"/>
-      <c r="L24" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="M24" s="17" t="inlineStr"/>
-      <c r="N24" s="17" t="n">
-        <v>166</v>
-      </c>
-      <c r="O24" s="17" t="n">
-        <v>196</v>
-      </c>
-    </row>
+      <c r="A23" s="19" t="inlineStr">
+        <is>
+          <t>TOTAL CASES</t>
+        </is>
+      </c>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>10 W.CASES</t>
+        </is>
+      </c>
+      <c r="D23" s="17" t="n"/>
+    </row>
+    <row r="24" ht="28.8" customHeight="1"/>
     <row r="25" ht="28.8" customHeight="1">
-      <c r="A25" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B25" s="17" t="n">
-        <v>527936</v>
-      </c>
-      <c r="C25" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Balustrade</t>
-        </is>
-      </c>
-      <c r="D25" s="17" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E25" s="17" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="F25" s="17" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="G25" s="17" t="inlineStr">
-        <is>
-          <t>20,32</t>
-        </is>
-      </c>
-      <c r="H25" s="17" t="inlineStr">
-        <is>
-          <t>100,0</t>
-        </is>
-      </c>
-      <c r="I25" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="K25" s="17" t="inlineStr"/>
-      <c r="L25" s="17" t="inlineStr"/>
-      <c r="M25" s="17" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="N25" s="17" t="n">
-        <v>398</v>
-      </c>
-      <c r="O25" s="17" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" ht="28.8" customHeight="1">
-      <c r="A26" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B26" s="17" t="n">
-        <v>527937</v>
-      </c>
-      <c r="C26" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Balustrade</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>Classic</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>20,32</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>100,0</t>
-        </is>
-      </c>
-      <c r="I26" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="K26" s="17" t="inlineStr"/>
-      <c r="L26" s="17" t="inlineStr"/>
-      <c r="M26" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="N26" s="17" t="n">
-        <v>928</v>
-      </c>
-      <c r="O26" s="17" t="n">
-        <v>958</v>
-      </c>
-    </row>
+      <c r="A25" s="19" t="inlineStr">
+        <is>
+          <t>TOTAL NET KG</t>
+        </is>
+      </c>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="19" t="inlineStr">
+        <is>
+          <t>13573 kgs</t>
+        </is>
+      </c>
+      <c r="D25" s="17" t="n"/>
+    </row>
+    <row r="26" ht="28.8" customHeight="1"/>
     <row r="27" ht="28.8" customHeight="1">
-      <c r="K27" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="18" t="n">
-        <v>178</v>
-      </c>
-      <c r="M27" s="18" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="N27" s="18" t="n">
-        <v>15920</v>
-      </c>
-      <c r="O27" s="18" t="n">
-        <v>16400</v>
-      </c>
+      <c r="A27" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL GROSS KG </t>
+        </is>
+      </c>
+      <c r="B27" s="17" t="n"/>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>13873 kgs</t>
+        </is>
+      </c>
+      <c r="D27" s="17" t="n"/>
     </row>
     <row r="28" ht="28.8" customHeight="1"/>
     <row r="29" ht="28.8" customHeight="1">
       <c r="A29" s="19" t="inlineStr">
         <is>
-          <t>TOTAL CASES</t>
+          <t>EK AÇIKLAMALAR</t>
         </is>
       </c>
       <c r="B29" s="17" t="n"/>
-      <c r="C29" s="19" t="inlineStr">
-        <is>
-          <t>16 W.CASES</t>
-        </is>
-      </c>
+      <c r="C29" s="17" t="n"/>
       <c r="D29" s="17" t="n"/>
-    </row>
-    <row r="30" ht="28.8" customHeight="1"/>
+      <c r="E29" s="19" t="inlineStr">
+        <is>
+          <t>KASA ÖLÇÜLERİ</t>
+        </is>
+      </c>
+      <c r="F29" s="17" t="n"/>
+      <c r="G29" s="17" t="n"/>
+      <c r="H29" s="17" t="n"/>
+      <c r="I29" s="17" t="n"/>
+      <c r="J29" s="17" t="n"/>
+      <c r="K29" s="17" t="n"/>
+      <c r="L29" s="17" t="n"/>
+      <c r="M29" s="17" t="n"/>
+      <c r="N29" s="17" t="n"/>
+      <c r="O29" s="17" t="n"/>
+    </row>
+    <row r="30" ht="28.8" customHeight="1">
+      <c r="A30" s="17" t="n"/>
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="17" t="n"/>
+      <c r="E30" s="17" t="n"/>
+      <c r="F30" s="17" t="n"/>
+      <c r="G30" s="17" t="n"/>
+      <c r="H30" s="17" t="n"/>
+      <c r="I30" s="17" t="n"/>
+      <c r="J30" s="17" t="n"/>
+      <c r="K30" s="17" t="n"/>
+      <c r="L30" s="17" t="n"/>
+      <c r="M30" s="17" t="n"/>
+      <c r="N30" s="17" t="n"/>
+      <c r="O30" s="17" t="n"/>
+    </row>
     <row r="31" ht="28.8" customHeight="1">
-      <c r="A31" s="19" t="inlineStr">
-        <is>
-          <t>TOTAL NET KG</t>
-        </is>
-      </c>
+      <c r="A31" s="17" t="n"/>
       <c r="B31" s="17" t="n"/>
-      <c r="C31" s="19" t="inlineStr">
-        <is>
-          <t>15920 kgs</t>
-        </is>
-      </c>
+      <c r="C31" s="17" t="n"/>
       <c r="D31" s="17" t="n"/>
-    </row>
-    <row r="32" ht="28.8" customHeight="1"/>
-    <row r="33" ht="28.8" customHeight="1">
-      <c r="A33" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL GROSS KG </t>
-        </is>
-      </c>
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="19" t="inlineStr">
-        <is>
-          <t>16400 kgs</t>
-        </is>
-      </c>
-      <c r="D33" s="17" t="n"/>
-    </row>
-    <row r="34" ht="28.8" customHeight="1"/>
+      <c r="E31" s="17" t="n"/>
+      <c r="F31" s="17" t="n"/>
+      <c r="G31" s="17" t="n"/>
+      <c r="H31" s="17" t="n"/>
+      <c r="I31" s="17" t="n"/>
+      <c r="J31" s="17" t="n"/>
+      <c r="K31" s="17" t="n"/>
+      <c r="L31" s="17" t="n"/>
+      <c r="M31" s="17" t="n"/>
+      <c r="N31" s="17" t="n"/>
+      <c r="O31" s="17" t="n"/>
+    </row>
+    <row r="32" ht="28.8" customHeight="1">
+      <c r="A32" s="17" t="n"/>
+      <c r="B32" s="17" t="n"/>
+      <c r="C32" s="17" t="n"/>
+      <c r="D32" s="17" t="n"/>
+      <c r="E32" s="17" t="n"/>
+      <c r="F32" s="17" t="n"/>
+      <c r="G32" s="17" t="n"/>
+      <c r="H32" s="17" t="n"/>
+      <c r="I32" s="17" t="n"/>
+      <c r="J32" s="17" t="n"/>
+      <c r="K32" s="17" t="n"/>
+      <c r="L32" s="17" t="n"/>
+      <c r="M32" s="17" t="n"/>
+      <c r="N32" s="17" t="n"/>
+      <c r="O32" s="17" t="n"/>
+    </row>
+    <row r="33" ht="28.8" customHeight="1"/>
+    <row r="34" ht="28.8" customHeight="1">
+      <c r="A34" s="19" t="inlineStr">
+        <is>
+          <t>KONTEYNER İÇİ DAĞILIM</t>
+        </is>
+      </c>
+      <c r="B34" s="17" t="n"/>
+      <c r="C34" s="17" t="n"/>
+      <c r="D34" s="17" t="n"/>
+      <c r="E34" s="19" t="inlineStr">
+        <is>
+          <t>YÜKLEME TOPLANTISI NOTLARI</t>
+        </is>
+      </c>
+      <c r="F34" s="17" t="n"/>
+      <c r="G34" s="17" t="n"/>
+      <c r="H34" s="17" t="n"/>
+      <c r="I34" s="17" t="n"/>
+      <c r="J34" s="17" t="n"/>
+      <c r="K34" s="17" t="n"/>
+      <c r="L34" s="17" t="n"/>
+      <c r="M34" s="17" t="n"/>
+      <c r="N34" s="17" t="n"/>
+      <c r="O34" s="17" t="n"/>
+    </row>
     <row r="35" ht="28.8" customHeight="1">
-      <c r="A35" s="19" t="inlineStr">
-        <is>
-          <t>EK AÇIKLAMALAR</t>
-        </is>
-      </c>
+      <c r="A35" s="17" t="n"/>
       <c r="B35" s="17" t="n"/>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="17" t="n"/>
-      <c r="E35" s="19" t="inlineStr">
-        <is>
-          <t>KASA ÖLÇÜLERİ</t>
-        </is>
-      </c>
+      <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
@@ -1840,100 +1660,12 @@
       <c r="N37" s="17" t="n"/>
       <c r="O37" s="17" t="n"/>
     </row>
-    <row r="38" ht="28.8" customHeight="1">
-      <c r="A38" s="17" t="n"/>
-      <c r="B38" s="17" t="n"/>
-      <c r="C38" s="17" t="n"/>
-      <c r="D38" s="17" t="n"/>
-      <c r="E38" s="17" t="n"/>
-      <c r="F38" s="17" t="n"/>
-      <c r="G38" s="17" t="n"/>
-      <c r="H38" s="17" t="n"/>
-      <c r="I38" s="17" t="n"/>
-      <c r="J38" s="17" t="n"/>
-      <c r="K38" s="17" t="n"/>
-      <c r="L38" s="17" t="n"/>
-      <c r="M38" s="17" t="n"/>
-      <c r="N38" s="17" t="n"/>
-      <c r="O38" s="17" t="n"/>
-    </row>
+    <row r="38" ht="28.8" customHeight="1"/>
     <row r="39" ht="28.8" customHeight="1"/>
-    <row r="40" ht="28.8" customHeight="1">
-      <c r="A40" s="19" t="inlineStr">
-        <is>
-          <t>KONTEYNER İÇİ DAĞILIM</t>
-        </is>
-      </c>
-      <c r="B40" s="17" t="n"/>
-      <c r="C40" s="17" t="n"/>
-      <c r="D40" s="17" t="n"/>
-      <c r="E40" s="19" t="inlineStr">
-        <is>
-          <t>YÜKLEME TOPLANTISI NOTLARI</t>
-        </is>
-      </c>
-      <c r="F40" s="17" t="n"/>
-      <c r="G40" s="17" t="n"/>
-      <c r="H40" s="17" t="n"/>
-      <c r="I40" s="17" t="n"/>
-      <c r="J40" s="17" t="n"/>
-      <c r="K40" s="17" t="n"/>
-      <c r="L40" s="17" t="n"/>
-      <c r="M40" s="17" t="n"/>
-      <c r="N40" s="17" t="n"/>
-      <c r="O40" s="17" t="n"/>
-    </row>
-    <row r="41" ht="28.8" customHeight="1">
-      <c r="A41" s="17" t="n"/>
-      <c r="B41" s="17" t="n"/>
-      <c r="C41" s="17" t="n"/>
-      <c r="D41" s="17" t="n"/>
-      <c r="E41" s="17" t="n"/>
-      <c r="F41" s="17" t="n"/>
-      <c r="G41" s="17" t="n"/>
-      <c r="H41" s="17" t="n"/>
-      <c r="I41" s="17" t="n"/>
-      <c r="J41" s="17" t="n"/>
-      <c r="K41" s="17" t="n"/>
-      <c r="L41" s="17" t="n"/>
-      <c r="M41" s="17" t="n"/>
-      <c r="N41" s="17" t="n"/>
-      <c r="O41" s="17" t="n"/>
-    </row>
-    <row r="42" ht="28.8" customHeight="1">
-      <c r="A42" s="17" t="n"/>
-      <c r="B42" s="17" t="n"/>
-      <c r="C42" s="17" t="n"/>
-      <c r="D42" s="17" t="n"/>
-      <c r="E42" s="17" t="n"/>
-      <c r="F42" s="17" t="n"/>
-      <c r="G42" s="17" t="n"/>
-      <c r="H42" s="17" t="n"/>
-      <c r="I42" s="17" t="n"/>
-      <c r="J42" s="17" t="n"/>
-      <c r="K42" s="17" t="n"/>
-      <c r="L42" s="17" t="n"/>
-      <c r="M42" s="17" t="n"/>
-      <c r="N42" s="17" t="n"/>
-      <c r="O42" s="17" t="n"/>
-    </row>
-    <row r="43" ht="28.8" customHeight="1">
-      <c r="A43" s="17" t="n"/>
-      <c r="B43" s="17" t="n"/>
-      <c r="C43" s="17" t="n"/>
-      <c r="D43" s="17" t="n"/>
-      <c r="E43" s="17" t="n"/>
-      <c r="F43" s="17" t="n"/>
-      <c r="G43" s="17" t="n"/>
-      <c r="H43" s="17" t="n"/>
-      <c r="I43" s="17" t="n"/>
-      <c r="J43" s="17" t="n"/>
-      <c r="K43" s="17" t="n"/>
-      <c r="L43" s="17" t="n"/>
-      <c r="M43" s="17" t="n"/>
-      <c r="N43" s="17" t="n"/>
-      <c r="O43" s="17" t="n"/>
-    </row>
+    <row r="40" ht="28.8" customHeight="1"/>
+    <row r="41" ht="28.8" customHeight="1"/>
+    <row r="42" ht="28.8" customHeight="1"/>
+    <row r="43" ht="28.8" customHeight="1"/>
     <row r="44" ht="28.8" customHeight="1"/>
     <row r="45" ht="28.8" customHeight="1"/>
     <row r="46" ht="28.8" customHeight="1"/>
@@ -2101,30 +1833,31 @@
     <row r="208" ht="28.8" customHeight="1"/>
     <row r="209" ht="28.8" customHeight="1"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P9:P10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A35:D37"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E35:O35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E29:O29"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E40:O40"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E35:O37"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A36:D38"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A41:D43"/>
-    <mergeCell ref="E36:O38"/>
+    <mergeCell ref="A30:D32"/>
+    <mergeCell ref="E34:O34"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E30:O32"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E41:O43"/>
     <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1574803149606299" right="0.1181102362204725" top="0.33" bottom="0.59" header="0.33" footer="0.5118110236220472"/>

--- a/excel/dosyalar/ceki_listesi.xlsx
+++ b/excel/dosyalar/ceki_listesi.xlsx
@@ -628,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -692,7 +692,7 @@
     <row r="6" ht="21.6" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
         <is>
-          <t>24IMEX01-3 Packing List</t>
+          <t>25TULI10 Packing List</t>
         </is>
       </c>
     </row>
@@ -849,21 +849,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>528413</v>
+        <v>529279</v>
       </c>
       <c r="C11" s="17" t="inlineStr">
         <is>
-          <t>Limestone Tiles</t>
+          <t>Marble Baseboard</t>
         </is>
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>Classic Limestone</t>
+          <t>Imperial White</t>
         </is>
       </c>
       <c r="F11" s="17" t="inlineStr">
@@ -873,793 +873,258 @@
       </c>
       <c r="G11" s="17" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="I11" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="K11" s="17" t="n">
-        <v>40.32</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="K11" s="17" t="inlineStr"/>
       <c r="L11" s="17" t="inlineStr"/>
-      <c r="M11" s="17" t="inlineStr"/>
+      <c r="M11" s="17" t="n">
+        <v>110.1</v>
+      </c>
       <c r="N11" s="17" t="n">
-        <v>2080</v>
+        <v>729</v>
       </c>
       <c r="O11" s="17" t="n">
-        <v>2110</v>
-      </c>
-      <c r="P11" s="17" t="inlineStr">
-        <is>
-          <t>deneme1</t>
-        </is>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="P11" s="17" t="inlineStr"/>
     </row>
     <row r="12" ht="28.8" customHeight="1">
-      <c r="A12" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>528414</v>
-      </c>
-      <c r="C12" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D12" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E12" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F12" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G12" s="17" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="H12" s="17" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="I12" s="17" t="n">
+      <c r="K12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="K12" s="17" t="n">
-        <v>40.32</v>
-      </c>
-      <c r="L12" s="17" t="inlineStr"/>
-      <c r="M12" s="17" t="inlineStr"/>
-      <c r="N12" s="17" t="n">
-        <v>2080</v>
-      </c>
-      <c r="O12" s="17" t="n">
-        <v>2110</v>
-      </c>
-      <c r="P12" s="17" t="inlineStr">
-        <is>
-          <t>deneme1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="28.8" customHeight="1">
-      <c r="A13" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>528419</v>
-      </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D13" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E13" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F13" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G13" s="17" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="H13" s="17" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="I13" s="17" t="n">
+      <c r="L12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="K13" s="17" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="L13" s="17" t="inlineStr"/>
-      <c r="M13" s="17" t="inlineStr"/>
-      <c r="N13" s="17" t="n">
-        <v>1263</v>
-      </c>
-      <c r="O13" s="17" t="n">
-        <v>1293</v>
-      </c>
-      <c r="P13" s="17" t="inlineStr">
-        <is>
-          <t>deneme1</t>
-        </is>
-      </c>
-    </row>
+      <c r="M12" s="18" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="N12" s="18" t="n">
+        <v>729</v>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" customHeight="1"/>
     <row r="14" ht="28.8" customHeight="1">
-      <c r="A14" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>61284</v>
-      </c>
-      <c r="C14" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D14" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E14" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F14" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G14" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K14" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L14" s="17" t="inlineStr"/>
-      <c r="M14" s="17" t="inlineStr"/>
-      <c r="N14" s="17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="O14" s="17" t="n">
-        <v>1268</v>
-      </c>
-      <c r="P14" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="28.8" customHeight="1">
-      <c r="A15" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>61287</v>
-      </c>
-      <c r="C15" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D15" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E15" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F15" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G15" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H15" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K15" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L15" s="17" t="inlineStr"/>
-      <c r="M15" s="17" t="inlineStr"/>
-      <c r="N15" s="17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="O15" s="17" t="n">
-        <v>1268</v>
-      </c>
-      <c r="P15" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
-    </row>
+      <c r="A14" s="19" t="inlineStr">
+        <is>
+          <t>TOTAL CASES</t>
+        </is>
+      </c>
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>1 W.CASES</t>
+        </is>
+      </c>
+      <c r="D14" s="17" t="n"/>
+    </row>
+    <row r="15" ht="28.8" customHeight="1"/>
     <row r="16" ht="28.8" customHeight="1">
-      <c r="A16" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="17" t="n">
-        <v>61289</v>
-      </c>
-      <c r="C16" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D16" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E16" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F16" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G16" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K16" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L16" s="17" t="inlineStr"/>
-      <c r="M16" s="17" t="inlineStr"/>
-      <c r="N16" s="17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="O16" s="17" t="n">
-        <v>1268</v>
-      </c>
-      <c r="P16" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="28.8" customHeight="1">
-      <c r="A17" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="17" t="n">
-        <v>61435</v>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K17" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L17" s="17" t="inlineStr"/>
-      <c r="M17" s="17" t="inlineStr"/>
-      <c r="N17" s="17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="O17" s="17" t="n">
-        <v>1268</v>
-      </c>
-      <c r="P17" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
-    </row>
+      <c r="A16" s="19" t="inlineStr">
+        <is>
+          <t>TOTAL NET KG</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="n"/>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>729 kgs</t>
+        </is>
+      </c>
+      <c r="D16" s="17" t="n"/>
+    </row>
+    <row r="17" ht="28.8" customHeight="1"/>
     <row r="18" ht="28.8" customHeight="1">
-      <c r="A18" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="B18" s="17" t="n">
-        <v>61438</v>
-      </c>
-      <c r="C18" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D18" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F18" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G18" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H18" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K18" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L18" s="17" t="inlineStr"/>
-      <c r="M18" s="17" t="inlineStr"/>
-      <c r="N18" s="17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="O18" s="17" t="n">
-        <v>1268</v>
-      </c>
-      <c r="P18" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="28.8" customHeight="1">
-      <c r="A19" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="B19" s="17" t="n">
-        <v>61453</v>
-      </c>
-      <c r="C19" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D19" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E19" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F19" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G19" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H19" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K19" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L19" s="17" t="inlineStr"/>
-      <c r="M19" s="17" t="inlineStr"/>
-      <c r="N19" s="17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="O19" s="17" t="n">
-        <v>1268</v>
-      </c>
-      <c r="P19" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
-    </row>
+      <c r="A18" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOTAL GROSS KG </t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>759 kgs</t>
+        </is>
+      </c>
+      <c r="D18" s="17" t="n"/>
+    </row>
+    <row r="19" ht="28.8" customHeight="1"/>
     <row r="20" ht="28.8" customHeight="1">
-      <c r="A20" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" s="17" t="n">
-        <v>61457</v>
-      </c>
-      <c r="C20" s="17" t="inlineStr">
-        <is>
-          <t>Limestone Tiles</t>
-        </is>
-      </c>
-      <c r="D20" s="17" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="E20" s="17" t="inlineStr">
-        <is>
-          <t>Classic Limestone</t>
-        </is>
-      </c>
-      <c r="F20" s="17" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G20" s="17" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H20" s="17" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17" t="n">
-        <v>700</v>
-      </c>
-      <c r="K20" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="L20" s="17" t="inlineStr"/>
-      <c r="M20" s="17" t="inlineStr"/>
-      <c r="N20" s="17" t="n">
-        <v>722</v>
-      </c>
-      <c r="O20" s="17" t="n">
-        <v>752</v>
-      </c>
-      <c r="P20" s="17" t="inlineStr">
-        <is>
-          <t>deneme2</t>
-        </is>
-      </c>
+      <c r="A20" s="19" t="inlineStr">
+        <is>
+          <t>EK AÇIKLAMALAR</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="17" t="n"/>
+      <c r="E20" s="19" t="inlineStr">
+        <is>
+          <t>KASA ÖLÇÜLERİ</t>
+        </is>
+      </c>
+      <c r="F20" s="17" t="n"/>
+      <c r="G20" s="17" t="n"/>
+      <c r="H20" s="17" t="n"/>
+      <c r="I20" s="17" t="n"/>
+      <c r="J20" s="17" t="n"/>
+      <c r="K20" s="17" t="n"/>
+      <c r="L20" s="17" t="n"/>
+      <c r="M20" s="17" t="n"/>
+      <c r="N20" s="17" t="n"/>
+      <c r="O20" s="17" t="n"/>
     </row>
     <row r="21" ht="28.8" customHeight="1">
-      <c r="K21" s="18" t="n">
-        <v>263.12</v>
-      </c>
-      <c r="L21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18" t="n">
-        <v>13573</v>
-      </c>
-      <c r="O21" s="18" t="n">
-        <v>13873</v>
-      </c>
-    </row>
-    <row r="22" ht="28.8" customHeight="1"/>
+      <c r="A21" s="17" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="17" t="n"/>
+      <c r="E21" s="17" t="n"/>
+      <c r="F21" s="17" t="n"/>
+      <c r="G21" s="17" t="n"/>
+      <c r="H21" s="17" t="n"/>
+      <c r="I21" s="17" t="n"/>
+      <c r="J21" s="17" t="n"/>
+      <c r="K21" s="17" t="n"/>
+      <c r="L21" s="17" t="n"/>
+      <c r="M21" s="17" t="n"/>
+      <c r="N21" s="17" t="n"/>
+      <c r="O21" s="17" t="n"/>
+    </row>
+    <row r="22" ht="28.8" customHeight="1">
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="17" t="n"/>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="17" t="n"/>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="17" t="n"/>
+      <c r="M22" s="17" t="n"/>
+      <c r="N22" s="17" t="n"/>
+      <c r="O22" s="17" t="n"/>
+    </row>
     <row r="23" ht="28.8" customHeight="1">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>TOTAL CASES</t>
-        </is>
-      </c>
+      <c r="A23" s="17" t="n"/>
       <c r="B23" s="17" t="n"/>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>10 W.CASES</t>
-        </is>
-      </c>
+      <c r="C23" s="17" t="n"/>
       <c r="D23" s="17" t="n"/>
+      <c r="E23" s="17" t="n"/>
+      <c r="F23" s="17" t="n"/>
+      <c r="G23" s="17" t="n"/>
+      <c r="H23" s="17" t="n"/>
+      <c r="I23" s="17" t="n"/>
+      <c r="J23" s="17" t="n"/>
+      <c r="K23" s="17" t="n"/>
+      <c r="L23" s="17" t="n"/>
+      <c r="M23" s="17" t="n"/>
+      <c r="N23" s="17" t="n"/>
+      <c r="O23" s="17" t="n"/>
     </row>
     <row r="24" ht="28.8" customHeight="1"/>
     <row r="25" ht="28.8" customHeight="1">
       <c r="A25" s="19" t="inlineStr">
         <is>
-          <t>TOTAL NET KG</t>
+          <t>KONTEYNER İÇİ DAĞILIM</t>
         </is>
       </c>
       <c r="B25" s="17" t="n"/>
-      <c r="C25" s="19" t="inlineStr">
-        <is>
-          <t>13573 kgs</t>
-        </is>
-      </c>
+      <c r="C25" s="17" t="n"/>
       <c r="D25" s="17" t="n"/>
-    </row>
-    <row r="26" ht="28.8" customHeight="1"/>
+      <c r="E25" s="19" t="inlineStr">
+        <is>
+          <t>YÜKLEME TOPLANTISI NOTLARI</t>
+        </is>
+      </c>
+      <c r="F25" s="17" t="n"/>
+      <c r="G25" s="17" t="n"/>
+      <c r="H25" s="17" t="n"/>
+      <c r="I25" s="17" t="n"/>
+      <c r="J25" s="17" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="17" t="n"/>
+      <c r="M25" s="17" t="n"/>
+      <c r="N25" s="17" t="n"/>
+      <c r="O25" s="17" t="n"/>
+    </row>
+    <row r="26" ht="28.8" customHeight="1">
+      <c r="A26" s="17" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
+      <c r="H26" s="17" t="n"/>
+      <c r="I26" s="17" t="n"/>
+      <c r="J26" s="17" t="n"/>
+      <c r="K26" s="17" t="n"/>
+      <c r="L26" s="17" t="n"/>
+      <c r="M26" s="17" t="n"/>
+      <c r="N26" s="17" t="n"/>
+      <c r="O26" s="17" t="n"/>
+    </row>
     <row r="27" ht="28.8" customHeight="1">
-      <c r="A27" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTAL GROSS KG </t>
-        </is>
-      </c>
+      <c r="A27" s="17" t="n"/>
       <c r="B27" s="17" t="n"/>
-      <c r="C27" s="19" t="inlineStr">
-        <is>
-          <t>13873 kgs</t>
-        </is>
-      </c>
+      <c r="C27" s="17" t="n"/>
       <c r="D27" s="17" t="n"/>
-    </row>
-    <row r="28" ht="28.8" customHeight="1"/>
-    <row r="29" ht="28.8" customHeight="1">
-      <c r="A29" s="19" t="inlineStr">
-        <is>
-          <t>EK AÇIKLAMALAR</t>
-        </is>
-      </c>
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="17" t="n"/>
-      <c r="D29" s="17" t="n"/>
-      <c r="E29" s="19" t="inlineStr">
-        <is>
-          <t>KASA ÖLÇÜLERİ</t>
-        </is>
-      </c>
-      <c r="F29" s="17" t="n"/>
-      <c r="G29" s="17" t="n"/>
-      <c r="H29" s="17" t="n"/>
-      <c r="I29" s="17" t="n"/>
-      <c r="J29" s="17" t="n"/>
-      <c r="K29" s="17" t="n"/>
-      <c r="L29" s="17" t="n"/>
-      <c r="M29" s="17" t="n"/>
-      <c r="N29" s="17" t="n"/>
-      <c r="O29" s="17" t="n"/>
-    </row>
-    <row r="30" ht="28.8" customHeight="1">
-      <c r="A30" s="17" t="n"/>
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="17" t="n"/>
-      <c r="D30" s="17" t="n"/>
-      <c r="E30" s="17" t="n"/>
-      <c r="F30" s="17" t="n"/>
-      <c r="G30" s="17" t="n"/>
-      <c r="H30" s="17" t="n"/>
-      <c r="I30" s="17" t="n"/>
-      <c r="J30" s="17" t="n"/>
-      <c r="K30" s="17" t="n"/>
-      <c r="L30" s="17" t="n"/>
-      <c r="M30" s="17" t="n"/>
-      <c r="N30" s="17" t="n"/>
-      <c r="O30" s="17" t="n"/>
-    </row>
-    <row r="31" ht="28.8" customHeight="1">
-      <c r="A31" s="17" t="n"/>
-      <c r="B31" s="17" t="n"/>
-      <c r="C31" s="17" t="n"/>
-      <c r="D31" s="17" t="n"/>
-      <c r="E31" s="17" t="n"/>
-      <c r="F31" s="17" t="n"/>
-      <c r="G31" s="17" t="n"/>
-      <c r="H31" s="17" t="n"/>
-      <c r="I31" s="17" t="n"/>
-      <c r="J31" s="17" t="n"/>
-      <c r="K31" s="17" t="n"/>
-      <c r="L31" s="17" t="n"/>
-      <c r="M31" s="17" t="n"/>
-      <c r="N31" s="17" t="n"/>
-      <c r="O31" s="17" t="n"/>
-    </row>
-    <row r="32" ht="28.8" customHeight="1">
-      <c r="A32" s="17" t="n"/>
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="17" t="n"/>
-      <c r="D32" s="17" t="n"/>
-      <c r="E32" s="17" t="n"/>
-      <c r="F32" s="17" t="n"/>
-      <c r="G32" s="17" t="n"/>
-      <c r="H32" s="17" t="n"/>
-      <c r="I32" s="17" t="n"/>
-      <c r="J32" s="17" t="n"/>
-      <c r="K32" s="17" t="n"/>
-      <c r="L32" s="17" t="n"/>
-      <c r="M32" s="17" t="n"/>
-      <c r="N32" s="17" t="n"/>
-      <c r="O32" s="17" t="n"/>
-    </row>
+      <c r="E27" s="17" t="n"/>
+      <c r="F27" s="17" t="n"/>
+      <c r="G27" s="17" t="n"/>
+      <c r="H27" s="17" t="n"/>
+      <c r="I27" s="17" t="n"/>
+      <c r="J27" s="17" t="n"/>
+      <c r="K27" s="17" t="n"/>
+      <c r="L27" s="17" t="n"/>
+      <c r="M27" s="17" t="n"/>
+      <c r="N27" s="17" t="n"/>
+      <c r="O27" s="17" t="n"/>
+    </row>
+    <row r="28" ht="28.8" customHeight="1">
+      <c r="A28" s="17" t="n"/>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="17" t="n"/>
+      <c r="E28" s="17" t="n"/>
+      <c r="F28" s="17" t="n"/>
+      <c r="G28" s="17" t="n"/>
+      <c r="H28" s="17" t="n"/>
+      <c r="I28" s="17" t="n"/>
+      <c r="J28" s="17" t="n"/>
+      <c r="K28" s="17" t="n"/>
+      <c r="L28" s="17" t="n"/>
+      <c r="M28" s="17" t="n"/>
+      <c r="N28" s="17" t="n"/>
+      <c r="O28" s="17" t="n"/>
+    </row>
+    <row r="29" ht="28.8" customHeight="1"/>
+    <row r="30" ht="28.8" customHeight="1"/>
+    <row r="31" ht="28.8" customHeight="1"/>
+    <row r="32" ht="28.8" customHeight="1"/>
     <row r="33" ht="28.8" customHeight="1"/>
-    <row r="34" ht="28.8" customHeight="1">
-      <c r="A34" s="19" t="inlineStr">
-        <is>
-          <t>KONTEYNER İÇİ DAĞILIM</t>
-        </is>
-      </c>
-      <c r="B34" s="17" t="n"/>
-      <c r="C34" s="17" t="n"/>
-      <c r="D34" s="17" t="n"/>
-      <c r="E34" s="19" t="inlineStr">
-        <is>
-          <t>YÜKLEME TOPLANTISI NOTLARI</t>
-        </is>
-      </c>
-      <c r="F34" s="17" t="n"/>
-      <c r="G34" s="17" t="n"/>
-      <c r="H34" s="17" t="n"/>
-      <c r="I34" s="17" t="n"/>
-      <c r="J34" s="17" t="n"/>
-      <c r="K34" s="17" t="n"/>
-      <c r="L34" s="17" t="n"/>
-      <c r="M34" s="17" t="n"/>
-      <c r="N34" s="17" t="n"/>
-      <c r="O34" s="17" t="n"/>
-    </row>
-    <row r="35" ht="28.8" customHeight="1">
-      <c r="A35" s="17" t="n"/>
-      <c r="B35" s="17" t="n"/>
-      <c r="C35" s="17" t="n"/>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
-      <c r="H35" s="17" t="n"/>
-      <c r="I35" s="17" t="n"/>
-      <c r="J35" s="17" t="n"/>
-      <c r="K35" s="17" t="n"/>
-      <c r="L35" s="17" t="n"/>
-      <c r="M35" s="17" t="n"/>
-      <c r="N35" s="17" t="n"/>
-      <c r="O35" s="17" t="n"/>
-    </row>
-    <row r="36" ht="28.8" customHeight="1">
-      <c r="A36" s="17" t="n"/>
-      <c r="B36" s="17" t="n"/>
-      <c r="C36" s="17" t="n"/>
-      <c r="D36" s="17" t="n"/>
-      <c r="E36" s="17" t="n"/>
-      <c r="F36" s="17" t="n"/>
-      <c r="G36" s="17" t="n"/>
-      <c r="H36" s="17" t="n"/>
-      <c r="I36" s="17" t="n"/>
-      <c r="J36" s="17" t="n"/>
-      <c r="K36" s="17" t="n"/>
-      <c r="L36" s="17" t="n"/>
-      <c r="M36" s="17" t="n"/>
-      <c r="N36" s="17" t="n"/>
-      <c r="O36" s="17" t="n"/>
-    </row>
-    <row r="37" ht="28.8" customHeight="1">
-      <c r="A37" s="17" t="n"/>
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="17" t="n"/>
-      <c r="D37" s="17" t="n"/>
-      <c r="E37" s="17" t="n"/>
-      <c r="F37" s="17" t="n"/>
-      <c r="G37" s="17" t="n"/>
-      <c r="H37" s="17" t="n"/>
-      <c r="I37" s="17" t="n"/>
-      <c r="J37" s="17" t="n"/>
-      <c r="K37" s="17" t="n"/>
-      <c r="L37" s="17" t="n"/>
-      <c r="M37" s="17" t="n"/>
-      <c r="N37" s="17" t="n"/>
-      <c r="O37" s="17" t="n"/>
-    </row>
+    <row r="34" ht="28.8" customHeight="1"/>
+    <row r="35" ht="28.8" customHeight="1"/>
+    <row r="36" ht="28.8" customHeight="1"/>
+    <row r="37" ht="28.8" customHeight="1"/>
     <row r="38" ht="28.8" customHeight="1"/>
     <row r="39" ht="28.8" customHeight="1"/>
     <row r="40" ht="28.8" customHeight="1"/>
@@ -1834,30 +1299,30 @@
     <row r="209" ht="28.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A26:D28"/>
+    <mergeCell ref="A21:D23"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E21:O23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A35:D37"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E29:O29"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E20:O20"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E35:O37"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A30:D32"/>
-    <mergeCell ref="E34:O34"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E30:O32"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E25:O25"/>
     <mergeCell ref="A6:O6"/>
+    <mergeCell ref="E26:O28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1574803149606299" right="0.1181102362204725" top="0.33" bottom="0.59" header="0.33" footer="0.5118110236220472"/>
